--- a/intensities/opiskelijamalli.xlsx
+++ b/intensities/opiskelijamalli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/ty-llisyyspaperi/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EC552E-D4F3-C04C-B447-A460E3A81A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F78BD-46FD-864B-9251-DA08BD713DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1460" windowWidth="24440" windowHeight="15520" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
+    <workbookView xWindow="4360" yWindow="1260" windowWidth="24440" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
   </bookViews>
   <sheets>
     <sheet name="miehet" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92590640-645E-204B-9831-3012D0CA494E}">
-  <dimension ref="B1:R310"/>
+  <dimension ref="B1:S310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +470,7 @@
     <col min="4" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>7</v>
       </c>
@@ -495,7 +495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -574,12 +574,8 @@
         <f>M5*E5</f>
         <v>7.7018979247279129E-2</v>
       </c>
-      <c r="R5" s="3">
-        <f>D5+P5-O5</f>
-        <v>0.26934974747474749</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <f>1+C5</f>
         <v>21</v>
@@ -622,13 +618,17 @@
         <v>5.7335972280606003E-2</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R54" si="6">D6+P6-O6</f>
-        <v>0.27281577026040399</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+        <f>D5+P5-O5</f>
+        <v>0.26934974747474749</v>
+      </c>
+      <c r="S6" s="3">
+        <f>D6-R6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C55" si="7">1+C6</f>
+        <f t="shared" ref="C7:C55" si="6">1+C6</f>
         <v>22</v>
       </c>
       <c r="D7" s="2">
@@ -669,13 +669,17 @@
         <v>5.4563154052080801E-2</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="6"/>
-        <v>0.25234741784037557</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R6+P6-O6</f>
+        <v>0.27281577026040399</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" ref="S7:S55" si="7">D7-R7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="D8" s="2">
@@ -716,13 +720,17 @@
         <v>5.0469483568075117E-2</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="6"/>
-        <v>0.20668200801159126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="R8:R55" si="9">R7+P7-O7</f>
+        <v>0.25234741784037557</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D9" s="2">
@@ -763,13 +771,17 @@
         <v>4.1336401602318246E-2</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="6"/>
-        <v>0.15859030837004406</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.20668200801159126</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D10" s="2">
@@ -810,13 +822,17 @@
         <v>3.1718061674008813E-2</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="6"/>
-        <v>0.12220872147968138</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.15859030837004409</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D11" s="2">
@@ -857,13 +873,17 @@
         <v>2.4441744295936277E-2</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="6"/>
-        <v>9.5975739693467732E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0.12220872147968141</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="D12" s="2">
@@ -904,13 +924,17 @@
         <v>1.9195147938693549E-2</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" si="6"/>
-        <v>7.5961279913955362E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>9.597573969346776E-2</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="D13" s="2">
@@ -951,13 +975,17 @@
         <v>1.5192255982791074E-2</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" si="6"/>
-        <v>6.1711773595274078E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>7.5961279913955376E-2</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="D14" s="2">
@@ -998,13 +1026,17 @@
         <v>1.2342354719054816E-2</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="6"/>
-        <v>5.5505328621133665E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>6.1711773595274091E-2</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="D15" s="2">
@@ -1046,13 +1078,17 @@
         <v>2.7752664310566832E-2</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="6"/>
-        <v>4.6591494476561156E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>5.5505328621133679E-2</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="D16" s="2">
@@ -1070,11 +1106,11 @@
         <v>0.19548797563982859</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" ref="I16:I54" si="9">$J$1</f>
+        <f t="shared" ref="I16:I54" si="10">$J$1</f>
         <v>0.5</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" ref="J16:J54" si="10">I16*D16/E16</f>
+        <f t="shared" ref="J16:J54" si="11">I16*D16/E16</f>
         <v>2.6740251634308987E-2</v>
       </c>
       <c r="L16" s="6">
@@ -1094,13 +1130,17 @@
         <v>2.3295747238280578E-2</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="6"/>
-        <v>3.7483417539303961E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>4.659149447656117E-2</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="D17" s="2">
@@ -1118,11 +1158,11 @@
         <v>5.4276798764626738E-2</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1215413125439325E-2</v>
       </c>
       <c r="L17" s="6">
@@ -1142,13 +1182,17 @@
         <v>1.874170876965198E-2</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="6"/>
-        <v>3.5448937628512686E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>3.7483417539303975E-2</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="D18" s="2">
@@ -1166,11 +1210,11 @@
         <v>0.11273558147156763</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0047754899528654E-2</v>
       </c>
       <c r="L18" s="6">
@@ -1190,13 +1234,17 @@
         <v>1.772446881425634E-2</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="6"/>
-        <v>3.1452581032412968E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>3.54489376285127E-2</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="D19" s="2">
@@ -1214,11 +1262,11 @@
         <v>8.6022604365880842E-2</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7760303687635579E-2</v>
       </c>
       <c r="L19" s="6">
@@ -1238,13 +1286,17 @@
         <v>1.5726290516206484E-2</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="6"/>
-        <v>2.87469480979759E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>3.1452581032412982E-2</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="D20" s="2">
@@ -1262,11 +1314,11 @@
         <v>7.3293224536659721E-2</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6101046935654627E-2</v>
       </c>
       <c r="L20" s="6">
@@ -1286,13 +1338,17 @@
         <v>1.437347404898795E-2</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="6"/>
-        <v>2.6639991576287249E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.8746948097975913E-2</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="D21" s="2">
@@ -1310,11 +1366,11 @@
         <v>3.6884688739015105E-2</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4903393025447692E-2</v>
       </c>
       <c r="L21" s="6">
@@ -1334,13 +1390,17 @@
         <v>1.3319995788143624E-2</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="6"/>
-        <v>2.5657383778985913E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.6639991576287263E-2</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="D22" s="2">
@@ -1358,11 +1418,11 @@
         <v>8.7368063017912653E-2</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4334418100108477E-2</v>
       </c>
       <c r="L22" s="6">
@@ -1382,13 +1442,17 @@
         <v>1.2828691889492955E-2</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="6"/>
-        <v>2.3415747856108698E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.5657383778985927E-2</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="D23" s="2">
@@ -1406,11 +1470,11 @@
         <v>9.5759421485597795E-2</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3070778029902707E-2</v>
       </c>
       <c r="L23" s="6">
@@ -1430,13 +1494,17 @@
         <v>1.1707873928054349E-2</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="6"/>
-        <v>2.1173469387755103E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.3415747856108712E-2</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="D24" s="2">
@@ -1454,11 +1522,11 @@
         <v>8.1903206962351413E-2</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.175082586125531E-2</v>
       </c>
       <c r="L24" s="6">
@@ -1478,13 +1546,17 @@
         <v>1.0586734693877551E-2</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="6"/>
-        <v>1.9439294342378781E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.1173469387755117E-2</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="D25" s="2">
@@ -1502,11 +1574,11 @@
         <v>6.8183537309209601E-3</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0813851731466432E-2</v>
       </c>
       <c r="L25" s="6">
@@ -1526,13 +1598,17 @@
         <v>9.7196471711893922E-3</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="6"/>
-        <v>1.9306750357272952E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.9439294342378795E-2</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="D26" s="2">
@@ -1550,11 +1626,11 @@
         <v>0.13748803210649571</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.069045771916214E-2</v>
       </c>
       <c r="L26" s="6">
@@ -1574,13 +1650,17 @@
         <v>9.6533751786364776E-3</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="6"/>
-        <v>1.665230324428011E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.9306750357272966E-2</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="D27" s="2">
@@ -1598,11 +1678,11 @@
         <v>9.5416277514522668E-2</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.2122666174525528E-3</v>
       </c>
       <c r="L27" s="6">
@@ -1622,13 +1702,17 @@
         <v>8.3261516221400569E-3</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="6"/>
-        <v>1.5063402456667895E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.6652303244280124E-2</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="D28" s="2">
@@ -1646,11 +1730,11 @@
         <v>3.201127248469917E-2</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.3171480483678981E-3</v>
       </c>
       <c r="L28" s="6">
@@ -1670,13 +1754,17 @@
         <v>7.531701228333949E-3</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="6"/>
-        <v>1.4581203776080815E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.5063402456667908E-2</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="D29" s="2">
@@ -1694,11 +1782,11 @@
         <v>3.4285600466427667E-2</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.083602786759559E-3</v>
       </c>
       <c r="L29" s="6">
@@ -1718,13 +1806,17 @@
         <v>7.2906018880404076E-3</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="6"/>
-        <v>1.408127844909454E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.4581203776080829E-2</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.5612511283791264E-17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="D30" s="2">
@@ -1742,11 +1834,11 @@
         <v>5.826533193115107E-2</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.828429944654821E-3</v>
       </c>
       <c r="L30" s="6">
@@ -1766,13 +1858,17 @@
         <v>7.040639224547271E-3</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="6"/>
-        <v>1.3260828086243086E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.4081278449094558E-2</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.7347234759768071E-17</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="D31" s="2">
@@ -1790,11 +1886,11 @@
         <v>1.7919734274878502E-2</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.3836673985409728E-3</v>
       </c>
       <c r="L31" s="6">
@@ -1814,13 +1910,17 @@
         <v>6.6304140431215413E-3</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="6"/>
-        <v>1.3023197570672759E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.32608280862431E-2</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.7347234759768071E-17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="D32" s="2">
@@ -1838,11 +1938,11 @@
         <v>2.0377745792374721E-2</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.2734902262475091E-3</v>
       </c>
       <c r="L32" s="6">
@@ -1862,13 +1962,17 @@
         <v>6.5115987853363805E-3</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="6"/>
-        <v>1.2757814161173719E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.3023197570672777E-2</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.5612511283791264E-17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="D33" s="2">
@@ -1886,11 +1990,11 @@
         <v>0.13077843009349868</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1212994675980881E-3</v>
       </c>
       <c r="L33" s="6">
@@ -1910,13 +2014,17 @@
         <v>6.3789070805868597E-3</v>
       </c>
       <c r="R33" s="3">
-        <f t="shared" si="6"/>
-        <v>1.1089367253750815E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.2757814161173733E-2</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3877787807814457E-17</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="D34" s="2">
@@ -1934,11 +2042,11 @@
         <v>7.2865052483150547E-2</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.2134502923976605E-3</v>
       </c>
       <c r="L34" s="6">
@@ -1958,13 +2066,17 @@
         <v>5.5446836268754074E-3</v>
       </c>
       <c r="R34" s="3">
-        <f t="shared" si="6"/>
-        <v>1.0281339926801331E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.1089367253750829E-2</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3877787807814457E-17</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="D35" s="2">
@@ -1982,11 +2094,11 @@
         <v>7.2013536288774271E-2</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J35" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.779983665263555E-3</v>
       </c>
       <c r="L35" s="6">
@@ -2006,13 +2118,17 @@
         <v>5.1406699634006653E-3</v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" si="6"/>
-        <v>9.5409442808853991E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.0281339926801344E-2</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3877787807814457E-17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="D36" s="2">
@@ -2030,11 +2146,11 @@
         <v>6.6731915290895782E-2</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J36" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.3965708646848401E-3</v>
       </c>
       <c r="L36" s="6">
@@ -2054,13 +2170,17 @@
         <v>4.7704721404426996E-3</v>
       </c>
       <c r="R36" s="3">
-        <f t="shared" si="6"/>
-        <v>8.9042587953381963E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>9.540944280885413E-3</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3877787807814457E-17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="D37" s="2">
@@ -2070,7 +2190,7 @@
         <v>0.88152162073848161</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" ref="F37:F54" si="11">D38-D37</f>
+        <f t="shared" ref="F37:F54" si="12">D38-D37</f>
         <v>-1.7176520170613507E-3</v>
       </c>
       <c r="G37" s="3">
@@ -2078,11 +2198,11 @@
         <v>0.19290230175706741</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.0505050505050501E-3</v>
       </c>
       <c r="L37" s="6">
@@ -2102,13 +2222,17 @@
         <v>4.452129397669099E-3</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" si="6"/>
-        <v>7.1866067782768482E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>8.9042587953382102E-3</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D38" s="2">
@@ -2118,19 +2242,19 @@
         <v>0.87390771743568796</v>
       </c>
       <c r="F38" s="3">
+        <f t="shared" si="12"/>
+        <v>3.6036105344182737E-4</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="8"/>
+        <v>-5.0143421584036098E-2</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J38" s="9">
         <f t="shared" si="11"/>
-        <v>3.6036105344182737E-4</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="8"/>
-        <v>-5.0143421584036098E-2</v>
-      </c>
-      <c r="I38" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J38" s="9">
-        <f t="shared" si="10"/>
         <v>4.1117652555835906E-3</v>
       </c>
       <c r="L38" s="6">
@@ -2150,13 +2274,17 @@
         <v>3.5933033891384237E-3</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" si="6"/>
-        <v>7.5469678317186747E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>7.1866067782768587E-3</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.1275702593849246E-17</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D39" s="2">
@@ -2166,19 +2294,19 @@
         <v>0.87025638280790019</v>
       </c>
       <c r="F39" s="3">
+        <f t="shared" si="12"/>
+        <v>-7.9218762801152361E-4</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="8"/>
+        <v>0.10496766988751273</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="9">
         <f t="shared" si="11"/>
-        <v>-7.9218762801152361E-4</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="8"/>
-        <v>0.10496766988751273</v>
-      </c>
-      <c r="I39" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J39" s="9">
-        <f t="shared" si="10"/>
         <v>4.3360600282920233E-3</v>
       </c>
       <c r="L39" s="6">
@@ -2198,13 +2326,17 @@
         <v>3.7734839158593374E-3</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" si="6"/>
-        <v>6.7547802037071511E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>7.5469678317186869E-3</v>
+      </c>
+      <c r="S39" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.214306433183765E-17</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D40" s="2">
@@ -2214,19 +2346,19 @@
         <v>0.86080897800707401</v>
       </c>
       <c r="F40" s="3">
+        <f t="shared" si="12"/>
+        <v>2.7760649672934224E-4</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="8"/>
+        <v>-4.1097783844541165E-2</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="9">
         <f t="shared" si="11"/>
-        <v>2.7760649672934224E-4</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="8"/>
-        <v>-4.1097783844541165E-2</v>
-      </c>
-      <c r="I40" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J40" s="9">
-        <f t="shared" si="10"/>
         <v>3.9235070592233308E-3</v>
       </c>
       <c r="L40" s="6">
@@ -2246,13 +2378,17 @@
         <v>3.3773901018535756E-3</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="6"/>
-        <v>7.0323867004364934E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>6.7547802037071633E-3</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.214306433183765E-17</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D41" s="2">
@@ -2262,19 +2398,19 @@
         <v>0.84644608503529672</v>
       </c>
       <c r="F41" s="3">
+        <f t="shared" si="12"/>
+        <v>-9.936403551076417E-4</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="8"/>
+        <v>0.14129489708607285</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="9">
         <f t="shared" si="11"/>
-        <v>-9.936403551076417E-4</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="8"/>
-        <v>0.14129489708607285</v>
-      </c>
-      <c r="I41" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" si="10"/>
         <v>4.1540665287283143E-3</v>
       </c>
       <c r="L41" s="6">
@@ -2294,13 +2430,17 @@
         <v>3.5161933502182467E-3</v>
       </c>
       <c r="R41" s="3">
-        <f t="shared" si="6"/>
-        <v>6.0387463453288508E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>7.0323867004365055E-3</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.214306433183765E-17</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D42" s="2">
@@ -2310,19 +2450,19 @@
         <v>0.83411208569008388</v>
       </c>
       <c r="F42" s="3">
+        <f t="shared" si="12"/>
+        <v>-1.4349246186183655E-3</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="8"/>
+        <v>0.23761962112025486</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="9">
         <f t="shared" si="11"/>
-        <v>-1.4349246186183655E-3</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="8"/>
-        <v>0.23761962112025486</v>
-      </c>
-      <c r="I42" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J42" s="9">
-        <f t="shared" si="10"/>
         <v>3.619865033086549E-3</v>
       </c>
       <c r="L42" s="6">
@@ -2342,13 +2482,17 @@
         <v>3.0193731726644258E-3</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="6"/>
-        <v>4.6038217267104853E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>6.0387463453288647E-3</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3010426069826053E-17</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D43" s="2">
@@ -2358,19 +2502,19 @@
         <v>0.82497157278753086</v>
       </c>
       <c r="F43" s="3">
+        <f t="shared" si="12"/>
+        <v>-8.5923600643662834E-4</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="8"/>
+        <v>0.18663537761497295</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="9">
         <f t="shared" si="11"/>
-        <v>-8.5923600643662834E-4</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="8"/>
-        <v>0.18663537761497295</v>
-      </c>
-      <c r="I43" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J43" s="9">
-        <f t="shared" si="10"/>
         <v>2.7902911315807167E-3</v>
       </c>
       <c r="L43" s="6">
@@ -2390,13 +2534,17 @@
         <v>2.3019108633552431E-3</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" si="6"/>
-        <v>3.7445857202738578E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>4.6038217267104992E-3</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3010426069826053E-17</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D44" s="2">
@@ -2406,19 +2554,19 @@
         <v>0.80681849937124495</v>
       </c>
       <c r="F44" s="3">
+        <f t="shared" si="12"/>
+        <v>-8.9525153407859137E-4</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="8"/>
+        <v>0.2390789264701671</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J44" s="9">
         <f t="shared" si="11"/>
-        <v>-8.9525153407859137E-4</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="8"/>
-        <v>0.2390789264701671</v>
-      </c>
-      <c r="I44" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J44" s="9">
-        <f t="shared" si="10"/>
         <v>2.3205874203380437E-3</v>
       </c>
       <c r="L44" s="6">
@@ -2438,13 +2586,17 @@
         <v>1.8722928601369289E-3</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="6"/>
-        <v>2.8493341861952665E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>3.7445857202738709E-3</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3010426069826053E-17</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D45" s="2">
@@ -2454,19 +2606,19 @@
         <v>0.77568761993370938</v>
       </c>
       <c r="F45" s="3">
+        <f t="shared" si="12"/>
+        <v>6.5300643690950708E-5</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="8"/>
+        <v>-2.291786060312815E-2</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J45" s="9">
         <f t="shared" si="11"/>
-        <v>6.5300643690950708E-5</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="8"/>
-        <v>-2.291786060312815E-2</v>
-      </c>
-      <c r="I45" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J45" s="9">
-        <f t="shared" si="10"/>
         <v>1.8366505491210314E-3</v>
       </c>
       <c r="L45" s="6">
@@ -2486,13 +2638,17 @@
         <v>1.4246670930976332E-3</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" si="6"/>
-        <v>2.9146348298862172E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.8493341861952795E-3</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3010426069826053E-17</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D46" s="2">
@@ -2502,19 +2658,19 @@
         <v>0.74177456420604226</v>
       </c>
       <c r="F46" s="3">
+        <f t="shared" si="12"/>
+        <v>-1.2368747770780319E-3</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="8"/>
+        <v>0.42436697880479168</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="9">
         <f t="shared" si="11"/>
-        <v>-1.2368747770780319E-3</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="8"/>
-        <v>0.42436697880479168</v>
-      </c>
-      <c r="I46" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J46" s="9">
-        <f t="shared" si="10"/>
         <v>1.9646365422396855E-3</v>
       </c>
       <c r="L46" s="6">
@@ -2534,13 +2690,17 @@
         <v>1.4573174149431084E-3</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="6"/>
-        <v>1.6777600528081848E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.9146348298862302E-3</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3010426069826053E-17</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D47" s="2">
@@ -2550,19 +2710,19 @@
         <v>0.66403542549095107</v>
       </c>
       <c r="F47" s="3">
+        <f t="shared" si="12"/>
+        <v>3.6946637604368549E-4</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.22021407377371011</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J47" s="9">
         <f t="shared" si="11"/>
-        <v>3.6946637604368549E-4</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="8"/>
-        <v>-0.22021407377371011</v>
-      </c>
-      <c r="I47" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J47" s="9">
-        <f t="shared" si="10"/>
         <v>1.2633061342832291E-3</v>
       </c>
       <c r="L47" s="6">
@@ -2582,13 +2742,17 @@
         <v>8.3888002640409264E-4</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="6"/>
-        <v>2.0472264288518708E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.6777600528081978E-3</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.2576745200831851E-17</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D48" s="2">
@@ -2598,19 +2762,19 @@
         <v>0.42843120758315106</v>
       </c>
       <c r="F48" s="3">
+        <f t="shared" si="12"/>
+        <v>-1.0231323490398291E-4</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="8"/>
+        <v>4.9976511372687979E-2</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J48" s="9">
         <f t="shared" si="11"/>
-        <v>-1.0231323490398291E-4</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="8"/>
-        <v>4.9976511372687979E-2</v>
-      </c>
-      <c r="I48" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J48" s="9">
-        <f t="shared" si="10"/>
         <v>2.3892125417293974E-3</v>
       </c>
       <c r="L48" s="6">
@@ -2630,13 +2794,17 @@
         <v>1.0236132144259354E-3</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" si="6"/>
-        <v>1.9449131939478879E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.0472264288518833E-3</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.2576745200831851E-17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D49" s="2">
@@ -2646,19 +2814,19 @@
         <v>0.24171266767725882</v>
       </c>
       <c r="F49" s="3">
+        <f t="shared" si="12"/>
+        <v>-2.0684071632557093E-4</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="8"/>
+        <v>0.10634958771898435</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J49" s="9">
         <f t="shared" si="11"/>
-        <v>-2.0684071632557093E-4</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="8"/>
-        <v>0.10634958771898435</v>
-      </c>
-      <c r="I49" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J49" s="9">
-        <f t="shared" si="10"/>
         <v>4.023192521595078E-3</v>
       </c>
       <c r="L49" s="6">
@@ -2678,13 +2846,17 @@
         <v>9.7245659697394403E-4</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="6"/>
-        <v>1.7380724776223169E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.9449131939479004E-3</v>
+      </c>
+      <c r="S49" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.2576745200831851E-17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D50" s="2">
@@ -2694,19 +2866,19 @@
         <v>0.14805480721879435</v>
       </c>
       <c r="F50" s="3">
+        <f t="shared" si="12"/>
+        <v>-3.8725354364359233E-4</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="8"/>
+        <v>0.22280632633534084</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J50" s="9">
         <f t="shared" si="11"/>
-        <v>-3.8725354364359233E-4</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="8"/>
-        <v>0.22280632633534084</v>
-      </c>
-      <c r="I50" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J50" s="9">
-        <f t="shared" si="10"/>
         <v>5.869692819409118E-3</v>
       </c>
       <c r="L50" s="6">
@@ -2726,13 +2898,17 @@
         <v>8.6903623881115846E-4</v>
       </c>
       <c r="R50" s="3">
-        <f t="shared" si="6"/>
-        <v>1.3508189339787246E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.7380724776223295E-3</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.2576745200831851E-17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D51" s="2">
@@ -2742,19 +2918,19 @@
         <v>0.11498846175493893</v>
       </c>
       <c r="F51" s="3">
+        <f t="shared" si="12"/>
+        <v>5.9493979198886777E-5</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="8"/>
+        <v>-4.4042897017775889E-2</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="9">
         <f t="shared" si="11"/>
-        <v>5.9493979198886777E-5</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="8"/>
-        <v>-4.4042897017775889E-2</v>
-      </c>
-      <c r="I51" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J51" s="9">
-        <f t="shared" si="10"/>
         <v>5.8737151248164461E-3</v>
       </c>
       <c r="L51" s="6">
@@ -2774,13 +2950,17 @@
         <v>6.754094669893623E-4</v>
       </c>
       <c r="R51" s="3">
-        <f t="shared" si="6"/>
-        <v>1.4103129131776116E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.3508189339787372E-3</v>
+      </c>
+      <c r="S51" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.2576745200831851E-17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D52" s="2">
@@ -2790,19 +2970,19 @@
         <v>9.3521375055090353E-2</v>
       </c>
       <c r="F52" s="3">
+        <f t="shared" si="12"/>
+        <v>2.6509984032078559E-5</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="8"/>
+        <v>-1.8797235552745702E-2</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J52" s="9">
         <f t="shared" si="11"/>
-        <v>2.6509984032078559E-5</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="8"/>
-        <v>-1.8797235552745702E-2</v>
-      </c>
-      <c r="I52" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J52" s="9">
-        <f t="shared" si="10"/>
         <v>7.540056550424128E-3</v>
       </c>
       <c r="L52" s="6">
@@ -2822,13 +3002,17 @@
         <v>7.0515645658880569E-4</v>
       </c>
       <c r="R52" s="3">
-        <f t="shared" si="6"/>
-        <v>1.4368228972096901E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.4103129131776242E-3</v>
+      </c>
+      <c r="S52" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.2793585635328952E-17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D53" s="2">
@@ -2838,19 +3022,19 @@
         <v>1.1552056093565907E-2</v>
       </c>
       <c r="F53" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1733234877069954E-4</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="8"/>
+        <v>-8.1660968097431466E-2</v>
+      </c>
+      <c r="I53" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="9">
         <f t="shared" si="11"/>
-        <v>1.1733234877069954E-4</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="8"/>
-        <v>-8.1660968097431466E-2</v>
-      </c>
-      <c r="I53" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J53" s="9">
-        <f t="shared" si="10"/>
         <v>6.2189054726368161E-2</v>
       </c>
       <c r="L53" s="6">
@@ -2870,13 +3054,17 @@
         <v>7.1841144860484497E-4</v>
       </c>
       <c r="R53" s="3">
-        <f t="shared" si="6"/>
-        <v>1.5541552459803895E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.4368228972097027E-3</v>
+      </c>
+      <c r="S53" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.2793585635328952E-17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="D54" s="2">
@@ -2886,19 +3074,19 @@
         <v>1.921501031393936E-3</v>
       </c>
       <c r="F54" s="3">
+        <f t="shared" si="12"/>
+        <v>-8.6513914942597681E-5</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="8"/>
+        <v>5.5666198834610714E-2</v>
+      </c>
+      <c r="I54" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="9">
         <f t="shared" si="11"/>
-        <v>-8.6513914942597681E-5</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="8"/>
-        <v>5.5666198834610714E-2</v>
-      </c>
-      <c r="I54" s="9">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="J54" s="9">
-        <f t="shared" si="10"/>
         <v>0.40441176470588236</v>
       </c>
       <c r="L54" s="6">
@@ -2918,13 +3106,17 @@
         <v>7.7707762299019474E-4</v>
       </c>
       <c r="R54" s="3">
-        <f t="shared" si="6"/>
-        <v>1.4676413310377918E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.5541552459804025E-3</v>
+      </c>
+      <c r="S54" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3010426069826053E-17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="D55" s="2">
@@ -2934,33 +3126,41 @@
         <v>1.5240890745392454E-3</v>
       </c>
       <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R55" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4676413310378048E-3</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" si="7"/>
+        <v>-1.3010426069826053E-17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
@@ -3712,10 +3912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA1ABDA-1F2E-7544-B0E0-D32982AABCA5}">
-  <dimension ref="B1:R310"/>
+  <dimension ref="B1:S310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3726,7 +3926,7 @@
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>12</v>
       </c>
@@ -3737,7 +3937,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>7</v>
       </c>
@@ -3751,7 +3951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3786,7 +3986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3797,7 +3997,7 @@
         <v>0.28272124810161536</v>
       </c>
       <c r="E5" s="2">
-        <v>0.50665188470066513</v>
+        <v>0.62663951401353035</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F36" si="0">D6-D5</f>
@@ -3805,14 +4005,14 @@
       </c>
       <c r="H5">
         <f>F5/E5</f>
-        <v>1.3774528660669092E-2</v>
+        <v>1.1137010594963274E-2</v>
       </c>
       <c r="I5" s="9">
         <v>0.2</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:J14" si="1">I5*D5/E5</f>
-        <v>0.11160374870356984</v>
+        <v>9.0234095290553568E-2</v>
       </c>
       <c r="L5">
         <f>G5+I5</f>
@@ -3820,7 +4020,7 @@
       </c>
       <c r="M5" s="4">
         <f>J5+H5</f>
-        <v>0.12537827736423893</v>
+        <v>0.10137110588551684</v>
       </c>
       <c r="O5" s="6">
         <f>L5*D5</f>
@@ -3830,12 +4030,8 @@
         <f>M5*E5</f>
         <v>6.35231405271144E-2</v>
       </c>
-      <c r="R5" s="3">
-        <f>D5+P5-O5</f>
-        <v>0.28970013900840669</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <f>1+C5</f>
         <v>21</v>
@@ -3844,54 +4040,58 @@
         <v>0.28970013900840669</v>
       </c>
       <c r="E6" s="2">
-        <v>0.62556818181818186</v>
+        <v>0.62954259614748131</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>-1.8499412867327869E-2</v>
       </c>
       <c r="G6" s="3">
-        <f>-F6/E6</f>
-        <v>2.9572176790642186E-2</v>
+        <f>-F6/D6</f>
+        <v>6.3857107320169568E-2</v>
       </c>
       <c r="I6" s="9">
         <v>0.2</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="1"/>
-        <v>9.26198446239411E-2</v>
+        <v>9.2035119078912778E-2</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L54" si="2">G6+I6</f>
-        <v>0.22957217679064221</v>
+        <v>0.26385710732016959</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" ref="M6:M54" si="3">J6+H6</f>
-        <v>9.26198446239411E-2</v>
+        <v>9.2035119078912778E-2</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" ref="O6:P54" si="4">L6*D6</f>
-        <v>6.6507091528711565E-2</v>
+        <v>7.6439440669009207E-2</v>
       </c>
       <c r="P6" s="7">
         <f t="shared" si="4"/>
         <v>5.7940027801681337E-2</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R54" si="5">D6+P6-O6</f>
-        <v>0.28113307528137643</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+        <f>D5+P5-O5</f>
+        <v>0.28970013900840669</v>
+      </c>
+      <c r="S6" s="3">
+        <f>D6-R6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C55" si="6">1+C6</f>
+        <f t="shared" ref="C7:C55" si="5">1+C6</f>
         <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>0.27120072614107882</v>
       </c>
       <c r="E7" s="2">
-        <v>0.64063640788513021</v>
+        <v>0.64597380705394192</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
@@ -3906,7 +4106,7 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" si="1"/>
-        <v>8.4666036086324559E-2</v>
+        <v>8.3966477643398402E-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
@@ -3914,7 +4114,7 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" si="3"/>
-        <v>8.4666036086324559E-2</v>
+        <v>8.3966477643398402E-2</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="4"/>
@@ -3922,23 +4122,27 @@
       </c>
       <c r="P7" s="7">
         <f t="shared" si="4"/>
-        <v>5.4240145228215776E-2</v>
+        <v>5.4240145228215769E-2</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="5"/>
-        <v>0.23090256283273497</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R6+P6-O6</f>
+        <v>0.27120072614107882</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" ref="S7:S55" si="6">D7-R7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>0.23090256283273491</v>
       </c>
       <c r="E8" s="2">
-        <v>0.66710680751173701</v>
+        <v>0.68066732697783827</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
@@ -3953,7 +4157,7 @@
       </c>
       <c r="J8" s="8">
         <f t="shared" si="1"/>
-        <v>6.9225065681456852E-2</v>
+        <v>6.7845936974216731E-2</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
@@ -3961,7 +4165,7 @@
       </c>
       <c r="M8" s="4">
         <f t="shared" si="3"/>
-        <v>6.9225065681456852E-2</v>
+        <v>6.7845936974216731E-2</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="4"/>
@@ -3972,20 +4176,24 @@
         <v>4.618051256654699E-2</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="5"/>
-        <v>0.18371850305650814</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R7+P7-O7</f>
+        <v>0.23090256283273491</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>0.18371850305650814</v>
       </c>
       <c r="E9" s="2">
-        <v>0.71433847552487284</v>
+        <v>0.72610705233338302</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
@@ -4000,7 +4208,7 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="1"/>
-        <v>5.1437381395848164E-2</v>
+        <v>5.0603696098562641E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
@@ -4008,7 +4216,7 @@
       </c>
       <c r="M9" s="4">
         <f t="shared" si="3"/>
-        <v>5.1437381395848164E-2</v>
+        <v>5.0603696098562641E-2</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="4"/>
@@ -4019,20 +4227,24 @@
         <v>3.6743700611301632E-2</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="5"/>
-        <v>0.15084247124899708</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R8+P8-O8</f>
+        <v>0.18371850305650814</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>0.15084247124899705</v>
       </c>
       <c r="E10" s="2">
-        <v>0.76208629842991082</v>
+        <v>0.75079492437074669</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
@@ -4047,7 +4259,7 @@
       </c>
       <c r="J10" s="8">
         <f t="shared" si="1"/>
-        <v>3.9586716506981014E-2</v>
+        <v>4.0182070057391654E-2</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
@@ -4055,7 +4267,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="3"/>
-        <v>3.9586716506981014E-2</v>
+        <v>4.0182070057391654E-2</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="4"/>
@@ -4066,20 +4278,24 @@
         <v>3.0168494249799411E-2</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="5"/>
-        <v>0.12383749388154675</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R9+P9-O9</f>
+        <v>0.15084247124899708</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>0.12383749388154675</v>
       </c>
       <c r="E11" s="2">
-        <v>0.79859592277575264</v>
+        <v>0.76870807059975244</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
@@ -4094,7 +4310,7 @@
       </c>
       <c r="J11" s="8">
         <f t="shared" si="1"/>
-        <v>3.1013805693150417E-2</v>
+        <v>3.2219641920743128E-2</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
@@ -4102,7 +4318,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="3"/>
-        <v>3.1013805693150417E-2</v>
+        <v>3.2219641920743128E-2</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="4"/>
@@ -4110,23 +4326,27 @@
       </c>
       <c r="P11" s="7">
         <f t="shared" si="4"/>
-        <v>2.4767498776309349E-2</v>
+        <v>2.4767498776309353E-2</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="5"/>
-        <v>9.9855282199710571E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R10+P10-O10</f>
+        <v>0.12383749388154677</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>9.9855282199710571E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>0.82179056361500424</v>
+        <v>0.78955137481910276</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
@@ -4141,7 +4361,7 @@
       </c>
       <c r="J12" s="8">
         <f t="shared" si="1"/>
-        <v>2.4301880946515999E-2</v>
+        <v>2.5294182338062247E-2</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
@@ -4149,7 +4369,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" si="3"/>
-        <v>2.4301880946515999E-2</v>
+        <v>2.5294182338062247E-2</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="4"/>
@@ -4160,20 +4380,24 @@
         <v>1.9971056439942115E-2</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" si="5"/>
-        <v>8.8591678097850943E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R11+P11-O11</f>
+        <v>9.9855282199710599E-2</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>8.8591678097850943E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>0.84272653939230979</v>
+        <v>0.79538180155464111</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
@@ -4188,7 +4412,7 @@
       </c>
       <c r="J13" s="8">
         <f t="shared" si="1"/>
-        <v>2.1025012019138357E-2</v>
+        <v>2.2276516240298937E-2</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
@@ -4196,7 +4420,7 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" si="3"/>
-        <v>2.1025012019138357E-2</v>
+        <v>2.2276516240298937E-2</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="4"/>
@@ -4207,20 +4431,24 @@
         <v>1.7718335619570189E-2</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" si="5"/>
-        <v>7.8658234488386325E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R12+P12-O12</f>
+        <v>8.859167809785097E-2</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>7.8658234488386325E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>0.85764528094518477</v>
+        <v>0.80435986360854494</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
@@ -4235,7 +4463,7 @@
       </c>
       <c r="J14" s="8">
         <f t="shared" si="1"/>
-        <v>1.8342836190201963E-2</v>
+        <v>1.9557971014492751E-2</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
@@ -4243,7 +4471,7 @@
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
-        <v>1.8342836190201963E-2</v>
+        <v>1.9557971014492751E-2</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="4"/>
@@ -4254,20 +4482,24 @@
         <v>1.5731646897677264E-2</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="5"/>
-        <v>6.881414076809024E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R13+P13-O13</f>
+        <v>7.8658234488386353E-2</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>6.881414076809024E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>0.86362017478973174</v>
+        <v>0.81280344216065348</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
@@ -4283,7 +4515,7 @@
       </c>
       <c r="J15" s="8">
         <f>I15*D15/E15</f>
-        <v>3.984051251746442E-2</v>
+        <v>4.2331354174118326E-2</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
@@ -4291,7 +4523,7 @@
       </c>
       <c r="M15" s="4">
         <f t="shared" si="3"/>
-        <v>3.984051251746442E-2</v>
+        <v>4.2331354174118326E-2</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="4"/>
@@ -4302,20 +4534,24 @@
         <v>3.440707038404512E-2</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="5"/>
-        <v>6.2301198923415714E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R14+P14-O14</f>
+        <v>6.8814140768090268E-2</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>6.2301198923415707E-2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.87118653769103094</v>
+        <v>0.81985563983361887</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
@@ -4331,7 +4567,7 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" ref="J16:J54" si="9">I16*D16/E16</f>
-        <v>3.5756520692191311E-2</v>
+        <v>3.7995224949638133E-2</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
@@ -4339,7 +4575,7 @@
       </c>
       <c r="M16" s="4">
         <f t="shared" si="3"/>
-        <v>3.5756520692191311E-2</v>
+        <v>3.7995224949638133E-2</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="4"/>
@@ -4347,23 +4583,27 @@
       </c>
       <c r="P16" s="7">
         <f t="shared" si="4"/>
-        <v>3.1150599461707854E-2</v>
+        <v>3.115059946170785E-2</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="5"/>
-        <v>5.8304900510281109E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R15+P15-O15</f>
+        <v>6.2301198923415742E-2</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>5.8304900510281109E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>0.88340060402495135</v>
+        <v>0.82396811497931699</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
@@ -4379,7 +4619,7 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" si="9"/>
-        <v>3.3000260722390394E-2</v>
+        <v>3.5380556268093374E-2</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
@@ -4387,7 +4627,7 @@
       </c>
       <c r="M17" s="4">
         <f t="shared" si="3"/>
-        <v>3.3000260722390394E-2</v>
+        <v>3.5380556268093374E-2</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="4"/>
@@ -4395,23 +4635,27 @@
       </c>
       <c r="P17" s="7">
         <f t="shared" si="4"/>
-        <v>2.9152450255140551E-2</v>
+        <v>2.9152450255140554E-2</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="5"/>
-        <v>5.5076194097516747E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R16+P16-O16</f>
+        <v>5.8304900510281137E-2</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>5.5076194097516747E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>0.88411240575736805</v>
+        <v>0.83158325777296793</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
@@ -4427,7 +4671,7 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="9"/>
-        <v>3.1147732878115283E-2</v>
+        <v>3.3115261510323242E-2</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
@@ -4435,7 +4679,7 @@
       </c>
       <c r="M18" s="4">
         <f t="shared" si="3"/>
-        <v>3.1147732878115283E-2</v>
+        <v>3.3115261510323242E-2</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="4"/>
@@ -4443,23 +4687,27 @@
       </c>
       <c r="P18" s="7">
         <f t="shared" si="4"/>
-        <v>2.7538097048758373E-2</v>
+        <v>2.7538097048758377E-2</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="5"/>
-        <v>5.1958024059380603E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R17+P17-O17</f>
+        <v>5.5076194097516774E-2</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>5.1958024059380596E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>0.88547418967587033</v>
+        <v>0.83883627676819383</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
@@ -4475,7 +4723,7 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="9"/>
-        <v>2.9339095743942542E-2</v>
+        <v>3.0970301057770544E-2</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
@@ -4483,7 +4731,7 @@
       </c>
       <c r="M19" s="4">
         <f t="shared" si="3"/>
-        <v>2.9339095743942542E-2</v>
+        <v>3.0970301057770544E-2</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="4"/>
@@ -4494,20 +4742,24 @@
         <v>2.5979012029690298E-2</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="5"/>
-        <v>4.9580557955463893E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R18+P18-O18</f>
+        <v>5.1958024059380631E-2</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>4.9580557955463893E-2</v>
       </c>
       <c r="E20" s="2">
-        <v>0.89270431335486078</v>
+        <v>0.84679914160697867</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
@@ -4523,7 +4775,7 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="9"/>
-        <v>2.7769865796400055E-2</v>
+        <v>2.9275276461295414E-2</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
@@ -4531,7 +4783,7 @@
       </c>
       <c r="M20" s="4">
         <f t="shared" si="3"/>
-        <v>2.7769865796400055E-2</v>
+        <v>2.9275276461295414E-2</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="4"/>
@@ -4542,20 +4794,24 @@
         <v>2.4790278977731946E-2</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="5"/>
-        <v>4.3868876695192335E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R19+P19-O19</f>
+        <v>4.9580557955463934E-2</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="D21" s="2">
         <v>4.3868876695192335E-2</v>
       </c>
       <c r="E21" s="2">
-        <v>0.8937559229230283</v>
+        <v>0.85639553066272422</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
@@ -4571,7 +4827,7 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" si="9"/>
-        <v>2.4541866280292271E-2</v>
+        <v>2.561250912953987E-2</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
@@ -4579,7 +4835,7 @@
       </c>
       <c r="M21" s="4">
         <f t="shared" si="3"/>
-        <v>2.4541866280292271E-2</v>
+        <v>2.561250912953987E-2</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="4"/>
@@ -4590,20 +4846,24 @@
         <v>2.1934438347596168E-2</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="5"/>
-        <v>4.0477517378934083E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R20+P20-O20</f>
+        <v>4.3868876695192377E-2</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="D22" s="2">
         <v>4.047751737893409E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>0.89495728392322205</v>
+        <v>0.86293374006394274</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
@@ -4619,7 +4879,7 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="9"/>
-        <v>2.2614217519685911E-2</v>
+        <v>2.3453433038749149E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
@@ -4627,7 +4887,7 @@
       </c>
       <c r="M22" s="4">
         <f t="shared" si="3"/>
-        <v>2.2614217519685911E-2</v>
+        <v>2.3453433038749149E-2</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="4"/>
@@ -4638,20 +4898,24 @@
         <v>2.0238758689467045E-2</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="5"/>
-        <v>3.8097217685660836E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R21+P21-O21</f>
+        <v>4.0477517378934139E-2</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D23" s="2">
         <v>3.8097217685660836E-2</v>
       </c>
       <c r="E23" s="2">
-        <v>0.89572892304265517</v>
+        <v>0.86821866555809613</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
@@ -4667,7 +4931,7 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="9"/>
-        <v>2.1266041938363657E-2</v>
+        <v>2.1939874824720405E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
@@ -4675,7 +4939,7 @@
       </c>
       <c r="M23" s="4">
         <f t="shared" si="3"/>
-        <v>2.1266041938363657E-2</v>
+        <v>2.1939874824720405E-2</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="4"/>
@@ -4686,20 +4950,24 @@
         <v>1.9048608842830418E-2</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3601190476190479E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R22+P22-O22</f>
+        <v>3.8097217685660892E-2</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.5511151231257827E-17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="D24" s="2">
         <v>3.3601190476190479E-2</v>
       </c>
       <c r="E24" s="2">
-        <v>0.90093537414965985</v>
+        <v>0.87755952380952384</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
@@ -4715,7 +4983,7 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" si="9"/>
-        <v>1.8647947144879662E-2</v>
+        <v>1.9144678830631486E-2</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
@@ -4723,7 +4991,7 @@
       </c>
       <c r="M24" s="4">
         <f t="shared" si="3"/>
-        <v>1.8647947144879662E-2</v>
+        <v>1.9144678830631486E-2</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="4"/>
@@ -4734,20 +5002,24 @@
         <v>1.6800595238095239E-2</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="5"/>
-        <v>3.0758653673701203E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R23+P23-O23</f>
+        <v>3.3601190476190534E-2</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.5511151231257827E-17</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="D25" s="2">
         <v>3.0758653673701203E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>0.89881454014270468</v>
+        <v>0.88261493393914037</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
@@ -4763,7 +5035,7 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" si="9"/>
-        <v>1.7110678732910604E-2</v>
+        <v>1.7424729908219597E-2</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
@@ -4771,7 +5043,7 @@
       </c>
       <c r="M25" s="4">
         <f t="shared" si="3"/>
-        <v>1.7110678732910604E-2</v>
+        <v>1.7424729908219597E-2</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="4"/>
@@ -4779,23 +5051,27 @@
       </c>
       <c r="P25" s="7">
         <f t="shared" si="4"/>
-        <v>1.5379326836850601E-2</v>
+        <v>1.5379326836850603E-2</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="5"/>
-        <v>2.9448971786649406E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R24+P24-O24</f>
+        <v>3.0758653673701258E-2</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.5511151231257827E-17</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="D26" s="2">
         <v>2.9448971786649406E-2</v>
       </c>
       <c r="E26" s="2">
-        <v>0.90298988427158355</v>
+        <v>0.89120649583713341</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
@@ -4811,7 +5087,7 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="9"/>
-        <v>1.6306368598140532E-2</v>
+        <v>1.6521968771663419E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
@@ -4819,7 +5095,7 @@
       </c>
       <c r="M26" s="4">
         <f t="shared" si="3"/>
-        <v>1.6306368598140532E-2</v>
+        <v>1.6521968771663419E-2</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="4"/>
@@ -4830,20 +5106,24 @@
         <v>1.4724485893324703E-2</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="5"/>
-        <v>2.7041341768427249E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R25+P25-O25</f>
+        <v>2.9448971786649462E-2</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.5511151231257827E-17</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="D27" s="2">
         <v>2.7041341768427249E-2</v>
       </c>
       <c r="E27" s="2">
-        <v>0.90381140363070256</v>
+        <v>0.89660144181256429</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
@@ -4859,7 +5139,7 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="9"/>
-        <v>1.4959615280245094E-2</v>
+        <v>1.5079912047520596E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
@@ -4867,7 +5147,7 @@
       </c>
       <c r="M27" s="4">
         <f t="shared" si="3"/>
-        <v>1.4959615280245094E-2</v>
+        <v>1.5079912047520596E-2</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="4"/>
@@ -4878,20 +5158,24 @@
         <v>1.3520670884213624E-2</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="5"/>
-        <v>2.3997588182092251E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R26+P26-O26</f>
+        <v>2.7041341768427304E-2</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.5511151231257827E-17</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="D28" s="2">
         <v>2.3997588182092251E-2</v>
       </c>
       <c r="E28" s="2">
-        <v>0.90556296275282966</v>
+        <v>0.89837202291227003</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="0"/>
@@ -4907,7 +5191,7 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" si="9"/>
-        <v>1.32500936815822E-2</v>
+        <v>1.3356152891036612E-2</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
@@ -4915,7 +5199,7 @@
       </c>
       <c r="M28" s="4">
         <f t="shared" si="3"/>
-        <v>1.32500936815822E-2</v>
+        <v>1.3356152891036612E-2</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="4"/>
@@ -4926,20 +5210,24 @@
         <v>1.1998794091046126E-2</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="5"/>
-        <v>2.2565320665083138E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R27+P27-O27</f>
+        <v>2.3997588182092307E-2</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.5511151231257827E-17</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="D29" s="2">
         <v>2.2565320665083134E-2</v>
       </c>
       <c r="E29" s="2">
-        <v>0.90190006614154294</v>
+        <v>0.90039379922490315</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="0"/>
@@ -4955,7 +5243,7 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" si="9"/>
-        <v>1.2509878595319764E-2</v>
+        <v>1.2530806345239334E-2</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
@@ -4963,7 +5251,7 @@
       </c>
       <c r="M29" s="4">
         <f t="shared" si="3"/>
-        <v>1.2509878595319764E-2</v>
+        <v>1.2530806345239334E-2</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="4"/>
@@ -4974,20 +5262,24 @@
         <v>1.1282660332541567E-2</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="5"/>
-        <v>2.0826846566338007E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R28+P28-O28</f>
+        <v>2.2565320665083193E-2</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="D30" s="2">
         <v>2.0826846566338004E-2</v>
       </c>
       <c r="E30" s="2">
-        <v>0.89936797982774996</v>
+        <v>0.89967133713890335</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="0"/>
@@ -5003,7 +5295,7 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="9"/>
-        <v>1.1578601325303372E-2</v>
+        <v>1.1574697173620457E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
@@ -5011,7 +5303,7 @@
       </c>
       <c r="M30" s="4">
         <f t="shared" si="3"/>
-        <v>1.1578601325303372E-2</v>
+        <v>1.1574697173620457E-2</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="4"/>
@@ -5022,20 +5314,24 @@
         <v>1.0413423283169002E-2</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="5"/>
-        <v>2.0613390351463319E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R29+P29-O29</f>
+        <v>2.0826846566338063E-2</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="D31" s="2">
         <v>2.0613390351463316E-2</v>
       </c>
       <c r="E31" s="2">
-        <v>0.89798384532213948</v>
+        <v>0.8994721368435119</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="0"/>
@@ -5051,7 +5347,7 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="9"/>
-        <v>1.1477595314684388E-2</v>
+        <v>1.1458604167440479E-2</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
@@ -5059,7 +5355,7 @@
       </c>
       <c r="M31" s="4">
         <f t="shared" si="3"/>
-        <v>1.1477595314684388E-2</v>
+        <v>1.1458604167440479E-2</v>
       </c>
       <c r="O31" s="6">
         <f t="shared" si="4"/>
@@ -5070,20 +5366,24 @@
         <v>1.0306695175731658E-2</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="5"/>
-        <v>1.8504882343524896E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R30+P30-O30</f>
+        <v>2.0613390351463375E-2</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="D32" s="2">
         <v>1.8504882343524893E-2</v>
       </c>
       <c r="E32" s="2">
-        <v>0.89525091569357917</v>
+        <v>0.90212902193052669</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
@@ -5099,7 +5399,7 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" si="9"/>
-        <v>1.0335025644284639E-2</v>
+        <v>1.0256228263184045E-2</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
@@ -5107,7 +5407,7 @@
       </c>
       <c r="M32" s="4">
         <f t="shared" si="3"/>
-        <v>1.0335025644284639E-2</v>
+        <v>1.0256228263184045E-2</v>
       </c>
       <c r="O32" s="6">
         <f t="shared" si="4"/>
@@ -5118,20 +5418,24 @@
         <v>9.2524411717624464E-3</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="5"/>
-        <v>1.6756656116179484E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R31+P31-O31</f>
+        <v>1.8504882343524952E-2</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="D33" s="2">
         <v>1.6756656116179481E-2</v>
       </c>
       <c r="E33" s="2">
-        <v>0.89575043285440903</v>
+        <v>0.9007012970893068</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
@@ -5147,7 +5451,7 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="9"/>
-        <v>9.3534178168256758E-3</v>
+        <v>9.3020050988768671E-3</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
@@ -5155,7 +5459,7 @@
       </c>
       <c r="M33" s="4">
         <f t="shared" si="3"/>
-        <v>9.3534178168256758E-3</v>
+        <v>9.3020050988768671E-3</v>
       </c>
       <c r="O33" s="6">
         <f t="shared" si="4"/>
@@ -5166,20 +5470,24 @@
         <v>8.3783280580897405E-3</v>
       </c>
       <c r="R33" s="3">
-        <f t="shared" si="5"/>
-        <v>1.6265631210444248E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R32+P32-O32</f>
+        <v>1.675665611617954E-2</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="D34" s="2">
         <v>1.6265631210444248E-2</v>
       </c>
       <c r="E34" s="2">
-        <v>0.89236790606653615</v>
+        <v>0.89815635796618465</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="0"/>
@@ -5195,7 +5503,7 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="9"/>
-        <v>9.1137473119923366E-3</v>
+        <v>9.0550108932461876E-3</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
@@ -5203,7 +5511,7 @@
       </c>
       <c r="M34" s="4">
         <f t="shared" si="3"/>
-        <v>9.1137473119923366E-3</v>
+        <v>9.0550108932461876E-3</v>
       </c>
       <c r="O34" s="6">
         <f t="shared" si="4"/>
@@ -5214,20 +5522,24 @@
         <v>8.132815605222124E-3</v>
       </c>
       <c r="R34" s="3">
-        <f t="shared" si="5"/>
-        <v>1.5077228283973362E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R33+P33-O33</f>
+        <v>1.6265631210444303E-2</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.5511151231257827E-17</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="D35" s="2">
         <v>1.507722828397336E-2</v>
       </c>
       <c r="E35" s="2">
-        <v>0.8893917805157433</v>
+        <v>0.89783193991781207</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="0"/>
@@ -5243,7 +5555,7 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" si="9"/>
-        <v>8.4761455043076347E-3</v>
+        <v>8.3964646464646468E-3</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
@@ -5251,7 +5563,7 @@
       </c>
       <c r="M35" s="4">
         <f t="shared" si="3"/>
-        <v>8.4761455043076347E-3</v>
+        <v>8.3964646464646468E-3</v>
       </c>
       <c r="O35" s="6">
         <f t="shared" si="4"/>
@@ -5262,20 +5574,24 @@
         <v>7.5386141419866801E-3</v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1921594721228758E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R34+P34-O34</f>
+        <v>1.5077228283973418E-2</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.7245874707234634E-17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="D36" s="2">
         <v>1.1921594721228756E-2</v>
       </c>
       <c r="E36" s="2">
-        <v>0.88398211754443357</v>
+        <v>0.89741883611965945</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="0"/>
@@ -5291,7 +5607,7 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" si="9"/>
-        <v>6.7431198463296484E-3</v>
+        <v>6.6421576199450095E-3</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
@@ -5299,7 +5615,7 @@
       </c>
       <c r="M36" s="4">
         <f t="shared" si="3"/>
-        <v>6.7431198463296484E-3</v>
+        <v>6.6421576199450095E-3</v>
       </c>
       <c r="O36" s="6">
         <f t="shared" si="4"/>
@@ -5310,20 +5626,24 @@
         <v>5.9607973606143781E-3</v>
       </c>
       <c r="R36" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1209959511939847E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R35+P35-O35</f>
+        <v>1.1921594721228813E-2</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.7245874707234634E-17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="D37" s="2">
         <v>1.1209959511939847E-2</v>
       </c>
       <c r="E37" s="2">
-        <v>0.88152162073848161</v>
+        <v>0.89360178477979457</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" ref="F37:F54" si="10">D38-D37</f>
@@ -5339,7 +5659,7 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" si="9"/>
-        <v>6.3583009470311513E-3</v>
+        <v>6.2723461965232402E-3</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
@@ -5347,7 +5667,7 @@
       </c>
       <c r="M37" s="4">
         <f t="shared" si="3"/>
-        <v>6.3583009470311513E-3</v>
+        <v>6.2723461965232402E-3</v>
       </c>
       <c r="O37" s="6">
         <f t="shared" si="4"/>
@@ -5358,20 +5678,24 @@
         <v>5.6049797559699233E-3</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1214082035534111E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R36+P36-O36</f>
+        <v>1.1209959511939906E-2</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D38" s="2">
         <v>1.1214082035534109E-2</v>
       </c>
       <c r="E38" s="2">
-        <v>0.87390771743568796</v>
+        <v>0.89142355779776261</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="10"/>
@@ -5387,7 +5711,7 @@
       </c>
       <c r="J38" s="9">
         <f t="shared" si="9"/>
-        <v>6.4160561875112217E-3</v>
+        <v>6.2899852362204734E-3</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
@@ -5395,7 +5719,7 @@
       </c>
       <c r="M38" s="4">
         <f t="shared" si="3"/>
-        <v>6.4160561875112217E-3</v>
+        <v>6.2899852362204734E-3</v>
       </c>
       <c r="O38" s="6">
         <f t="shared" si="4"/>
@@ -5406,20 +5730,24 @@
         <v>5.6070410177670544E-3</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0535108045481488E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R37+P37-O37</f>
+        <v>1.1214082035534166E-2</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.7245874707234634E-17</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D39" s="2">
         <v>1.053510804548149E-2</v>
       </c>
       <c r="E39" s="2">
-        <v>0.87025638280790019</v>
+        <v>0.88613461227569112</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="10"/>
@@ -5435,7 +5763,7 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" si="9"/>
-        <v>6.0528760567602766E-3</v>
+        <v>5.9444174166869371E-3</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
@@ -5443,7 +5771,7 @@
       </c>
       <c r="M39" s="4">
         <f t="shared" si="3"/>
-        <v>6.0528760567602766E-3</v>
+        <v>5.9444174166869371E-3</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="4"/>
@@ -5454,20 +5782,24 @@
         <v>5.2675540227407449E-3</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" si="5"/>
-        <v>8.9040548105888961E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R38+P38-O38</f>
+        <v>1.0535108045481547E-2</v>
+      </c>
+      <c r="S39" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.7245874707234634E-17</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D40" s="2">
         <v>8.9040548105888944E-3</v>
       </c>
       <c r="E40" s="2">
-        <v>0.86080897800707401</v>
+        <v>0.88374076937431689</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="10"/>
@@ -5483,7 +5815,7 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" si="9"/>
-        <v>5.1719109802986522E-3</v>
+        <v>5.0377073906485671E-3</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
@@ -5491,7 +5823,7 @@
       </c>
       <c r="M40" s="4">
         <f t="shared" si="3"/>
-        <v>5.1719109802986522E-3</v>
+        <v>5.0377073906485671E-3</v>
       </c>
       <c r="O40" s="6">
         <f t="shared" si="4"/>
@@ -5502,20 +5834,24 @@
         <v>4.4520274052944472E-3</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="5"/>
-        <v>8.4809853068280039E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R39+P39-O39</f>
+        <v>8.9040548105889517E-3</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.7245874707234634E-17</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D41" s="2">
         <v>8.4809853068280039E-3</v>
       </c>
       <c r="E41" s="2">
-        <v>0.84644608503529672</v>
+        <v>0.87216400172860853</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="10"/>
@@ -5531,7 +5867,7 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" si="9"/>
-        <v>5.0097610803376495E-3</v>
+        <v>4.8620358613855252E-3</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
@@ -5539,7 +5875,7 @@
       </c>
       <c r="M41" s="4">
         <f t="shared" si="3"/>
-        <v>5.0097610803376495E-3</v>
+        <v>4.8620358613855252E-3</v>
       </c>
       <c r="O41" s="6">
         <f t="shared" si="4"/>
@@ -5550,20 +5886,24 @@
         <v>4.2404926534140019E-3</v>
       </c>
       <c r="R41" s="3">
-        <f t="shared" si="5"/>
-        <v>6.5446088108824406E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R40+P40-O40</f>
+        <v>8.4809853068280629E-3</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D42" s="2">
         <v>6.5446088108824406E-3</v>
       </c>
       <c r="E42" s="2">
-        <v>0.83411208569008388</v>
+        <v>0.86683614138518539</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="10"/>
@@ -5579,7 +5919,7 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" si="9"/>
-        <v>3.9230991392888792E-3</v>
+        <v>3.7749976601254174E-3</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
@@ -5587,7 +5927,7 @@
       </c>
       <c r="M42" s="4">
         <f t="shared" si="3"/>
-        <v>3.9230991392888792E-3</v>
+        <v>3.7749976601254174E-3</v>
       </c>
       <c r="O42" s="6">
         <f t="shared" si="4"/>
@@ -5595,23 +5935,27 @@
       </c>
       <c r="P42" s="7">
         <f t="shared" si="4"/>
-        <v>3.2723044054412198E-3</v>
+        <v>3.2723044054412203E-3</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="5"/>
-        <v>5.4421400335734008E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R41+P41-O41</f>
+        <v>6.5446088108824995E-3</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D43" s="2">
         <v>5.4421400335734008E-3</v>
       </c>
       <c r="E43" s="2">
-        <v>0.82497157278753086</v>
+        <v>0.85541777224237836</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="10"/>
@@ -5627,7 +5971,7 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" si="9"/>
-        <v>3.2983803400550679E-3</v>
+        <v>3.180983731088181E-3</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
@@ -5635,7 +5979,7 @@
       </c>
       <c r="M43" s="4">
         <f t="shared" si="3"/>
-        <v>3.2983803400550679E-3</v>
+        <v>3.180983731088181E-3</v>
       </c>
       <c r="O43" s="6">
         <f t="shared" si="4"/>
@@ -5646,20 +5990,24 @@
         <v>2.7210700167867004E-3</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" si="5"/>
-        <v>4.6954765089678146E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R42+P42-O42</f>
+        <v>5.4421400335734598E-3</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D44" s="2">
         <v>4.6954765089678137E-3</v>
       </c>
       <c r="E44" s="2">
-        <v>0.80681849937124495</v>
+        <v>0.84103628074581638</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="10"/>
@@ -5675,7 +6023,7 @@
       </c>
       <c r="J44" s="9">
         <f t="shared" si="9"/>
-        <v>2.9098716208335621E-3</v>
+        <v>2.7914827317579846E-3</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
@@ -5683,7 +6031,7 @@
       </c>
       <c r="M44" s="4">
         <f t="shared" si="3"/>
-        <v>2.9098716208335621E-3</v>
+        <v>2.7914827317579846E-3</v>
       </c>
       <c r="O44" s="6">
         <f t="shared" si="4"/>
@@ -5694,20 +6042,24 @@
         <v>2.3477382544839069E-3</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="5"/>
-        <v>3.1323193272568221E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R43+P43-O43</f>
+        <v>4.6954765089678736E-3</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.9847959921199845E-17</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D45" s="2">
         <v>3.1323193272568221E-3</v>
       </c>
       <c r="E45" s="2">
-        <v>0.77568761993370938</v>
+        <v>0.81132714394559358</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="10"/>
@@ -5723,7 +6075,7 @@
       </c>
       <c r="J45" s="9">
         <f t="shared" si="9"/>
-        <v>2.0190597650150141E-3</v>
+        <v>1.9303676393864562E-3</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
@@ -5731,7 +6083,7 @@
       </c>
       <c r="M45" s="4">
         <f t="shared" si="3"/>
-        <v>2.0190597650150141E-3</v>
+        <v>1.9303676393864562E-3</v>
       </c>
       <c r="O45" s="6">
         <f t="shared" si="4"/>
@@ -5739,23 +6091,27 @@
       </c>
       <c r="P45" s="7">
         <f t="shared" si="4"/>
-        <v>1.5661596636284108E-3</v>
+        <v>1.566159663628411E-3</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" si="5"/>
-        <v>2.3055849404616589E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R44+P44-O44</f>
+        <v>3.132319327256881E-3</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D46" s="2">
         <v>2.3055849404616593E-3</v>
       </c>
       <c r="E46" s="2">
-        <v>0.74177456420604226</v>
+        <v>0.78002007215124636</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="10"/>
@@ -5771,7 +6127,7 @@
       </c>
       <c r="J46" s="9">
         <f t="shared" si="9"/>
-        <v>1.5541008358310588E-3</v>
+        <v>1.4779010327920158E-3</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
@@ -5779,7 +6135,7 @@
       </c>
       <c r="M46" s="4">
         <f t="shared" si="3"/>
-        <v>1.5541008358310588E-3</v>
+        <v>1.4779010327920158E-3</v>
       </c>
       <c r="O46" s="6">
         <f t="shared" si="4"/>
@@ -5790,20 +6146,24 @@
         <v>1.1527924702308297E-3</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="5"/>
-        <v>1.5608465608465609E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R45+P45-O45</f>
+        <v>2.3055849404617179E-3</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8546917314217239E-17</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D47" s="2">
         <v>1.5608465608465609E-3</v>
       </c>
       <c r="E47" s="2">
-        <v>0.66403542549095107</v>
+        <v>0.70140211640211636</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="10"/>
@@ -5819,7 +6179,7 @@
       </c>
       <c r="J47" s="9">
         <f t="shared" si="9"/>
-        <v>1.1752735629221567E-3</v>
+        <v>1.1126617131218648E-3</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
@@ -5827,7 +6187,7 @@
       </c>
       <c r="M47" s="4">
         <f t="shared" si="3"/>
-        <v>1.1752735629221567E-3</v>
+        <v>1.1126617131218648E-3</v>
       </c>
       <c r="O47" s="6">
         <f t="shared" si="4"/>
@@ -5835,23 +6195,27 @@
       </c>
       <c r="P47" s="7">
         <f t="shared" si="4"/>
-        <v>7.8042328042328033E-4</v>
+        <v>7.8042328042328044E-4</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="5"/>
-        <v>1.6546129006431637E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.2">
+        <f>R46+P46-O46</f>
+        <v>1.5608465608466194E-3</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8546917314217239E-17</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D48" s="2">
         <v>1.654612900643164E-3</v>
       </c>
       <c r="E48" s="2">
-        <v>0.42843120758315106</v>
+        <v>0.45760721624723122</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="10"/>
@@ -5867,7 +6231,7 @@
       </c>
       <c r="J48" s="9">
         <f t="shared" si="9"/>
-        <v>1.9310135108703914E-3</v>
+        <v>1.8078964250306175E-3</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
@@ -5875,7 +6239,7 @@
       </c>
       <c r="M48" s="4">
         <f t="shared" si="3"/>
-        <v>1.9310135108703914E-3</v>
+        <v>1.8078964250306175E-3</v>
       </c>
       <c r="O48" s="6">
         <f t="shared" si="4"/>
@@ -5886,20 +6250,24 @@
         <v>8.2730645032158198E-4</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" si="5"/>
-        <v>1.8190925628114207E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R47+P47-O47</f>
+        <v>1.6546129006432227E-3</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.876375774871434E-17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D49" s="2">
         <v>1.8190925628114207E-3</v>
       </c>
       <c r="E49" s="2">
-        <v>0.24171266767725882</v>
+        <v>0.25098204634731486</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="10"/>
@@ -5915,7 +6283,7 @@
       </c>
       <c r="J49" s="9">
         <f t="shared" si="9"/>
-        <v>3.7629235163634898E-3</v>
+        <v>3.6239495798319329E-3</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
@@ -5923,7 +6291,7 @@
       </c>
       <c r="M49" s="4">
         <f t="shared" si="3"/>
-        <v>3.7629235163634898E-3</v>
+        <v>3.6239495798319329E-3</v>
       </c>
       <c r="O49" s="6">
         <f t="shared" si="4"/>
@@ -5934,20 +6302,24 @@
         <v>9.0954628140571037E-4</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="5"/>
-        <v>1.6784882776544482E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R48+P48-O48</f>
+        <v>1.8190925628114797E-3</v>
+      </c>
+      <c r="S49" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D50" s="2">
         <v>1.6784882776544479E-3</v>
       </c>
       <c r="E50" s="2">
-        <v>0.14805480721879435</v>
+        <v>0.13579511614055986</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="10"/>
@@ -5963,7 +6335,7 @@
       </c>
       <c r="J50" s="9">
         <f t="shared" si="9"/>
-        <v>5.6684693634229304E-3</v>
+        <v>6.180223285486443E-3</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
@@ -5971,7 +6343,7 @@
       </c>
       <c r="M50" s="4">
         <f t="shared" si="3"/>
-        <v>5.6684693634229304E-3</v>
+        <v>6.180223285486443E-3</v>
       </c>
       <c r="O50" s="6">
         <f t="shared" si="4"/>
@@ -5979,23 +6351,27 @@
       </c>
       <c r="P50" s="7">
         <f t="shared" si="4"/>
-        <v>8.3924413882722386E-4</v>
+        <v>8.3924413882722397E-4</v>
       </c>
       <c r="R50" s="3">
-        <f t="shared" si="5"/>
-        <v>1.7912177646655955E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R49+P49-O49</f>
+        <v>1.6784882776545071E-3</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.9197438617708542E-17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D51" s="2">
         <v>1.7912177646655955E-3</v>
       </c>
       <c r="E51" s="2">
-        <v>0.11498846175493893</v>
+        <v>9.7568685298843605E-2</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="10"/>
@@ -6011,7 +6387,7 @@
       </c>
       <c r="J51" s="9">
         <f t="shared" si="9"/>
-        <v>7.7886847833611439E-3</v>
+        <v>9.1792656587473005E-3</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
@@ -6019,7 +6395,7 @@
       </c>
       <c r="M51" s="4">
         <f t="shared" si="3"/>
-        <v>7.7886847833611439E-3</v>
+        <v>9.1792656587473005E-3</v>
       </c>
       <c r="O51" s="6">
         <f t="shared" si="4"/>
@@ -6027,23 +6403,27 @@
       </c>
       <c r="P51" s="7">
         <f t="shared" si="4"/>
-        <v>8.9560888233279775E-4</v>
+        <v>8.9560888233279764E-4</v>
       </c>
       <c r="R51" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3958453074965102E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R50+P50-O50</f>
+        <v>1.7912177646656545E-3</v>
+      </c>
+      <c r="S51" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D52" s="2">
         <v>1.3958453074965104E-3</v>
       </c>
       <c r="E52" s="2">
-        <v>9.3521375055090353E-2</v>
+        <v>7.9125270273968859E-2</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="10"/>
@@ -6059,7 +6439,7 @@
       </c>
       <c r="J52" s="9">
         <f t="shared" si="9"/>
-        <v>7.462707357939637E-3</v>
+        <v>8.8204773434797639E-3</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
@@ -6067,7 +6447,7 @@
       </c>
       <c r="M52" s="4">
         <f t="shared" si="3"/>
-        <v>7.462707357939637E-3</v>
+        <v>8.8204773434797639E-3</v>
       </c>
       <c r="O52" s="6">
         <f t="shared" si="4"/>
@@ -6078,20 +6458,24 @@
         <v>6.979226537482552E-4</v>
       </c>
       <c r="R52" s="3">
-        <f t="shared" si="5"/>
-        <v>1.4576873128196973E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R51+P51-O51</f>
+        <v>1.3958453074965692E-3</v>
+      </c>
+      <c r="S52" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.876375774871434E-17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D53" s="2">
         <v>1.4576873128196973E-3</v>
       </c>
       <c r="E53" s="2">
-        <v>1.1552056093565907E-2</v>
+        <v>1.136996103999364E-2</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="10"/>
@@ -6107,7 +6491,7 @@
       </c>
       <c r="J53" s="9">
         <f t="shared" si="9"/>
-        <v>6.3092115421408759E-2</v>
+        <v>6.4102564102564097E-2</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
@@ -6115,7 +6499,7 @@
       </c>
       <c r="M53" s="4">
         <f t="shared" si="3"/>
-        <v>6.3092115421408759E-2</v>
+        <v>6.4102564102564097E-2</v>
       </c>
       <c r="O53" s="6">
         <f t="shared" si="4"/>
@@ -6123,23 +6507,27 @@
       </c>
       <c r="P53" s="7">
         <f t="shared" si="4"/>
-        <v>7.2884365640984853E-4</v>
+        <v>7.2884365640984864E-4</v>
       </c>
       <c r="R53" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0835633755579062E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R52+P52-O52</f>
+        <v>1.4576873128197563E-3</v>
+      </c>
+      <c r="S53" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="D54" s="2">
         <v>1.0835633755579062E-3</v>
       </c>
       <c r="E54" s="2">
-        <v>1.921501031393936E-3</v>
+        <v>3.5860787905368798E-3</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="10"/>
@@ -6155,7 +6543,7 @@
       </c>
       <c r="J54" s="9">
         <f t="shared" si="9"/>
-        <v>0.28195753160013781</v>
+        <v>0.15107913669064749</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
@@ -6163,7 +6551,7 @@
       </c>
       <c r="M54" s="4">
         <f t="shared" si="3"/>
-        <v>0.28195753160013781</v>
+        <v>0.15107913669064749</v>
       </c>
       <c r="O54" s="6">
         <f t="shared" si="4"/>
@@ -6174,49 +6562,61 @@
         <v>5.4178168777895312E-4</v>
       </c>
       <c r="R54" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3972867232356081E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+        <f>R53+P53-O53</f>
+        <v>1.0835633755579652E-3</v>
+      </c>
+      <c r="S54" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8980598183211441E-17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="D55" s="2">
         <v>1.3972867232356079E-3</v>
       </c>
       <c r="E55" s="2">
-        <v>1.5240890745392454E-3</v>
+        <v>2.2356587571769728E-3</v>
       </c>
       <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R55" s="3">
+        <f>R54+P54-O54</f>
+        <v>1.3972867232356671E-3</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.9197438617708542E-17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">

--- a/intensities/opiskelijamalli.xlsx
+++ b/intensities/opiskelijamalli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F78BD-46FD-864B-9251-DA08BD713DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97E97A4-302C-7B42-94E1-2499D729C133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="1260" windowWidth="24440" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
+    <workbookView xWindow="1020" yWindow="820" windowWidth="22880" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
   </bookViews>
   <sheets>
     <sheet name="miehet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Miehet</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Naiset</t>
+  </si>
+  <si>
+    <t>Armeija</t>
   </si>
 </sst>
 </file>
@@ -457,80 +460,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92590640-645E-204B-9831-3012D0CA494E}">
-  <dimension ref="B1:S310"/>
+  <dimension ref="B1:T310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="4" max="6" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="I3" t="s">
+      <c r="K1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>5</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -541,41 +550,44 @@
         <v>0.24041346028433547</v>
       </c>
       <c r="E5" s="2">
-        <v>0.50665188470066513</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" ref="F5:F36" si="0">D6-D5</f>
+        <v>8.9115690622146859E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.50355406509066514</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G36" si="0">D6-D5</f>
         <v>2.8936287190412024E-2</v>
       </c>
-      <c r="H5">
-        <f>F5/E5</f>
-        <v>5.71127593998942E-2</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="I5">
+        <f>G5/F5</f>
+        <v>5.7464111992030158E-2</v>
+      </c>
+      <c r="J5" s="9">
         <v>0.2</v>
       </c>
-      <c r="J5" s="8">
-        <f t="shared" ref="J5:J14" si="1">I5*D5/E5</f>
-        <v>9.490281889561078E-2</v>
-      </c>
-      <c r="L5" s="6">
-        <f>G5+I5</f>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K14" si="1">J5*D5/F5</f>
+        <v>9.548665255678114E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <f>H5+J5</f>
         <v>0.2</v>
       </c>
-      <c r="M5" s="4">
-        <f>J5+H5</f>
-        <v>0.15201557829550499</v>
-      </c>
-      <c r="O5" s="4">
-        <f>L5*D5</f>
+      <c r="N5" s="4">
+        <f>K5+I5</f>
+        <v>0.15295076454881129</v>
+      </c>
+      <c r="P5" s="4">
+        <f>M5*D5</f>
         <v>4.8082692056867098E-2</v>
       </c>
-      <c r="P5" s="5">
-        <f>M5*E5</f>
-        <v>7.7018979247279129E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5">
+        <f>N5*F5</f>
+        <v>7.7018979247279115E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <f>1+C5</f>
         <v>21</v>
@@ -584,49 +596,52 @@
         <v>0.26934974747474749</v>
       </c>
       <c r="E6" s="2">
-        <v>0.62556818181818186</v>
-      </c>
-      <c r="F6" s="3">
+        <v>1.5498737373737373E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.62155690257818186</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>3.4660227856564974E-3</v>
       </c>
-      <c r="H6">
-        <f>F6/E6</f>
-        <v>5.5405995483700588E-3</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="I6">
+        <f>G6/F6</f>
+        <v>5.5763563581703243E-3</v>
+      </c>
+      <c r="J6" s="9">
         <v>0.2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
-        <v>8.6113634070037345E-2</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" ref="L6:L54" si="2">G6+I6</f>
+        <v>8.6669376965327047E-2</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" ref="M6:M54" si="2">H6+J6</f>
         <v>0.2</v>
       </c>
-      <c r="M6" s="4">
-        <f t="shared" ref="M6:M54" si="3">J6+H6</f>
-        <v>9.165423361840741E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" ref="O6:O54" si="4">L6*D6</f>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6:N54" si="3">K6+I6</f>
+        <v>9.2245733323497364E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" ref="P6:P54" si="4">M6*D6</f>
         <v>5.3869949494949498E-2</v>
       </c>
-      <c r="P6" s="5">
-        <f t="shared" ref="P6:P54" si="5">M6*E6</f>
-        <v>5.7335972280606003E-2</v>
-      </c>
-      <c r="R6" s="3">
-        <f>D5+P5-O5</f>
+      <c r="Q6" s="5">
+        <f t="shared" ref="Q6:Q54" si="5">N6*F6</f>
+        <v>5.7335972280605996E-2</v>
+      </c>
+      <c r="S6" s="3">
+        <f>D5+Q5-P5</f>
         <v>0.26934974747474749</v>
       </c>
-      <c r="S6" s="3">
-        <f>D6-R6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="3">
+        <f>D6-S6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <f t="shared" ref="C7:C55" si="6">1+C6</f>
         <v>22</v>
@@ -635,49 +650,52 @@
         <v>0.27281577026040399</v>
       </c>
       <c r="E7" s="2">
-        <v>0.64063640788513021</v>
-      </c>
-      <c r="F7" s="3">
+        <v>6.2971525918715018E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.63646626610513024</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>-2.0468352420028424E-2</v>
       </c>
-      <c r="G7" s="3">
-        <f>-F7/D7</f>
+      <c r="H7" s="3">
+        <f>-G7/D7</f>
         <v>7.5026280190808911E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>0.2</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>8.5170236003608915E-2</v>
-      </c>
-      <c r="L7" s="6">
+        <v>8.572827337100089E-2</v>
+      </c>
+      <c r="M7" s="6">
         <f t="shared" si="2"/>
         <v>0.27502628019080894</v>
       </c>
-      <c r="M7" s="4">
-        <f t="shared" si="3"/>
-        <v>8.5170236003608915E-2</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="N7" s="4">
+        <f t="shared" si="3"/>
+        <v>8.572827337100089E-2</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="4"/>
         <v>7.5031506472109225E-2</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <f t="shared" si="5"/>
         <v>5.4563154052080801E-2</v>
       </c>
-      <c r="R7" s="3">
-        <f>R6+P6-O6</f>
+      <c r="S7" s="3">
+        <f>S6+Q6-P6</f>
         <v>0.27281577026040399</v>
       </c>
-      <c r="S7" s="3">
-        <f t="shared" ref="S7:S55" si="7">D7-R7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="3">
+        <f t="shared" ref="T7:T55" si="7">D7-S7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <f t="shared" si="6"/>
         <v>23</v>
@@ -686,49 +704,52 @@
         <v>0.25234741784037557</v>
       </c>
       <c r="E8" s="2">
-        <v>0.66710680751173701</v>
-      </c>
-      <c r="F8" s="3">
+        <v>3.9906103286384978E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.66095088392173706</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>-4.5665409828784337E-2</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" ref="G8:G54" si="8">-F8/D8</f>
+      <c r="H8" s="3">
+        <f t="shared" ref="H8:H54" si="8">-G8/D8</f>
         <v>0.18096246127499654</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>0.2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <f t="shared" si="1"/>
-        <v>7.5654277545634488E-2</v>
-      </c>
-      <c r="L8" s="6">
+        <v>7.6358901691174971E-2</v>
+      </c>
+      <c r="M8" s="6">
         <f t="shared" si="2"/>
         <v>0.38096246127499656</v>
       </c>
-      <c r="M8" s="4">
-        <f t="shared" si="3"/>
-        <v>7.5654277545634488E-2</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="N8" s="4">
+        <f t="shared" si="3"/>
+        <v>7.6358901691174971E-2</v>
+      </c>
+      <c r="P8" s="4">
         <f t="shared" si="4"/>
         <v>9.6134893396859447E-2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <f t="shared" si="5"/>
         <v>5.0469483568075117E-2</v>
       </c>
-      <c r="R8" s="3">
-        <f t="shared" ref="R8:R55" si="9">R7+P7-O7</f>
+      <c r="S8" s="3">
+        <f t="shared" ref="S8:S55" si="9">S7+Q7-P7</f>
         <v>0.25234741784037557</v>
       </c>
-      <c r="S8" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -737,49 +758,52 @@
         <v>0.20668200801159123</v>
       </c>
       <c r="E9" s="2">
-        <v>0.71433847552487284</v>
-      </c>
-      <c r="F9" s="3">
+        <v>2.244381942668826E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.70683222031487281</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>-4.8091699641547164E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <f t="shared" si="8"/>
         <v>0.23268449975021563</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>0.2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <f t="shared" si="1"/>
-        <v>5.7866687877823737E-2</v>
-      </c>
-      <c r="L9" s="6">
+        <v>5.8481207299667388E-2</v>
+      </c>
+      <c r="M9" s="6">
         <f t="shared" si="2"/>
         <v>0.43268449975021561</v>
       </c>
-      <c r="M9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.7866687877823737E-2</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="4">
+        <f t="shared" si="3"/>
+        <v>5.8481207299667388E-2</v>
+      </c>
+      <c r="P9" s="4">
         <f t="shared" si="4"/>
         <v>8.942810124386541E-2</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <f t="shared" si="5"/>
         <v>4.1336401602318246E-2</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <f t="shared" si="9"/>
         <v>0.20668200801159126</v>
       </c>
-      <c r="S9" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -788,49 +812,52 @@
         <v>0.15859030837004406</v>
       </c>
       <c r="E10" s="2">
-        <v>0.76208629842991082</v>
-      </c>
-      <c r="F10" s="3">
+        <v>1.7508189314356716E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.75505663084991081</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>-3.638158689036268E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <f t="shared" si="8"/>
         <v>0.22940611733645355</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <v>0.2</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <f t="shared" si="1"/>
-        <v>4.162003927817097E-2</v>
-      </c>
-      <c r="L10" s="6">
+        <v>4.2007526823923343E-2</v>
+      </c>
+      <c r="M10" s="6">
         <f t="shared" si="2"/>
         <v>0.42940611733645356</v>
       </c>
-      <c r="M10" s="4">
-        <f t="shared" si="3"/>
-        <v>4.162003927817097E-2</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="N10" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2007526823923343E-2</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="4"/>
         <v>6.8099648564371493E-2</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <f t="shared" si="5"/>
         <v>3.1718061674008813E-2</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <f t="shared" si="9"/>
         <v>0.15859030837004409</v>
       </c>
-      <c r="S10" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -839,49 +866,52 @@
         <v>0.12220872147968138</v>
       </c>
       <c r="E11" s="2">
-        <v>0.79859592277575264</v>
-      </c>
-      <c r="F11" s="3">
+        <v>1.1070608883488591E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.78977905157575268</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>-2.6232981786213638E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <f t="shared" si="8"/>
         <v>0.21465719850915202</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <v>0.2</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <f t="shared" si="1"/>
-        <v>3.060589667297809E-2</v>
-      </c>
-      <c r="L11" s="6">
+        <v>3.0947572295277465E-2</v>
+      </c>
+      <c r="M11" s="6">
         <f t="shared" si="2"/>
         <v>0.41465719850915206</v>
       </c>
-      <c r="M11" s="4">
-        <f t="shared" si="3"/>
-        <v>3.060589667297809E-2</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="N11" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0947572295277465E-2</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="4"/>
         <v>5.0674726082149922E-2</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <f t="shared" si="5"/>
         <v>2.4441744295936277E-2</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <f t="shared" si="9"/>
         <v>0.12220872147968141</v>
       </c>
-      <c r="S11" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -890,49 +920,52 @@
         <v>9.5975739693467746E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>0.82179056361500424</v>
-      </c>
-      <c r="F12" s="3">
+        <v>9.835259404966806E-4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.81122620441500426</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>-2.0014459779512384E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <f t="shared" si="8"/>
         <v>0.20853665565314311</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="9">
         <v>0.2</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <f t="shared" si="1"/>
-        <v>2.3357712765957446E-2</v>
-      </c>
-      <c r="L12" s="6">
+        <v>2.3661893358752701E-2</v>
+      </c>
+      <c r="M12" s="6">
         <f t="shared" si="2"/>
         <v>0.40853665565314312</v>
       </c>
-      <c r="M12" s="4">
-        <f t="shared" si="3"/>
-        <v>2.3357712765957446E-2</v>
-      </c>
-      <c r="O12" s="4">
+      <c r="N12" s="4">
+        <f t="shared" si="3"/>
+        <v>2.3661893358752701E-2</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="4"/>
         <v>3.9209607718205933E-2</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <f t="shared" si="5"/>
         <v>1.9195147938693549E-2</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <f t="shared" si="9"/>
         <v>9.597573969346776E-2</v>
       </c>
-      <c r="S12" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -941,49 +974,52 @@
         <v>7.5961279913955362E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>0.84272653939230979</v>
-      </c>
-      <c r="F13" s="3">
+        <v>7.5289056197902667E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.8309707110923098</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>-1.4249506318681285E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <f t="shared" si="8"/>
         <v>0.18758907610327683</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="9">
         <v>0.2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <f t="shared" si="1"/>
-        <v>1.8027503908618105E-2</v>
-      </c>
-      <c r="L13" s="6">
+        <v>1.8282540864552103E-2</v>
+      </c>
+      <c r="M13" s="6">
         <f t="shared" si="2"/>
         <v>0.38758907610327686</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" si="3"/>
-        <v>1.8027503908618105E-2</v>
-      </c>
-      <c r="O13" s="4">
+      <c r="N13" s="4">
+        <f t="shared" si="3"/>
+        <v>1.8282540864552103E-2</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="4"/>
         <v>2.9441762301472361E-2</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <f t="shared" si="5"/>
         <v>1.5192255982791074E-2</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <f t="shared" si="9"/>
         <v>7.5961279913955376E-2</v>
       </c>
-      <c r="S13" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -992,49 +1028,52 @@
         <v>6.1711773595274078E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>0.85764528094518477</v>
-      </c>
-      <c r="F14" s="3">
+        <v>7.6933644731419146E-4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.84584973704518474</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>-6.2064449741404126E-3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <f t="shared" si="8"/>
         <v>0.10057148924035633</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="9">
         <v>0.2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <f t="shared" si="1"/>
-        <v>1.4390978407125008E-2</v>
-      </c>
-      <c r="L14" s="6">
+        <v>1.4591663481708329E-2</v>
+      </c>
+      <c r="M14" s="6">
         <f t="shared" si="2"/>
         <v>0.30057148924035637</v>
       </c>
-      <c r="M14" s="4">
-        <f t="shared" si="3"/>
-        <v>1.4390978407125008E-2</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4591663481708329E-2</v>
+      </c>
+      <c r="P14" s="4">
         <f t="shared" si="4"/>
         <v>1.8548799693195232E-2</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <f t="shared" si="5"/>
         <v>1.2342354719054816E-2</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <f t="shared" si="9"/>
         <v>6.1711773595274091E-2</v>
       </c>
-      <c r="S14" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -1043,50 +1082,53 @@
         <v>5.5505328621133665E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>0.86362017478973174</v>
-      </c>
-      <c r="F15" s="3">
+        <v>2.7396509684666173E-5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.85174519958973172</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>-8.9138341445725092E-3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <f t="shared" si="8"/>
         <v>0.16059420538550898</v>
       </c>
-      <c r="I15" s="9">
-        <f>$J$1</f>
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="8">
-        <f>I15*D15/E15</f>
-        <v>3.2135266313485393E-2</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="J15" s="9">
+        <f>$K$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="8">
+        <f>J15*D15/F15</f>
+        <v>3.2583294069558275E-2</v>
+      </c>
+      <c r="M15" s="6">
         <f t="shared" si="2"/>
         <v>0.66059420538550895</v>
       </c>
-      <c r="M15" s="4">
-        <f t="shared" si="3"/>
-        <v>3.2135266313485393E-2</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="N15" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2583294069558275E-2</v>
+      </c>
+      <c r="P15" s="4">
         <f t="shared" si="4"/>
         <v>3.6666498455139342E-2</v>
       </c>
-      <c r="P15" s="5">
-        <f t="shared" si="5"/>
-        <v>2.7752664310566832E-2</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="Q15" s="5">
+        <f t="shared" si="5"/>
+        <v>2.7752664310566836E-2</v>
+      </c>
+      <c r="S15" s="3">
         <f t="shared" si="9"/>
         <v>5.5505328621133679E-2</v>
       </c>
-      <c r="S15" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -1095,50 +1137,53 @@
         <v>4.6591494476561156E-2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.87118653769103094</v>
-      </c>
-      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.8572066337910309</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>-9.1080769372571951E-3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <f t="shared" si="8"/>
         <v>0.19548797563982859</v>
       </c>
-      <c r="I16" s="9">
-        <f t="shared" ref="I16:I54" si="10">$J$1</f>
-        <v>0.5</v>
-      </c>
       <c r="J16" s="9">
-        <f t="shared" ref="J16:J54" si="11">I16*D16/E16</f>
-        <v>2.6740251634308987E-2</v>
-      </c>
-      <c r="L16" s="6">
+        <f t="shared" ref="J16:J54" si="10">$K$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" ref="K16:K54" si="11">J16*D16/F16</f>
+        <v>2.7176349692085554E-2</v>
+      </c>
+      <c r="M16" s="6">
         <f t="shared" si="2"/>
         <v>0.69548797563982856</v>
       </c>
-      <c r="M16" s="4">
-        <f t="shared" si="3"/>
-        <v>2.6740251634308987E-2</v>
-      </c>
-      <c r="O16" s="4">
+      <c r="N16" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7176349692085554E-2</v>
+      </c>
+      <c r="P16" s="4">
         <f t="shared" si="4"/>
         <v>3.240382417553777E-2</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <f t="shared" si="5"/>
         <v>2.3295747238280578E-2</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <f t="shared" si="9"/>
         <v>4.659149447656117E-2</v>
       </c>
-      <c r="S16" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <f t="shared" si="6"/>
         <v>32</v>
@@ -1147,50 +1192,53 @@
         <v>3.7483417539303961E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>0.88340060402495135</v>
-      </c>
-      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.87160506012495131</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>-2.0344799107912814E-3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <f t="shared" si="8"/>
         <v>5.4276798764626738E-2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="J17" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J17" s="9">
+      <c r="K17" s="9">
         <f t="shared" si="11"/>
-        <v>2.1215413125439325E-2</v>
-      </c>
-      <c r="L17" s="6">
+        <v>2.1502524052539589E-2</v>
+      </c>
+      <c r="M17" s="6">
         <f t="shared" si="2"/>
         <v>0.55427679876462677</v>
       </c>
-      <c r="M17" s="4">
-        <f t="shared" si="3"/>
-        <v>2.1215413125439325E-2</v>
-      </c>
-      <c r="O17" s="4">
+      <c r="N17" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1502524052539589E-2</v>
+      </c>
+      <c r="P17" s="4">
         <f t="shared" si="4"/>
         <v>2.0776188680443262E-2</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <f t="shared" si="5"/>
         <v>1.874170876965198E-2</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <f t="shared" si="9"/>
         <v>3.7483417539303975E-2</v>
       </c>
-      <c r="S17" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <f t="shared" si="6"/>
         <v>33</v>
@@ -1199,50 +1247,53 @@
         <v>3.5448937628512679E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>0.88411240575736805</v>
-      </c>
-      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.872396293157368</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>-3.9963565960997108E-3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <f t="shared" si="8"/>
         <v>0.11273558147156763</v>
       </c>
-      <c r="I18" s="9">
+      <c r="J18" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J18" s="9">
+      <c r="K18" s="9">
         <f t="shared" si="11"/>
-        <v>2.0047754899528654E-2</v>
-      </c>
-      <c r="L18" s="6">
+        <v>2.0316992350011161E-2</v>
+      </c>
+      <c r="M18" s="6">
         <f t="shared" si="2"/>
         <v>0.61273558147156759</v>
       </c>
-      <c r="M18" s="4">
-        <f t="shared" si="3"/>
-        <v>2.0047754899528654E-2</v>
-      </c>
-      <c r="O18" s="4">
+      <c r="N18" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0316992350011161E-2</v>
+      </c>
+      <c r="P18" s="4">
         <f t="shared" si="4"/>
         <v>2.172082541035605E-2</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <f t="shared" si="5"/>
         <v>1.772446881425634E-2</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <f t="shared" si="9"/>
         <v>3.54489376285127E-2</v>
       </c>
-      <c r="S18" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <f t="shared" si="6"/>
         <v>34</v>
@@ -1251,50 +1302,53 @@
         <v>3.1452581032412968E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>0.88547418967587033</v>
-      </c>
-      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.87526727117587033</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="0"/>
         <v>-2.7056329344370689E-3</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <f t="shared" si="8"/>
         <v>8.6022604365880842E-2</v>
       </c>
-      <c r="I19" s="9">
+      <c r="J19" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J19" s="9">
+      <c r="K19" s="9">
         <f t="shared" si="11"/>
-        <v>1.7760303687635579E-2</v>
-      </c>
-      <c r="L19" s="6">
+        <v>1.7967415250291642E-2</v>
+      </c>
+      <c r="M19" s="6">
         <f t="shared" si="2"/>
         <v>0.58602260436588083</v>
       </c>
-      <c r="M19" s="4">
-        <f t="shared" si="3"/>
-        <v>1.7760303687635579E-2</v>
-      </c>
-      <c r="O19" s="4">
+      <c r="N19" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7967415250291642E-2</v>
+      </c>
+      <c r="P19" s="4">
         <f t="shared" si="4"/>
         <v>1.8431923450643553E-2</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <f t="shared" si="5"/>
         <v>1.5726290516206484E-2</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S19" s="3">
         <f t="shared" si="9"/>
         <v>3.1452581032412982E-2</v>
       </c>
-      <c r="S19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <f t="shared" si="6"/>
         <v>35</v>
@@ -1303,50 +1357,53 @@
         <v>2.87469480979759E-2</v>
       </c>
       <c r="E20" s="2">
-        <v>0.89270431335486078</v>
-      </c>
-      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.8842448828748608</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="0"/>
         <v>-2.1069565216886507E-3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <f t="shared" si="8"/>
         <v>7.3293224536659721E-2</v>
       </c>
-      <c r="I20" s="9">
+      <c r="J20" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J20" s="9">
+      <c r="K20" s="9">
         <f t="shared" si="11"/>
-        <v>1.6101046935654627E-2</v>
-      </c>
-      <c r="L20" s="6">
+        <v>1.6255083096728646E-2</v>
+      </c>
+      <c r="M20" s="6">
         <f t="shared" si="2"/>
         <v>0.57329322453665976</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" si="3"/>
-        <v>1.6101046935654627E-2</v>
-      </c>
-      <c r="O20" s="4">
+      <c r="N20" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6255083096728646E-2</v>
+      </c>
+      <c r="P20" s="4">
         <f t="shared" si="4"/>
         <v>1.64804305706766E-2</v>
       </c>
-      <c r="P20" s="5">
-        <f t="shared" si="5"/>
-        <v>1.437347404898795E-2</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="Q20" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4373474048987952E-2</v>
+      </c>
+      <c r="S20" s="3">
         <f t="shared" si="9"/>
         <v>2.8746948097975913E-2</v>
       </c>
-      <c r="S20" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <f t="shared" si="6"/>
         <v>36</v>
@@ -1355,50 +1412,53 @@
         <v>2.6639991576287249E-2</v>
       </c>
       <c r="E21" s="2">
-        <v>0.8937559229230283</v>
-      </c>
-      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.88620995207302833</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="0"/>
         <v>-9.8260779730133946E-4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <f t="shared" si="8"/>
         <v>3.6884688739015105E-2</v>
       </c>
-      <c r="I21" s="9">
+      <c r="J21" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J21" s="9">
+      <c r="K21" s="9">
         <f t="shared" si="11"/>
-        <v>1.4903393025447692E-2</v>
-      </c>
-      <c r="L21" s="6">
+        <v>1.5030293619458233E-2</v>
+      </c>
+      <c r="M21" s="6">
         <f t="shared" si="2"/>
         <v>0.53688468873901507</v>
       </c>
-      <c r="M21" s="4">
-        <f t="shared" si="3"/>
-        <v>1.4903393025447692E-2</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="N21" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5030293619458233E-2</v>
+      </c>
+      <c r="P21" s="4">
         <f t="shared" si="4"/>
         <v>1.4302603585444964E-2</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <f t="shared" si="5"/>
         <v>1.3319995788143624E-2</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <f t="shared" si="9"/>
         <v>2.6639991576287263E-2</v>
       </c>
-      <c r="S21" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <f t="shared" si="6"/>
         <v>37</v>
@@ -1407,50 +1467,53 @@
         <v>2.5657383778985909E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>0.89495728392322205</v>
-      </c>
-      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.88776875380322207</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
         <v>-2.2416359228772109E-3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <f t="shared" si="8"/>
         <v>8.7368063017912653E-2</v>
       </c>
-      <c r="I22" s="9">
+      <c r="J22" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J22" s="9">
+      <c r="K22" s="9">
         <f t="shared" si="11"/>
-        <v>1.4334418100108477E-2</v>
-      </c>
-      <c r="L22" s="6">
+        <v>1.4450488186855574E-2</v>
+      </c>
+      <c r="M22" s="6">
         <f t="shared" si="2"/>
         <v>0.58736806301791267</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="3"/>
-        <v>1.4334418100108477E-2</v>
-      </c>
-      <c r="O22" s="4">
+      <c r="N22" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4450488186855574E-2</v>
+      </c>
+      <c r="P22" s="4">
         <f t="shared" si="4"/>
         <v>1.5070327812370166E-2</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <f t="shared" si="5"/>
         <v>1.2828691889492955E-2</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <f t="shared" si="9"/>
         <v>2.5657383778985927E-2</v>
       </c>
-      <c r="S22" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <f t="shared" si="6"/>
         <v>38</v>
@@ -1459,50 +1522,53 @@
         <v>2.3415747856108698E-2</v>
       </c>
       <c r="E23" s="2">
-        <v>0.89572892304265517</v>
-      </c>
-      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.89112190926265522</v>
+      </c>
+      <c r="G23" s="3">
         <f t="shared" si="0"/>
         <v>-2.2422784683535958E-3</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <f t="shared" si="8"/>
         <v>9.5759421485597795E-2</v>
       </c>
-      <c r="I23" s="9">
+      <c r="J23" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J23" s="9">
+      <c r="K23" s="9">
         <f t="shared" si="11"/>
-        <v>1.3070778029902707E-2</v>
-      </c>
-      <c r="L23" s="6">
+        <v>1.3138352683688188E-2</v>
+      </c>
+      <c r="M23" s="6">
         <f t="shared" si="2"/>
         <v>0.5957594214855978</v>
       </c>
-      <c r="M23" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3070778029902707E-2</v>
-      </c>
-      <c r="O23" s="4">
+      <c r="N23" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3138352683688188E-2</v>
+      </c>
+      <c r="P23" s="4">
         <f t="shared" si="4"/>
         <v>1.3950152396407945E-2</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <f t="shared" si="5"/>
         <v>1.1707873928054349E-2</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <f t="shared" si="9"/>
         <v>2.3415747856108712E-2</v>
       </c>
-      <c r="S23" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <f t="shared" si="6"/>
         <v>39</v>
@@ -1511,50 +1577,53 @@
         <v>2.1173469387755103E-2</v>
       </c>
       <c r="E24" s="2">
-        <v>0.90093537414965985</v>
-      </c>
-      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.89664608545965985</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="0"/>
         <v>-1.7341750453763183E-3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <f t="shared" si="8"/>
         <v>8.1903206962351413E-2</v>
       </c>
-      <c r="I24" s="9">
+      <c r="J24" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J24" s="9">
+      <c r="K24" s="9">
         <f t="shared" si="11"/>
-        <v>1.175082586125531E-2</v>
-      </c>
-      <c r="L24" s="6">
+        <v>1.1807038323766651E-2</v>
+      </c>
+      <c r="M24" s="6">
         <f t="shared" si="2"/>
         <v>0.58190320696235143</v>
       </c>
-      <c r="M24" s="4">
-        <f t="shared" si="3"/>
-        <v>1.175082586125531E-2</v>
-      </c>
-      <c r="O24" s="4">
+      <c r="N24" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1807038323766651E-2</v>
+      </c>
+      <c r="P24" s="4">
         <f t="shared" si="4"/>
         <v>1.232090973925387E-2</v>
       </c>
-      <c r="P24" s="5">
+      <c r="Q24" s="5">
         <f t="shared" si="5"/>
         <v>1.0586734693877551E-2</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <f t="shared" si="9"/>
         <v>2.1173469387755117E-2</v>
       </c>
-      <c r="S24" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -1563,50 +1632,53 @@
         <v>1.9439294342378784E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>0.89881454014270468</v>
-      </c>
-      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.89587558307270465</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="0"/>
         <v>-1.325439851058291E-4</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <f t="shared" si="8"/>
         <v>6.8183537309209601E-3</v>
       </c>
-      <c r="I25" s="9">
+      <c r="J25" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J25" s="9">
+      <c r="K25" s="9">
         <f t="shared" si="11"/>
-        <v>1.0813851731466432E-2</v>
-      </c>
-      <c r="L25" s="6">
+        <v>1.0849327021339967E-2</v>
+      </c>
+      <c r="M25" s="6">
         <f t="shared" si="2"/>
         <v>0.50681835373092099</v>
       </c>
-      <c r="M25" s="4">
-        <f t="shared" si="3"/>
-        <v>1.0813851731466432E-2</v>
-      </c>
-      <c r="O25" s="4">
+      <c r="N25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0849327021339967E-2</v>
+      </c>
+      <c r="P25" s="4">
         <f t="shared" si="4"/>
         <v>9.8521911562952213E-3</v>
       </c>
-      <c r="P25" s="5">
+      <c r="Q25" s="5">
         <f t="shared" si="5"/>
         <v>9.7196471711893922E-3</v>
       </c>
-      <c r="R25" s="3">
+      <c r="S25" s="3">
         <f t="shared" si="9"/>
         <v>1.9439294342378795E-2</v>
       </c>
-      <c r="S25" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <f t="shared" si="6"/>
         <v>41</v>
@@ -1615,50 +1687,53 @@
         <v>1.9306750357272955E-2</v>
       </c>
       <c r="E26" s="2">
-        <v>0.90298988427158355</v>
-      </c>
-      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.90100410247158358</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="0"/>
         <v>-2.6544471129928415E-3</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <f t="shared" si="8"/>
         <v>0.13748803210649571</v>
       </c>
-      <c r="I26" s="9">
+      <c r="J26" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J26" s="9">
+      <c r="K26" s="9">
         <f t="shared" si="11"/>
-        <v>1.069045771916214E-2</v>
-      </c>
-      <c r="L26" s="6">
+        <v>1.0714019117289126E-2</v>
+      </c>
+      <c r="M26" s="6">
         <f t="shared" si="2"/>
         <v>0.63748803210649574</v>
       </c>
-      <c r="M26" s="4">
-        <f t="shared" si="3"/>
-        <v>1.069045771916214E-2</v>
-      </c>
-      <c r="O26" s="4">
+      <c r="N26" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0714019117289126E-2</v>
+      </c>
+      <c r="P26" s="4">
         <f t="shared" si="4"/>
         <v>1.2307822291629319E-2</v>
       </c>
-      <c r="P26" s="5">
+      <c r="Q26" s="5">
         <f t="shared" si="5"/>
         <v>9.6533751786364776E-3</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <f t="shared" si="9"/>
         <v>1.9306750357272966E-2</v>
       </c>
-      <c r="S26" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <f t="shared" si="6"/>
         <v>42</v>
@@ -1667,50 +1742,53 @@
         <v>1.6652303244280114E-2</v>
       </c>
       <c r="E27" s="2">
-        <v>0.90381140363070256</v>
-      </c>
-      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.90226249382070256</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="0"/>
         <v>-1.5889007876122175E-3</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <f t="shared" si="8"/>
         <v>9.5416277514522668E-2</v>
       </c>
-      <c r="I27" s="9">
+      <c r="J27" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J27" s="9">
+      <c r="K27" s="9">
         <f t="shared" si="11"/>
-        <v>9.2122666174525528E-3</v>
-      </c>
-      <c r="L27" s="6">
+        <v>9.2280812725377762E-3</v>
+      </c>
+      <c r="M27" s="6">
         <f t="shared" si="2"/>
         <v>0.59541627751452264</v>
       </c>
-      <c r="M27" s="4">
-        <f t="shared" si="3"/>
-        <v>9.2122666174525528E-3</v>
-      </c>
-      <c r="O27" s="4">
+      <c r="N27" s="4">
+        <f t="shared" si="3"/>
+        <v>9.2280812725377762E-3</v>
+      </c>
+      <c r="P27" s="4">
         <f t="shared" si="4"/>
         <v>9.9150524097522744E-3</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <f t="shared" si="5"/>
         <v>8.3261516221400569E-3</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <f t="shared" si="9"/>
         <v>1.6652303244280124E-2</v>
       </c>
-      <c r="S27" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <f t="shared" si="6"/>
         <v>43</v>
@@ -1719,50 +1797,53 @@
         <v>1.5063402456667896E-2</v>
       </c>
       <c r="E28" s="2">
-        <v>0.90556296275282966</v>
-      </c>
-      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.90472893439582969</v>
+      </c>
+      <c r="G28" s="3">
         <f t="shared" si="0"/>
         <v>-4.8219868058708287E-4</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <f t="shared" si="8"/>
         <v>3.201127248469917E-2</v>
       </c>
-      <c r="I28" s="9">
+      <c r="J28" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J28" s="9">
+      <c r="K28" s="9">
         <f t="shared" si="11"/>
-        <v>8.3171480483678981E-3</v>
-      </c>
-      <c r="L28" s="6">
+        <v>8.3248152479654634E-3</v>
+      </c>
+      <c r="M28" s="6">
         <f t="shared" si="2"/>
         <v>0.53201127248469915</v>
       </c>
-      <c r="M28" s="4">
-        <f t="shared" si="3"/>
-        <v>8.3171480483678981E-3</v>
-      </c>
-      <c r="O28" s="4">
+      <c r="N28" s="4">
+        <f t="shared" si="3"/>
+        <v>8.3248152479654634E-3</v>
+      </c>
+      <c r="P28" s="4">
         <f t="shared" si="4"/>
         <v>8.0138999089210301E-3</v>
       </c>
-      <c r="P28" s="5">
-        <f t="shared" si="5"/>
-        <v>7.531701228333949E-3</v>
-      </c>
-      <c r="R28" s="3">
+      <c r="Q28" s="5">
+        <f t="shared" si="5"/>
+        <v>7.5317012283339481E-3</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="9"/>
         <v>1.5063402456667908E-2</v>
       </c>
-      <c r="S28" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <f t="shared" si="6"/>
         <v>44</v>
@@ -1771,50 +1852,53 @@
         <v>1.4581203776080813E-2</v>
       </c>
       <c r="E29" s="2">
-        <v>0.90190006614154294</v>
-      </c>
-      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.90138376287254296</v>
+      </c>
+      <c r="G29" s="3">
         <f t="shared" si="0"/>
         <v>-4.9992532698627315E-4</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <f t="shared" si="8"/>
         <v>3.4285600466427667E-2</v>
       </c>
-      <c r="I29" s="9">
+      <c r="J29" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J29" s="9">
+      <c r="K29" s="9">
         <f t="shared" si="11"/>
-        <v>8.083602786759559E-3</v>
-      </c>
-      <c r="L29" s="6">
+        <v>8.0882329905817354E-3</v>
+      </c>
+      <c r="M29" s="6">
         <f t="shared" si="2"/>
         <v>0.5342856004664277</v>
       </c>
-      <c r="M29" s="4">
-        <f t="shared" si="3"/>
-        <v>8.083602786759559E-3</v>
-      </c>
-      <c r="O29" s="4">
+      <c r="N29" s="4">
+        <f t="shared" si="3"/>
+        <v>8.0882329905817354E-3</v>
+      </c>
+      <c r="P29" s="4">
         <f t="shared" si="4"/>
         <v>7.7905272150266807E-3</v>
       </c>
-      <c r="P29" s="5">
-        <f t="shared" si="5"/>
-        <v>7.2906018880404076E-3</v>
-      </c>
-      <c r="R29" s="3">
-        <f t="shared" si="9"/>
-        <v>1.4581203776080829E-2</v>
+      <c r="Q29" s="5">
+        <f t="shared" si="5"/>
+        <v>7.2906018880404058E-3</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.5612511283791264E-17</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.4581203776080826E-2</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -1823,50 +1907,53 @@
         <v>1.408127844909454E-2</v>
       </c>
       <c r="E30" s="2">
-        <v>0.89936797982774996</v>
-      </c>
-      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.89912968601174992</v>
+      </c>
+      <c r="G30" s="3">
         <f t="shared" si="0"/>
         <v>-8.2045036285145756E-4</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <f t="shared" si="8"/>
         <v>5.826533193115107E-2</v>
       </c>
-      <c r="I30" s="9">
+      <c r="J30" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J30" s="9">
+      <c r="K30" s="9">
         <f t="shared" si="11"/>
-        <v>7.828429944654821E-3</v>
-      </c>
-      <c r="L30" s="6">
+        <v>7.8305046914614526E-3</v>
+      </c>
+      <c r="M30" s="6">
         <f t="shared" si="2"/>
         <v>0.55826533193115102</v>
       </c>
-      <c r="M30" s="4">
-        <f t="shared" si="3"/>
-        <v>7.828429944654821E-3</v>
-      </c>
-      <c r="O30" s="4">
+      <c r="N30" s="4">
+        <f t="shared" si="3"/>
+        <v>7.8305046914614526E-3</v>
+      </c>
+      <c r="P30" s="4">
         <f t="shared" si="4"/>
         <v>7.8610895873987268E-3</v>
       </c>
-      <c r="P30" s="5">
+      <c r="Q30" s="5">
         <f t="shared" si="5"/>
         <v>7.040639224547271E-3</v>
       </c>
-      <c r="R30" s="3">
-        <f t="shared" si="9"/>
-        <v>1.4081278449094558E-2</v>
-      </c>
       <c r="S30" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.7347234759768071E-17</v>
-      </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.4081278449094551E-2</v>
+      </c>
+      <c r="T30" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <f t="shared" si="6"/>
         <v>46</v>
@@ -1875,50 +1962,53 @@
         <v>1.3260828086243083E-2</v>
       </c>
       <c r="E31" s="2">
-        <v>0.89798384532213948</v>
-      </c>
-      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.89782498277813949</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="0"/>
         <v>-2.3763051557032164E-4</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <f t="shared" si="8"/>
         <v>1.7919734274878502E-2</v>
       </c>
-      <c r="I31" s="9">
+      <c r="J31" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J31" s="9">
+      <c r="K31" s="9">
         <f t="shared" si="11"/>
-        <v>7.3836673985409728E-3</v>
-      </c>
-      <c r="L31" s="6">
+        <v>7.3849738760944856E-3</v>
+      </c>
+      <c r="M31" s="6">
         <f t="shared" si="2"/>
         <v>0.51791973427487847</v>
       </c>
-      <c r="M31" s="4">
-        <f t="shared" si="3"/>
-        <v>7.3836673985409728E-3</v>
-      </c>
-      <c r="O31" s="4">
+      <c r="N31" s="4">
+        <f t="shared" si="3"/>
+        <v>7.3849738760944856E-3</v>
+      </c>
+      <c r="P31" s="4">
         <f t="shared" si="4"/>
         <v>6.868044558691863E-3</v>
       </c>
-      <c r="P31" s="5">
+      <c r="Q31" s="5">
         <f t="shared" si="5"/>
         <v>6.6304140431215413E-3</v>
       </c>
-      <c r="R31" s="3">
-        <f t="shared" si="9"/>
-        <v>1.32608280862431E-2</v>
-      </c>
       <c r="S31" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.7347234759768071E-17</v>
-      </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.3260828086243093E-2</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <f t="shared" si="6"/>
         <v>47</v>
@@ -1927,50 +2017,53 @@
         <v>1.3023197570672761E-2</v>
       </c>
       <c r="E32" s="2">
-        <v>0.89525091569357917</v>
-      </c>
-      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.89521120005757915</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="0"/>
         <v>-2.6538340949904156E-4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <f t="shared" si="8"/>
         <v>2.0377745792374721E-2</v>
       </c>
-      <c r="I32" s="9">
+      <c r="J32" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J32" s="9">
+      <c r="K32" s="9">
         <f t="shared" si="11"/>
-        <v>7.2734902262475091E-3</v>
-      </c>
-      <c r="L32" s="6">
+        <v>7.2738129113192069E-3</v>
+      </c>
+      <c r="M32" s="6">
         <f t="shared" si="2"/>
         <v>0.52037774579237472</v>
       </c>
-      <c r="M32" s="4">
-        <f t="shared" si="3"/>
-        <v>7.2734902262475091E-3</v>
-      </c>
-      <c r="O32" s="4">
+      <c r="N32" s="4">
+        <f t="shared" si="3"/>
+        <v>7.2738129113192069E-3</v>
+      </c>
+      <c r="P32" s="4">
         <f t="shared" si="4"/>
         <v>6.7769821948354221E-3</v>
       </c>
-      <c r="P32" s="5">
+      <c r="Q32" s="5">
         <f t="shared" si="5"/>
         <v>6.5115987853363805E-3</v>
       </c>
-      <c r="R32" s="3">
-        <f t="shared" si="9"/>
-        <v>1.3023197570672777E-2</v>
-      </c>
       <c r="S32" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.5612511283791264E-17</v>
-      </c>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.302319757067277E-2</v>
+      </c>
+      <c r="T32" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
         <f t="shared" si="6"/>
         <v>48</v>
@@ -1979,50 +2072,53 @@
         <v>1.2757814161173719E-2</v>
       </c>
       <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
         <v>0.89575043285440903</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <f t="shared" si="0"/>
         <v>-1.6684469074229047E-3</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <f t="shared" si="8"/>
         <v>0.13077843009349868</v>
       </c>
-      <c r="I33" s="9">
+      <c r="J33" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J33" s="9">
+      <c r="K33" s="9">
         <f t="shared" si="11"/>
         <v>7.1212994675980881E-3</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <f t="shared" si="2"/>
         <v>0.63077843009349865</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <f t="shared" si="3"/>
         <v>7.1212994675980881E-3</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <f t="shared" si="4"/>
         <v>8.0473539880097644E-3</v>
       </c>
-      <c r="P33" s="5">
+      <c r="Q33" s="5">
         <f t="shared" si="5"/>
         <v>6.3789070805868597E-3</v>
       </c>
-      <c r="R33" s="3">
-        <f t="shared" si="9"/>
-        <v>1.2757814161173733E-2</v>
-      </c>
       <c r="S33" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3877787807814457E-17</v>
-      </c>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.2757814161173726E-2</v>
+      </c>
+      <c r="T33" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
         <f t="shared" si="6"/>
         <v>49</v>
@@ -2031,50 +2127,53 @@
         <v>1.1089367253750815E-2</v>
       </c>
       <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
         <v>0.89236790606653615</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <f t="shared" si="0"/>
         <v>-8.080273269494842E-4</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
         <f t="shared" si="8"/>
         <v>7.2865052483150547E-2</v>
       </c>
-      <c r="I34" s="9">
+      <c r="J34" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J34" s="9">
+      <c r="K34" s="9">
         <f t="shared" si="11"/>
         <v>6.2134502923976605E-3</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <f t="shared" si="2"/>
         <v>0.57286505248315056</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <f t="shared" si="3"/>
         <v>6.2134502923976605E-3</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <f t="shared" si="4"/>
         <v>6.3527109538248916E-3</v>
       </c>
-      <c r="P34" s="5">
+      <c r="Q34" s="5">
         <f t="shared" si="5"/>
         <v>5.5446836268754074E-3</v>
       </c>
-      <c r="R34" s="3">
-        <f t="shared" si="9"/>
-        <v>1.1089367253750829E-2</v>
-      </c>
       <c r="S34" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3877787807814457E-17</v>
-      </c>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.1089367253750822E-2</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
         <f t="shared" si="6"/>
         <v>50</v>
@@ -2083,50 +2182,53 @@
         <v>1.0281339926801331E-2</v>
       </c>
       <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
         <v>0.8893917805157433</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <f t="shared" si="0"/>
         <v>-7.4039564591593145E-4</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <f t="shared" si="8"/>
         <v>7.2013536288774271E-2</v>
       </c>
-      <c r="I35" s="9">
+      <c r="J35" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J35" s="9">
+      <c r="K35" s="9">
         <f t="shared" si="11"/>
         <v>5.779983665263555E-3</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <f t="shared" si="2"/>
         <v>0.57201353628877427</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <f t="shared" si="3"/>
         <v>5.779983665263555E-3</v>
       </c>
-      <c r="O35" s="4">
+      <c r="P35" s="4">
         <f t="shared" si="4"/>
         <v>5.8810656093165967E-3</v>
       </c>
-      <c r="P35" s="5">
+      <c r="Q35" s="5">
         <f t="shared" si="5"/>
         <v>5.1406699634006653E-3</v>
       </c>
-      <c r="R35" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0281339926801344E-2</v>
-      </c>
       <c r="S35" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3877787807814457E-17</v>
-      </c>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.0281339926801338E-2</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
         <f t="shared" si="6"/>
         <v>51</v>
@@ -2135,50 +2237,53 @@
         <v>9.5409442808853991E-3</v>
       </c>
       <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
         <v>0.88398211754443357</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <f t="shared" si="0"/>
         <v>-6.3668548554720109E-4</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H36" s="3">
         <f t="shared" si="8"/>
         <v>6.6731915290895782E-2</v>
       </c>
-      <c r="I36" s="9">
+      <c r="J36" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J36" s="9">
+      <c r="K36" s="9">
         <f t="shared" si="11"/>
         <v>5.3965708646848401E-3</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="6">
         <f t="shared" si="2"/>
         <v>0.56673191529089584</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <f t="shared" si="3"/>
         <v>5.3965708646848401E-3</v>
       </c>
-      <c r="O36" s="4">
+      <c r="P36" s="4">
         <f t="shared" si="4"/>
         <v>5.4071576259899015E-3</v>
       </c>
-      <c r="P36" s="5">
+      <c r="Q36" s="5">
         <f t="shared" si="5"/>
         <v>4.7704721404426996E-3</v>
       </c>
-      <c r="R36" s="3">
-        <f t="shared" si="9"/>
-        <v>9.540944280885413E-3</v>
-      </c>
       <c r="S36" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3877787807814457E-17</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>9.5409442808854061E-3</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
         <f t="shared" si="6"/>
         <v>52</v>
@@ -2187,50 +2292,53 @@
         <v>8.904258795338198E-3</v>
       </c>
       <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
         <v>0.88152162073848161</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" ref="F37:F54" si="12">D38-D37</f>
+      <c r="G37" s="3">
+        <f t="shared" ref="G37:G54" si="12">D38-D37</f>
         <v>-1.7176520170613507E-3</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <f t="shared" si="8"/>
         <v>0.19290230175706741</v>
       </c>
-      <c r="I37" s="9">
+      <c r="J37" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J37" s="9">
+      <c r="K37" s="9">
         <f t="shared" si="11"/>
         <v>5.0505050505050501E-3</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <f t="shared" si="2"/>
         <v>0.69290230175706746</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <f t="shared" si="3"/>
         <v>5.0505050505050501E-3</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <f t="shared" si="4"/>
         <v>6.1697814147304497E-3</v>
       </c>
-      <c r="P37" s="5">
+      <c r="Q37" s="5">
         <f t="shared" si="5"/>
         <v>4.452129397669099E-3</v>
       </c>
-      <c r="R37" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9042587953382102E-3</v>
-      </c>
       <c r="S37" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>8.9042587953382032E-3</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
         <f t="shared" si="6"/>
         <v>53</v>
@@ -2239,50 +2347,53 @@
         <v>7.1866067782768474E-3</v>
       </c>
       <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
         <v>0.87390771743568796</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <f t="shared" si="12"/>
         <v>3.6036105344182737E-4</v>
       </c>
-      <c r="G38" s="3">
+      <c r="H38" s="3">
         <f t="shared" si="8"/>
         <v>-5.0143421584036098E-2</v>
       </c>
-      <c r="I38" s="9">
+      <c r="J38" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J38" s="9">
+      <c r="K38" s="9">
         <f t="shared" si="11"/>
         <v>4.1117652555835906E-3</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <f t="shared" si="2"/>
         <v>0.44985657841596388</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <f t="shared" si="3"/>
         <v>4.1117652555835906E-3</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <f t="shared" si="4"/>
         <v>3.2329423356965963E-3</v>
       </c>
-      <c r="P38" s="5">
+      <c r="Q38" s="5">
         <f t="shared" si="5"/>
         <v>3.5933033891384237E-3</v>
       </c>
-      <c r="R38" s="3">
-        <f t="shared" si="9"/>
-        <v>7.1866067782768587E-3</v>
-      </c>
       <c r="S38" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.1275702593849246E-17</v>
-      </c>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>7.1866067782768517E-3</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
         <f t="shared" si="6"/>
         <v>54</v>
@@ -2291,50 +2402,53 @@
         <v>7.5469678317186747E-3</v>
       </c>
       <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
         <v>0.87025638280790019</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <f t="shared" si="12"/>
         <v>-7.9218762801152361E-4</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="3">
         <f t="shared" si="8"/>
         <v>0.10496766988751273</v>
       </c>
-      <c r="I39" s="9">
+      <c r="J39" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J39" s="9">
+      <c r="K39" s="9">
         <f t="shared" si="11"/>
         <v>4.3360600282920233E-3</v>
       </c>
-      <c r="L39" s="6">
+      <c r="M39" s="6">
         <f t="shared" si="2"/>
         <v>0.60496766988751272</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <f t="shared" si="3"/>
         <v>4.3360600282920233E-3</v>
       </c>
-      <c r="O39" s="4">
+      <c r="P39" s="4">
         <f t="shared" si="4"/>
         <v>4.565671543870861E-3</v>
       </c>
-      <c r="P39" s="5">
+      <c r="Q39" s="5">
         <f t="shared" si="5"/>
         <v>3.7734839158593374E-3</v>
       </c>
-      <c r="R39" s="3">
-        <f t="shared" si="9"/>
-        <v>7.5469678317186869E-3</v>
-      </c>
       <c r="S39" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.214306433183765E-17</v>
-      </c>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>7.54696783171868E-3</v>
+      </c>
+      <c r="T39" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
         <f t="shared" si="6"/>
         <v>55</v>
@@ -2343,50 +2457,53 @@
         <v>6.7547802037071511E-3</v>
       </c>
       <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
         <v>0.86080897800707401</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <f t="shared" si="12"/>
         <v>2.7760649672934224E-4</v>
       </c>
-      <c r="G40" s="3">
+      <c r="H40" s="3">
         <f t="shared" si="8"/>
         <v>-4.1097783844541165E-2</v>
       </c>
-      <c r="I40" s="9">
+      <c r="J40" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J40" s="9">
+      <c r="K40" s="9">
         <f t="shared" si="11"/>
         <v>3.9235070592233308E-3</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <f t="shared" si="2"/>
         <v>0.45890221615545884</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <f t="shared" si="3"/>
         <v>3.9235070592233308E-3</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <f t="shared" si="4"/>
         <v>3.0997836051242333E-3</v>
       </c>
-      <c r="P40" s="5">
+      <c r="Q40" s="5">
         <f t="shared" si="5"/>
         <v>3.3773901018535756E-3</v>
       </c>
-      <c r="R40" s="3">
-        <f t="shared" si="9"/>
-        <v>6.7547802037071633E-3</v>
-      </c>
       <c r="S40" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.214306433183765E-17</v>
-      </c>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>6.7547802037071563E-3</v>
+      </c>
+      <c r="T40" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
         <f t="shared" si="6"/>
         <v>56</v>
@@ -2395,50 +2512,53 @@
         <v>7.0323867004364934E-3</v>
       </c>
       <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
         <v>0.84644608503529672</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <f t="shared" si="12"/>
         <v>-9.936403551076417E-4</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <f t="shared" si="8"/>
         <v>0.14129489708607285</v>
       </c>
-      <c r="I41" s="9">
+      <c r="J41" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J41" s="9">
+      <c r="K41" s="9">
         <f t="shared" si="11"/>
         <v>4.1540665287283143E-3</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <f t="shared" si="2"/>
         <v>0.64129489708607279</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <f t="shared" si="3"/>
         <v>4.1540665287283143E-3</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <f t="shared" si="4"/>
         <v>4.5098337053258884E-3</v>
       </c>
-      <c r="P41" s="5">
+      <c r="Q41" s="5">
         <f t="shared" si="5"/>
         <v>3.5161933502182467E-3</v>
       </c>
-      <c r="R41" s="3">
-        <f t="shared" si="9"/>
-        <v>7.0323867004365055E-3</v>
-      </c>
       <c r="S41" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.214306433183765E-17</v>
-      </c>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>7.0323867004364986E-3</v>
+      </c>
+      <c r="T41" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
         <f t="shared" si="6"/>
         <v>57</v>
@@ -2447,50 +2567,53 @@
         <v>6.0387463453288517E-3</v>
       </c>
       <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
         <v>0.83411208569008388</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <f t="shared" si="12"/>
         <v>-1.4349246186183655E-3</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <f t="shared" si="8"/>
         <v>0.23761962112025486</v>
       </c>
-      <c r="I42" s="9">
+      <c r="J42" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J42" s="9">
+      <c r="K42" s="9">
         <f t="shared" si="11"/>
         <v>3.619865033086549E-3</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <f t="shared" si="2"/>
         <v>0.73761962112025481</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N42" s="4">
         <f t="shared" si="3"/>
         <v>3.619865033086549E-3</v>
       </c>
-      <c r="O42" s="4">
+      <c r="P42" s="4">
         <f t="shared" si="4"/>
         <v>4.4542977912827913E-3</v>
       </c>
-      <c r="P42" s="5">
+      <c r="Q42" s="5">
         <f t="shared" si="5"/>
         <v>3.0193731726644258E-3</v>
       </c>
-      <c r="R42" s="3">
-        <f t="shared" si="9"/>
-        <v>6.0387463453288647E-3</v>
-      </c>
       <c r="S42" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3010426069826053E-17</v>
-      </c>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>6.0387463453288577E-3</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
         <f t="shared" si="6"/>
         <v>58</v>
@@ -2499,50 +2622,53 @@
         <v>4.6038217267104862E-3</v>
       </c>
       <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
         <v>0.82497157278753086</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <f t="shared" si="12"/>
         <v>-8.5923600643662834E-4</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <f t="shared" si="8"/>
         <v>0.18663537761497295</v>
       </c>
-      <c r="I43" s="9">
+      <c r="J43" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J43" s="9">
+      <c r="K43" s="9">
         <f t="shared" si="11"/>
         <v>2.7902911315807167E-3</v>
       </c>
-      <c r="L43" s="6">
+      <c r="M43" s="6">
         <f t="shared" si="2"/>
         <v>0.68663537761497295</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <f t="shared" si="3"/>
         <v>2.7902911315807167E-3</v>
       </c>
-      <c r="O43" s="4">
+      <c r="P43" s="4">
         <f t="shared" si="4"/>
         <v>3.1611468697918714E-3</v>
       </c>
-      <c r="P43" s="5">
+      <c r="Q43" s="5">
         <f t="shared" si="5"/>
         <v>2.3019108633552431E-3</v>
       </c>
-      <c r="R43" s="3">
-        <f t="shared" si="9"/>
-        <v>4.6038217267104992E-3</v>
-      </c>
       <c r="S43" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3010426069826053E-17</v>
-      </c>
-    </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>4.6038217267104923E-3</v>
+      </c>
+      <c r="T43" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
         <f t="shared" si="6"/>
         <v>59</v>
@@ -2551,50 +2677,53 @@
         <v>3.7445857202738578E-3</v>
       </c>
       <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
         <v>0.80681849937124495</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <f t="shared" si="12"/>
         <v>-8.9525153407859137E-4</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <f t="shared" si="8"/>
         <v>0.2390789264701671</v>
       </c>
-      <c r="I44" s="9">
+      <c r="J44" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J44" s="9">
+      <c r="K44" s="9">
         <f t="shared" si="11"/>
         <v>2.3205874203380437E-3</v>
       </c>
-      <c r="L44" s="6">
+      <c r="M44" s="6">
         <f t="shared" si="2"/>
         <v>0.73907892647016715</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <f t="shared" si="3"/>
         <v>2.3205874203380437E-3</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <f t="shared" si="4"/>
         <v>2.7675443942155203E-3</v>
       </c>
-      <c r="P44" s="5">
+      <c r="Q44" s="5">
         <f t="shared" si="5"/>
         <v>1.8722928601369289E-3</v>
       </c>
-      <c r="R44" s="3">
-        <f t="shared" si="9"/>
-        <v>3.7445857202738709E-3</v>
-      </c>
       <c r="S44" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3010426069826053E-17</v>
-      </c>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>3.7445857202738639E-3</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="7"/>
+        <v>-6.0715321659188248E-18</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -2603,50 +2732,53 @@
         <v>2.8493341861952665E-3</v>
       </c>
       <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
         <v>0.77568761993370938</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <f t="shared" si="12"/>
         <v>6.5300643690950708E-5</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <f t="shared" si="8"/>
         <v>-2.291786060312815E-2</v>
       </c>
-      <c r="I45" s="9">
+      <c r="J45" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J45" s="9">
+      <c r="K45" s="9">
         <f t="shared" si="11"/>
         <v>1.8366505491210314E-3</v>
       </c>
-      <c r="L45" s="6">
+      <c r="M45" s="6">
         <f t="shared" si="2"/>
         <v>0.47708213939687183</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <f t="shared" si="3"/>
         <v>1.8366505491210314E-3</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <f t="shared" si="4"/>
         <v>1.3593664494066825E-3</v>
       </c>
-      <c r="P45" s="5">
+      <c r="Q45" s="5">
         <f t="shared" si="5"/>
         <v>1.4246670930976332E-3</v>
       </c>
-      <c r="R45" s="3">
-        <f t="shared" si="9"/>
-        <v>2.8493341861952795E-3</v>
-      </c>
       <c r="S45" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3010426069826053E-17</v>
-      </c>
-    </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.8493341861952725E-3</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="7"/>
+        <v>-6.0715321659188248E-18</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
         <f t="shared" si="6"/>
         <v>61</v>
@@ -2655,50 +2787,53 @@
         <v>2.9146348298862172E-3</v>
       </c>
       <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
         <v>0.74177456420604226</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <f t="shared" si="12"/>
         <v>-1.2368747770780319E-3</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <f t="shared" si="8"/>
         <v>0.42436697880479168</v>
       </c>
-      <c r="I46" s="9">
+      <c r="J46" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J46" s="9">
+      <c r="K46" s="9">
         <f t="shared" si="11"/>
         <v>1.9646365422396855E-3</v>
       </c>
-      <c r="L46" s="6">
+      <c r="M46" s="6">
         <f t="shared" si="2"/>
         <v>0.92436697880479168</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <f t="shared" si="3"/>
         <v>1.9646365422396855E-3</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <f t="shared" si="4"/>
         <v>2.6941921920211405E-3</v>
       </c>
-      <c r="P46" s="5">
+      <c r="Q46" s="5">
         <f t="shared" si="5"/>
         <v>1.4573174149431084E-3</v>
       </c>
-      <c r="R46" s="3">
-        <f t="shared" si="9"/>
-        <v>2.9146348298862302E-3</v>
-      </c>
       <c r="S46" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3010426069826053E-17</v>
-      </c>
-    </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.9146348298862233E-3</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="7"/>
+        <v>-6.0715321659188248E-18</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
         <f t="shared" si="6"/>
         <v>62</v>
@@ -2707,50 +2842,53 @@
         <v>1.6777600528081853E-3</v>
       </c>
       <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
         <v>0.66403542549095107</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <f t="shared" si="12"/>
         <v>3.6946637604368549E-4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <f t="shared" si="8"/>
         <v>-0.22021407377371011</v>
       </c>
-      <c r="I47" s="9">
+      <c r="J47" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J47" s="9">
+      <c r="K47" s="9">
         <f t="shared" si="11"/>
         <v>1.2633061342832291E-3</v>
       </c>
-      <c r="L47" s="6">
+      <c r="M47" s="6">
         <f t="shared" si="2"/>
         <v>0.27978592622628989</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <f t="shared" si="3"/>
         <v>1.2633061342832291E-3</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <f t="shared" si="4"/>
         <v>4.6941365036040714E-4</v>
       </c>
-      <c r="P47" s="5">
+      <c r="Q47" s="5">
         <f t="shared" si="5"/>
         <v>8.3888002640409264E-4</v>
       </c>
-      <c r="R47" s="3">
-        <f t="shared" si="9"/>
-        <v>1.6777600528081978E-3</v>
-      </c>
       <c r="S47" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.2576745200831851E-17</v>
-      </c>
-    </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.6777600528081909E-3</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="7"/>
+        <v>-5.6378512969246231E-18</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
         <f t="shared" si="6"/>
         <v>63</v>
@@ -2759,50 +2897,53 @@
         <v>2.0472264288518708E-3</v>
       </c>
       <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
         <v>0.42843120758315106</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <f t="shared" si="12"/>
         <v>-1.0231323490398291E-4</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <f t="shared" si="8"/>
         <v>4.9976511372687979E-2</v>
       </c>
-      <c r="I48" s="9">
+      <c r="J48" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J48" s="9">
+      <c r="K48" s="9">
         <f t="shared" si="11"/>
         <v>2.3892125417293974E-3</v>
       </c>
-      <c r="L48" s="6">
+      <c r="M48" s="6">
         <f t="shared" si="2"/>
         <v>0.54997651137268799</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
         <f t="shared" si="3"/>
         <v>2.3892125417293974E-3</v>
       </c>
-      <c r="O48" s="4">
+      <c r="P48" s="4">
         <f t="shared" si="4"/>
         <v>1.1259264493299183E-3</v>
       </c>
-      <c r="P48" s="5">
+      <c r="Q48" s="5">
         <f t="shared" si="5"/>
         <v>1.0236132144259354E-3</v>
       </c>
-      <c r="R48" s="3">
-        <f t="shared" si="9"/>
-        <v>2.0472264288518833E-3</v>
-      </c>
       <c r="S48" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.2576745200831851E-17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>2.0472264288518764E-3</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" si="7"/>
+        <v>-5.6378512969246231E-18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
         <f t="shared" si="6"/>
         <v>64</v>
@@ -2811,50 +2952,53 @@
         <v>1.9449131939478879E-3</v>
       </c>
       <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
         <v>0.24171266767725882</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <f t="shared" si="12"/>
         <v>-2.0684071632557093E-4</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <f t="shared" si="8"/>
         <v>0.10634958771898435</v>
       </c>
-      <c r="I49" s="9">
+      <c r="J49" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J49" s="9">
+      <c r="K49" s="9">
         <f t="shared" si="11"/>
         <v>4.023192521595078E-3</v>
       </c>
-      <c r="L49" s="6">
+      <c r="M49" s="6">
         <f t="shared" si="2"/>
         <v>0.6063495877189844</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <f t="shared" si="3"/>
         <v>4.023192521595078E-3</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <f t="shared" si="4"/>
         <v>1.179297313299515E-3</v>
       </c>
-      <c r="P49" s="5">
+      <c r="Q49" s="5">
         <f t="shared" si="5"/>
         <v>9.7245659697394403E-4</v>
       </c>
-      <c r="R49" s="3">
-        <f t="shared" si="9"/>
-        <v>1.9449131939479004E-3</v>
-      </c>
       <c r="S49" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.2576745200831851E-17</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.9449131939478935E-3</v>
+      </c>
+      <c r="T49" s="3">
+        <f t="shared" si="7"/>
+        <v>-5.6378512969246231E-18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
         <f t="shared" si="6"/>
         <v>65</v>
@@ -2863,50 +3007,53 @@
         <v>1.7380724776223169E-3</v>
       </c>
       <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
         <v>0.14805480721879435</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <f t="shared" si="12"/>
         <v>-3.8725354364359233E-4</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="3">
         <f t="shared" si="8"/>
         <v>0.22280632633534084</v>
       </c>
-      <c r="I50" s="9">
+      <c r="J50" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J50" s="9">
+      <c r="K50" s="9">
         <f t="shared" si="11"/>
         <v>5.869692819409118E-3</v>
       </c>
-      <c r="L50" s="6">
+      <c r="M50" s="6">
         <f t="shared" si="2"/>
         <v>0.72280632633534081</v>
       </c>
-      <c r="M50" s="4">
+      <c r="N50" s="4">
         <f t="shared" si="3"/>
         <v>5.869692819409118E-3</v>
       </c>
-      <c r="O50" s="4">
+      <c r="P50" s="4">
         <f t="shared" si="4"/>
         <v>1.2562897824547508E-3</v>
       </c>
-      <c r="P50" s="5">
+      <c r="Q50" s="5">
         <f t="shared" si="5"/>
         <v>8.6903623881115846E-4</v>
       </c>
-      <c r="R50" s="3">
-        <f t="shared" si="9"/>
-        <v>1.7380724776223295E-3</v>
-      </c>
       <c r="S50" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.2576745200831851E-17</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.7380724776223226E-3</v>
+      </c>
+      <c r="T50" s="3">
+        <f t="shared" si="7"/>
+        <v>-5.6378512969246231E-18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
         <f t="shared" si="6"/>
         <v>66</v>
@@ -2915,50 +3062,53 @@
         <v>1.3508189339787246E-3</v>
       </c>
       <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
         <v>0.11498846175493893</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <f t="shared" si="12"/>
         <v>5.9493979198886777E-5</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
         <f t="shared" si="8"/>
         <v>-4.4042897017775889E-2</v>
       </c>
-      <c r="I51" s="9">
+      <c r="J51" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J51" s="9">
+      <c r="K51" s="9">
         <f t="shared" si="11"/>
         <v>5.8737151248164461E-3</v>
       </c>
-      <c r="L51" s="6">
+      <c r="M51" s="6">
         <f t="shared" si="2"/>
         <v>0.45595710298222414</v>
       </c>
-      <c r="M51" s="4">
+      <c r="N51" s="4">
         <f t="shared" si="3"/>
         <v>5.8737151248164461E-3</v>
       </c>
-      <c r="O51" s="4">
+      <c r="P51" s="4">
         <f t="shared" si="4"/>
         <v>6.1591548779047552E-4</v>
       </c>
-      <c r="P51" s="5">
+      <c r="Q51" s="5">
         <f t="shared" si="5"/>
         <v>6.754094669893623E-4</v>
       </c>
-      <c r="R51" s="3">
-        <f t="shared" si="9"/>
-        <v>1.3508189339787372E-3</v>
-      </c>
       <c r="S51" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.2576745200831851E-17</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.3508189339787302E-3</v>
+      </c>
+      <c r="T51" s="3">
+        <f t="shared" si="7"/>
+        <v>-5.6378512969246231E-18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
         <f t="shared" si="6"/>
         <v>67</v>
@@ -2967,50 +3117,53 @@
         <v>1.4103129131776114E-3</v>
       </c>
       <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
         <v>9.3521375055090353E-2</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <f t="shared" si="12"/>
         <v>2.6509984032078559E-5</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <f t="shared" si="8"/>
         <v>-1.8797235552745702E-2</v>
       </c>
-      <c r="I52" s="9">
+      <c r="J52" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J52" s="9">
+      <c r="K52" s="9">
         <f t="shared" si="11"/>
         <v>7.540056550424128E-3</v>
       </c>
-      <c r="L52" s="6">
+      <c r="M52" s="6">
         <f t="shared" si="2"/>
         <v>0.48120276444725429</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N52" s="4">
         <f t="shared" si="3"/>
         <v>7.540056550424128E-3</v>
       </c>
-      <c r="O52" s="4">
+      <c r="P52" s="4">
         <f t="shared" si="4"/>
         <v>6.7864647255672713E-4</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="5"/>
         <v>7.0515645658880569E-4</v>
       </c>
-      <c r="R52" s="3">
-        <f t="shared" si="9"/>
-        <v>1.4103129131776242E-3</v>
-      </c>
       <c r="S52" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.2793585635328952E-17</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.4103129131776172E-3</v>
+      </c>
+      <c r="T52" s="3">
+        <f t="shared" si="7"/>
+        <v>-5.8546917314217239E-18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
         <f t="shared" si="6"/>
         <v>68</v>
@@ -3019,50 +3172,53 @@
         <v>1.4368228972096899E-3</v>
       </c>
       <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
         <v>1.1552056093565907E-2</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <f t="shared" si="12"/>
         <v>1.1733234877069954E-4</v>
       </c>
-      <c r="G53" s="3">
+      <c r="H53" s="3">
         <f t="shared" si="8"/>
         <v>-8.1660968097431466E-2</v>
       </c>
-      <c r="I53" s="9">
+      <c r="J53" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J53" s="9">
+      <c r="K53" s="9">
         <f t="shared" si="11"/>
         <v>6.2189054726368161E-2</v>
       </c>
-      <c r="L53" s="6">
+      <c r="M53" s="6">
         <f t="shared" si="2"/>
         <v>0.41833903190256855</v>
       </c>
-      <c r="M53" s="4">
+      <c r="N53" s="4">
         <f t="shared" si="3"/>
         <v>6.2189054726368161E-2</v>
       </c>
-      <c r="O53" s="4">
+      <c r="P53" s="4">
         <f t="shared" si="4"/>
         <v>6.0107909983414542E-4</v>
       </c>
-      <c r="P53" s="5">
+      <c r="Q53" s="5">
         <f t="shared" si="5"/>
         <v>7.1841144860484497E-4</v>
       </c>
-      <c r="R53" s="3">
-        <f t="shared" si="9"/>
-        <v>1.4368228972097027E-3</v>
-      </c>
       <c r="S53" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.2793585635328952E-17</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.4368228972096958E-3</v>
+      </c>
+      <c r="T53" s="3">
+        <f t="shared" si="7"/>
+        <v>-5.8546917314217239E-18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -3071,50 +3227,53 @@
         <v>1.5541552459803895E-3</v>
       </c>
       <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
         <v>1.921501031393936E-3</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <f t="shared" si="12"/>
         <v>-8.6513914942597681E-5</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <f t="shared" si="8"/>
         <v>5.5666198834610714E-2</v>
       </c>
-      <c r="I54" s="9">
+      <c r="J54" s="9">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="J54" s="9">
+      <c r="K54" s="9">
         <f t="shared" si="11"/>
         <v>0.40441176470588236</v>
       </c>
-      <c r="L54" s="6">
+      <c r="M54" s="6">
         <f t="shared" si="2"/>
         <v>0.55566619883461077</v>
       </c>
-      <c r="M54" s="4">
+      <c r="N54" s="4">
         <f t="shared" si="3"/>
         <v>0.40441176470588236</v>
       </c>
-      <c r="O54" s="4">
+      <c r="P54" s="4">
         <f t="shared" si="4"/>
         <v>8.6359153793279253E-4</v>
       </c>
-      <c r="P54" s="5">
+      <c r="Q54" s="5">
         <f t="shared" si="5"/>
         <v>7.7707762299019474E-4</v>
       </c>
-      <c r="R54" s="3">
-        <f t="shared" si="9"/>
-        <v>1.5541552459804025E-3</v>
-      </c>
       <c r="S54" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3010426069826053E-17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.5541552459803955E-3</v>
+      </c>
+      <c r="T54" s="3">
+        <f t="shared" si="7"/>
+        <v>-6.0715321659188248E-18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -3123,44 +3282,47 @@
         <v>1.4676413310377918E-3</v>
       </c>
       <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
         <v>1.5240890745392454E-3</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="R55" s="3">
-        <f t="shared" si="9"/>
-        <v>1.4676413310378048E-3</v>
-      </c>
+      <c r="G55" s="3"/>
       <c r="S55" s="3">
-        <f t="shared" si="7"/>
-        <v>-1.3010426069826053E-17</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1.4676413310377979E-3</v>
+      </c>
+      <c r="T55" s="3">
+        <f t="shared" si="7"/>
+        <v>-6.0715321659188248E-18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
@@ -3912,81 +4074,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA1ABDA-1F2E-7544-B0E0-D32982AABCA5}">
-  <dimension ref="B1:S310"/>
+  <dimension ref="B1:T310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="I3" t="s">
+      <c r="K1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>5</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3997,41 +4165,44 @@
         <v>0.28272124810161536</v>
       </c>
       <c r="E5" s="2">
-        <v>0.62663951401353035</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" ref="F5:F36" si="0">D6-D5</f>
+        <v>3.6241888720143587E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.6211602827135303</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G36" si="0">D6-D5</f>
         <v>6.9788909067913241E-3</v>
       </c>
-      <c r="H5">
-        <f>F5/E5</f>
-        <v>1.1137010594963274E-2</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="I5">
+        <f>G5/F5</f>
+        <v>1.1235249743116436E-2</v>
+      </c>
+      <c r="J5" s="9">
         <v>0.2</v>
       </c>
-      <c r="J5" s="8">
-        <f t="shared" ref="J5:J14" si="1">I5*D5/E5</f>
-        <v>9.0234095290553568E-2</v>
-      </c>
-      <c r="L5">
-        <f>G5+I5</f>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K14" si="1">J5*D5/F5</f>
+        <v>9.1030046823519187E-2</v>
+      </c>
+      <c r="M5">
+        <f>H5+J5</f>
         <v>0.2</v>
       </c>
-      <c r="M5" s="4">
-        <f>J5+H5</f>
-        <v>0.10137110588551684</v>
-      </c>
-      <c r="O5" s="6">
-        <f>L5*D5</f>
+      <c r="N5" s="4">
+        <f>K5+I5</f>
+        <v>0.10226529656663562</v>
+      </c>
+      <c r="P5" s="6">
+        <f>M5*D5</f>
         <v>5.6544249620323075E-2</v>
       </c>
-      <c r="P5" s="7">
-        <f>M5*E5</f>
+      <c r="Q5" s="7">
+        <f>N5*F5</f>
         <v>6.35231405271144E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <f>1+C5</f>
         <v>21</v>
@@ -4040,49 +4211,52 @@
         <v>0.28970013900840669</v>
       </c>
       <c r="E6" s="2">
-        <v>0.62954259614748131</v>
-      </c>
-      <c r="F6" s="3">
+        <v>1.7872509432713313E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.62221009543748129</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>-1.8499412867327869E-2</v>
       </c>
-      <c r="G6" s="3">
-        <f>-F6/D6</f>
+      <c r="H6" s="3">
+        <f>-G6/D6</f>
         <v>6.3857107320169568E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <v>0.2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
-        <v>9.2035119078912778E-2</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L54" si="2">G6+I6</f>
+        <v>9.3119716678565306E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M54" si="2">H6+J6</f>
         <v>0.26385710732016959</v>
       </c>
-      <c r="M6" s="4">
-        <f t="shared" ref="M6:M54" si="3">J6+H6</f>
-        <v>9.2035119078912778E-2</v>
-      </c>
-      <c r="O6" s="6">
-        <f t="shared" ref="O6:P54" si="4">L6*D6</f>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6:N54" si="3">K6+I6</f>
+        <v>9.3119716678565306E-2</v>
+      </c>
+      <c r="P6" s="6">
+        <f>M6*D6</f>
         <v>7.6439440669009207E-2</v>
       </c>
-      <c r="P6" s="7">
-        <f t="shared" si="4"/>
+      <c r="Q6" s="7">
+        <f t="shared" ref="Q6:Q54" si="4">N6*F6</f>
         <v>5.7940027801681337E-2</v>
       </c>
-      <c r="R6" s="3">
-        <f>D5+P5-O5</f>
+      <c r="S6" s="3">
+        <f>D5+Q5-P5</f>
         <v>0.28970013900840669</v>
       </c>
-      <c r="S6" s="3">
-        <f>D6-R6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="3">
+        <f>D6-S6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <f t="shared" ref="C7:C55" si="5">1+C6</f>
         <v>22</v>
@@ -4091,49 +4265,52 @@
         <v>0.27120072614107882</v>
       </c>
       <c r="E7" s="2">
-        <v>0.64597380705394192</v>
-      </c>
-      <c r="F7" s="3">
+        <v>6.8075726141078835E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.63654630614394192</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>-4.0298163308343904E-2</v>
       </c>
-      <c r="G7" s="3">
-        <f>-F7/D7</f>
+      <c r="H7" s="3">
+        <f>-G7/D7</f>
         <v>0.1485916497413092</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>0.2</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>8.3966477643398402E-2</v>
-      </c>
-      <c r="L7">
+        <v>8.5210054169963981E-2</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="2"/>
         <v>0.34859164974130918</v>
       </c>
-      <c r="M7" s="4">
-        <f t="shared" si="3"/>
-        <v>8.3966477643398402E-2</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" si="4"/>
+      <c r="N7" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5210054169963981E-2</v>
+      </c>
+      <c r="P7" s="6">
+        <f>M7*D7</f>
         <v>9.4538308536559659E-2</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <f t="shared" si="4"/>
         <v>5.4240145228215769E-2</v>
       </c>
-      <c r="R7" s="3">
-        <f>R6+P6-O6</f>
+      <c r="S7" s="3">
+        <f t="shared" ref="S7:S38" si="6">S6+Q6-P6</f>
         <v>0.27120072614107882</v>
       </c>
-      <c r="S7" s="3">
-        <f t="shared" ref="S7:S55" si="6">D7-R7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="3">
+        <f t="shared" ref="T7:T55" si="7">D7-S7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -4142,49 +4319,52 @@
         <v>0.23090256283273491</v>
       </c>
       <c r="E8" s="2">
-        <v>0.68066732697783827</v>
-      </c>
-      <c r="F8" s="3">
+        <v>5.5713755107094222E-4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.6691448258778383</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>-4.7184059776226778E-2</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" ref="G8:G54" si="7">-F8/D8</f>
+      <c r="H8" s="3">
+        <f t="shared" ref="H8:H54" si="8">-G8/D8</f>
         <v>0.20434619346519234</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>0.2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <f t="shared" si="1"/>
-        <v>6.7845936974216731E-2</v>
-      </c>
-      <c r="L8">
+        <v>6.9014226488210012E-2</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="2"/>
         <v>0.40434619346519235</v>
       </c>
-      <c r="M8" s="4">
-        <f t="shared" si="3"/>
-        <v>6.7845936974216731E-2</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="4"/>
+      <c r="N8" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9014226488210012E-2</v>
+      </c>
+      <c r="P8" s="6">
+        <f>M8*D8</f>
         <v>9.3364572342773761E-2</v>
       </c>
-      <c r="P8" s="7">
-        <f t="shared" si="4"/>
-        <v>4.618051256654699E-2</v>
-      </c>
-      <c r="R8" s="3">
-        <f>R7+P7-O7</f>
+      <c r="Q8" s="7">
+        <f t="shared" si="4"/>
+        <v>4.6180512566546983E-2</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="6"/>
         <v>0.23090256283273491</v>
       </c>
-      <c r="S8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -4193,49 +4373,52 @@
         <v>0.18371850305650814</v>
       </c>
       <c r="E9" s="2">
-        <v>0.72610705233338302</v>
-      </c>
-      <c r="F9" s="3">
+        <v>2.6837632324437156E-4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.71281185873338304</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>-3.2876031807511086E-2</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="7"/>
+      <c r="H9" s="3">
+        <f t="shared" si="8"/>
         <v>0.17894785370311381</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>0.2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <f t="shared" si="1"/>
-        <v>5.0603696098562641E-2</v>
-      </c>
-      <c r="L9">
+        <v>5.154754394321192E-2</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="2"/>
         <v>0.37894785370311379</v>
       </c>
-      <c r="M9" s="4">
-        <f t="shared" si="3"/>
-        <v>5.0603696098562641E-2</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="4"/>
+      <c r="N9" s="4">
+        <f t="shared" si="3"/>
+        <v>5.154754394321192E-2</v>
+      </c>
+      <c r="P9" s="6">
+        <f>M9*D9</f>
         <v>6.961973241881271E-2</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="7">
         <f t="shared" si="4"/>
         <v>3.6743700611301632E-2</v>
       </c>
-      <c r="R9" s="3">
-        <f>R8+P8-O8</f>
+      <c r="S9" s="3">
+        <f t="shared" si="6"/>
         <v>0.18371850305650814</v>
       </c>
-      <c r="S9" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -4244,49 +4427,52 @@
         <v>0.15084247124899705</v>
       </c>
       <c r="E10" s="2">
-        <v>0.75079492437074669</v>
-      </c>
-      <c r="F10" s="3">
+        <v>2.9716798906421799E-4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.73584790367074671</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>-2.7004977367450306E-2</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="7"/>
+      <c r="H10" s="3">
+        <f t="shared" si="8"/>
         <v>0.17902767797322108</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <v>0.2</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <f t="shared" si="1"/>
-        <v>4.0182070057391654E-2</v>
-      </c>
-      <c r="L10">
+        <v>4.0998274370702331E-2</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="2"/>
         <v>0.37902767797322112</v>
       </c>
-      <c r="M10" s="4">
-        <f t="shared" si="3"/>
-        <v>4.0182070057391654E-2</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="4"/>
+      <c r="N10" s="4">
+        <f t="shared" si="3"/>
+        <v>4.0998274370702331E-2</v>
+      </c>
+      <c r="P10" s="6">
+        <f>M10*D10</f>
         <v>5.717347161724972E-2</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <f t="shared" si="4"/>
         <v>3.0168494249799411E-2</v>
       </c>
-      <c r="R10" s="3">
-        <f>R9+P9-O9</f>
+      <c r="S10" s="3">
+        <f t="shared" si="6"/>
         <v>0.15084247124899708</v>
       </c>
-      <c r="S10" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -4295,49 +4481,52 @@
         <v>0.12383749388154675</v>
       </c>
       <c r="E11" s="2">
-        <v>0.76870807059975244</v>
-      </c>
-      <c r="F11" s="3">
+        <v>1.7275632720048371E-4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.75243153059975243</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>-2.3982211681836174E-2</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="7"/>
+      <c r="H11" s="3">
+        <f t="shared" si="8"/>
         <v>0.19365872911459014</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <v>0.2</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <f t="shared" si="1"/>
-        <v>3.2219641920743128E-2</v>
-      </c>
-      <c r="L11">
+        <v>3.2916614693921091E-2</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="2"/>
         <v>0.39365872911459016</v>
       </c>
-      <c r="M11" s="4">
-        <f t="shared" si="3"/>
-        <v>3.2219641920743128E-2</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="4"/>
+      <c r="N11" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2916614693921091E-2</v>
+      </c>
+      <c r="P11" s="6">
+        <f>M11*D11</f>
         <v>4.8749710458145523E-2</v>
       </c>
-      <c r="P11" s="7">
-        <f t="shared" si="4"/>
-        <v>2.4767498776309353E-2</v>
-      </c>
-      <c r="R11" s="3">
-        <f>R10+P10-O10</f>
+      <c r="Q11" s="7">
+        <f t="shared" si="4"/>
+        <v>2.4767498776309349E-2</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="6"/>
         <v>0.12383749388154677</v>
       </c>
-      <c r="S11" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -4346,49 +4535,52 @@
         <v>9.9855282199710571E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>0.78955137481910276</v>
-      </c>
-      <c r="F12" s="3">
+        <v>1.1577424023154849E-4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.7704949307191028</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>-1.1263604101859628E-2</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="7"/>
+      <c r="H12" s="3">
+        <f t="shared" si="8"/>
         <v>0.11279928165775366</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="9">
         <v>0.2</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <f t="shared" si="1"/>
-        <v>2.5294182338062247E-2</v>
-      </c>
-      <c r="L12">
+        <v>2.591977655362785E-2</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="2"/>
         <v>0.31279928165775367</v>
       </c>
-      <c r="M12" s="4">
-        <f t="shared" si="3"/>
-        <v>2.5294182338062247E-2</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="4"/>
+      <c r="N12" s="4">
+        <f t="shared" si="3"/>
+        <v>2.591977655362785E-2</v>
+      </c>
+      <c r="P12" s="6">
+        <f>M12*D12</f>
         <v>3.1234660541801743E-2</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <f t="shared" si="4"/>
         <v>1.9971056439942115E-2</v>
       </c>
-      <c r="R12" s="3">
-        <f>R11+P11-O11</f>
+      <c r="S12" s="3">
+        <f t="shared" si="6"/>
         <v>9.9855282199710599E-2</v>
       </c>
-      <c r="S12" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -4397,49 +4589,52 @@
         <v>8.8591678097850943E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>0.79538180155464111</v>
-      </c>
-      <c r="F13" s="3">
+        <v>1.4288980338363056E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.77306199175464108</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>-9.9334436094646178E-3</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" si="7"/>
+      <c r="H13" s="3">
+        <f t="shared" si="8"/>
         <v>0.11212614799431803</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="9">
         <v>0.2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <f t="shared" si="1"/>
-        <v>2.2276516240298937E-2</v>
-      </c>
-      <c r="L13">
+        <v>2.2919682779067137E-2</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="2"/>
         <v>0.31212614799431804</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" si="3"/>
-        <v>2.2276516240298937E-2</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="4"/>
+      <c r="N13" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2919682779067137E-2</v>
+      </c>
+      <c r="P13" s="6">
+        <f>M13*D13</f>
         <v>2.7651779229034806E-2</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="7">
         <f t="shared" si="4"/>
         <v>1.7718335619570189E-2</v>
       </c>
-      <c r="R13" s="3">
-        <f>R12+P12-O12</f>
+      <c r="S13" s="3">
+        <f t="shared" si="6"/>
         <v>8.859167809785097E-2</v>
       </c>
-      <c r="S13" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -4448,49 +4643,52 @@
         <v>7.8658234488386325E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>0.80435986360854494</v>
-      </c>
-      <c r="F14" s="3">
+        <v>1.7486083991490105E-4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.78159688060854493</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>-9.8440937202960849E-3</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="7"/>
+      <c r="H14" s="3">
+        <f t="shared" si="8"/>
         <v>0.1251501992680695</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="9">
         <v>0.2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <f t="shared" si="1"/>
-        <v>1.9557971014492751E-2</v>
-      </c>
-      <c r="L14">
+        <v>2.0127571242900474E-2</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="2"/>
         <v>0.32515019926806954</v>
       </c>
-      <c r="M14" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9557971014492751E-2</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="4"/>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0127571242900474E-2</v>
+      </c>
+      <c r="P14" s="6">
+        <f>M14*D14</f>
         <v>2.5575740617973353E-2</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="7">
         <f t="shared" si="4"/>
         <v>1.5731646897677264E-2</v>
       </c>
-      <c r="R14" s="3">
-        <f>R13+P13-O13</f>
+      <c r="S14" s="3">
+        <f t="shared" si="6"/>
         <v>7.8658234488386353E-2</v>
       </c>
-      <c r="S14" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -4499,50 +4697,53 @@
         <v>6.881414076809024E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>0.81280344216065348</v>
-      </c>
-      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.78963757456065342</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>-6.512941844674533E-3</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="7"/>
+      <c r="H15" s="3">
+        <f t="shared" si="8"/>
         <v>9.464539950623993E-2</v>
       </c>
-      <c r="I15" s="9">
-        <f>$J$1</f>
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="8">
-        <f>I15*D15/E15</f>
-        <v>4.2331354174118326E-2</v>
-      </c>
-      <c r="L15">
+      <c r="J15" s="9">
+        <f>$K$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="8">
+        <f>J15*D15/F15</f>
+        <v>4.357324358986954E-2</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="2"/>
         <v>0.59464539950623996</v>
       </c>
-      <c r="M15" s="4">
-        <f t="shared" si="3"/>
-        <v>4.2331354174118326E-2</v>
-      </c>
-      <c r="O15" s="6">
-        <f t="shared" si="4"/>
+      <c r="N15" s="4">
+        <f t="shared" si="3"/>
+        <v>4.357324358986954E-2</v>
+      </c>
+      <c r="P15" s="6">
+        <f>M15*D15</f>
         <v>4.0920012228719653E-2</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <f t="shared" si="4"/>
         <v>3.440707038404512E-2</v>
       </c>
-      <c r="R15" s="3">
-        <f>R14+P14-O14</f>
+      <c r="S15" s="3">
+        <f t="shared" si="6"/>
         <v>6.8814140768090268E-2</v>
       </c>
-      <c r="S15" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -4551,50 +4752,53 @@
         <v>6.2301198923415707E-2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.81985563983361887</v>
-      </c>
-      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.79580342593361886</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>-3.9962984131345983E-3</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" si="7"/>
+      <c r="H16" s="3">
+        <f t="shared" si="8"/>
         <v>6.4144807518826133E-2</v>
       </c>
-      <c r="I16" s="9">
-        <f t="shared" ref="I16:I54" si="8">$J$1</f>
-        <v>0.5</v>
-      </c>
       <c r="J16" s="9">
-        <f t="shared" ref="J16:J54" si="9">I16*D16/E16</f>
-        <v>3.7995224949638133E-2</v>
-      </c>
-      <c r="L16">
+        <f t="shared" ref="J16:J54" si="9">$K$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" ref="K16:K54" si="10">J16*D16/F16</f>
+        <v>3.9143585521968144E-2</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="2"/>
         <v>0.56414480751882612</v>
       </c>
-      <c r="M16" s="4">
-        <f t="shared" si="3"/>
-        <v>3.7995224949638133E-2</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="4"/>
+      <c r="N16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.9143585521968144E-2</v>
+      </c>
+      <c r="P16" s="6">
+        <f>M16*D16</f>
         <v>3.5146897874842452E-2</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="7">
         <f t="shared" si="4"/>
         <v>3.115059946170785E-2</v>
       </c>
-      <c r="R16" s="3">
-        <f>R15+P15-O15</f>
+      <c r="S16" s="3">
+        <f t="shared" si="6"/>
         <v>6.2301198923415742E-2</v>
       </c>
-      <c r="S16" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -4603,50 +4807,53 @@
         <v>5.8304900510281109E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>0.82396811497931699</v>
-      </c>
-      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.80197061287931704</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>-3.2287064127643622E-3</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="7"/>
+      <c r="H17" s="3">
+        <f t="shared" si="8"/>
         <v>5.5376244269468106E-2</v>
       </c>
-      <c r="I17" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J17" s="9">
         <f t="shared" si="9"/>
-        <v>3.5380556268093374E-2</v>
-      </c>
-      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="10"/>
+        <v>3.6351020582256054E-2</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="2"/>
         <v>0.55537624426946808</v>
       </c>
-      <c r="M17" s="4">
-        <f t="shared" si="3"/>
-        <v>3.5380556268093374E-2</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="4"/>
+      <c r="N17" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6351020582256054E-2</v>
+      </c>
+      <c r="P17" s="6">
+        <f>M17*D17</f>
         <v>3.2381156667904913E-2</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Q17" s="7">
         <f t="shared" si="4"/>
         <v>2.9152450255140554E-2</v>
       </c>
-      <c r="R17" s="3">
-        <f>R16+P16-O16</f>
+      <c r="S17" s="3">
+        <f t="shared" si="6"/>
         <v>5.8304900510281137E-2</v>
       </c>
-      <c r="S17" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -4655,50 +4862,53 @@
         <v>5.5076194097516747E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>0.83158325777296793</v>
-      </c>
-      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.81014979417296795</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>-3.1181700381361505E-3</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" si="7"/>
+      <c r="H18" s="3">
+        <f t="shared" si="8"/>
         <v>5.6615568472563382E-2</v>
       </c>
-      <c r="I18" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J18" s="9">
         <f t="shared" si="9"/>
-        <v>3.3115261510323242E-2</v>
-      </c>
-      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="10"/>
+        <v>3.3991364617786915E-2</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="2"/>
         <v>0.55661556847256333</v>
       </c>
-      <c r="M18" s="4">
-        <f t="shared" si="3"/>
-        <v>3.3115261510323242E-2</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="4"/>
+      <c r="N18" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3991364617786915E-2</v>
+      </c>
+      <c r="P18" s="6">
+        <f>M18*D18</f>
         <v>3.065626708689452E-2</v>
       </c>
-      <c r="P18" s="7">
-        <f t="shared" si="4"/>
-        <v>2.7538097048758377E-2</v>
-      </c>
-      <c r="R18" s="3">
-        <f>R17+P17-O17</f>
+      <c r="Q18" s="7">
+        <f t="shared" si="4"/>
+        <v>2.7538097048758373E-2</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="6"/>
         <v>5.5076194097516774E-2</v>
       </c>
-      <c r="S18" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -4707,50 +4917,53 @@
         <v>5.1958024059380596E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>0.83883627676819383</v>
-      </c>
-      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.82014242876819388</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="0"/>
         <v>-2.3774661039167033E-3</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="7"/>
+      <c r="H19" s="3">
+        <f t="shared" si="8"/>
         <v>4.57574387586333E-2</v>
       </c>
-      <c r="I19" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J19" s="9">
         <f t="shared" si="9"/>
-        <v>3.0970301057770544E-2</v>
-      </c>
-      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="10"/>
+        <v>3.1676220030110211E-2</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="2"/>
         <v>0.54575743875863325</v>
       </c>
-      <c r="M19" s="4">
-        <f t="shared" si="3"/>
-        <v>3.0970301057770544E-2</v>
-      </c>
-      <c r="O19" s="6">
-        <f t="shared" si="4"/>
+      <c r="N19" s="4">
+        <f t="shared" si="3"/>
+        <v>3.1676220030110211E-2</v>
+      </c>
+      <c r="P19" s="6">
+        <f>M19*D19</f>
         <v>2.8356478133606998E-2</v>
       </c>
-      <c r="P19" s="7">
+      <c r="Q19" s="7">
         <f t="shared" si="4"/>
         <v>2.5979012029690298E-2</v>
       </c>
-      <c r="R19" s="3">
-        <f>R18+P18-O18</f>
+      <c r="S19" s="3">
+        <f t="shared" si="6"/>
         <v>5.1958024059380631E-2</v>
       </c>
-      <c r="S19" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -4759,50 +4972,53 @@
         <v>4.9580557955463893E-2</v>
       </c>
       <c r="E20" s="2">
-        <v>0.84679914160697867</v>
-      </c>
-      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.83237587100697863</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="0"/>
         <v>-5.7116812602715575E-3</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="7"/>
+      <c r="H20" s="3">
+        <f t="shared" si="8"/>
         <v>0.11520001984249789</v>
       </c>
-      <c r="I20" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J20" s="9">
         <f t="shared" si="9"/>
-        <v>2.9275276461295414E-2</v>
-      </c>
-      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="10"/>
+        <v>2.9782553580921984E-2</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="2"/>
         <v>0.61520001984249784</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" si="3"/>
-        <v>2.9275276461295414E-2</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="4"/>
+      <c r="N20" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9782553580921984E-2</v>
+      </c>
+      <c r="P20" s="6">
+        <f>M20*D20</f>
         <v>3.05019602380035E-2</v>
       </c>
-      <c r="P20" s="7">
+      <c r="Q20" s="7">
         <f t="shared" si="4"/>
         <v>2.4790278977731946E-2</v>
       </c>
-      <c r="R20" s="3">
-        <f>R19+P19-O19</f>
+      <c r="S20" s="3">
+        <f t="shared" si="6"/>
         <v>4.9580557955463934E-2</v>
       </c>
-      <c r="S20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -4811,50 +5027,53 @@
         <v>4.3868876695192335E-2</v>
       </c>
       <c r="E21" s="2">
-        <v>0.85639553066272422</v>
-      </c>
-      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.84265716396272428</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="0"/>
         <v>-3.3913593162582453E-3</v>
       </c>
-      <c r="G21" s="3">
-        <f t="shared" si="7"/>
+      <c r="H21" s="3">
+        <f t="shared" si="8"/>
         <v>7.7306727952528367E-2</v>
       </c>
-      <c r="I21" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J21" s="9">
         <f t="shared" si="9"/>
-        <v>2.561250912953987E-2</v>
-      </c>
-      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="10"/>
+        <v>2.6030085882669193E-2</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="2"/>
         <v>0.57730672795252835</v>
       </c>
-      <c r="M21" s="4">
-        <f t="shared" si="3"/>
-        <v>2.561250912953987E-2</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" si="4"/>
+      <c r="N21" s="4">
+        <f t="shared" si="3"/>
+        <v>2.6030085882669193E-2</v>
+      </c>
+      <c r="P21" s="6">
+        <f>M21*D21</f>
         <v>2.5325797663854413E-2</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q21" s="7">
         <f t="shared" si="4"/>
         <v>2.1934438347596168E-2</v>
       </c>
-      <c r="R21" s="3">
-        <f>R20+P20-O20</f>
+      <c r="S21" s="3">
+        <f t="shared" si="6"/>
         <v>4.3868876695192377E-2</v>
       </c>
-      <c r="S21" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <f t="shared" si="5"/>
         <v>37</v>
@@ -4863,50 +5082,53 @@
         <v>4.047751737893409E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>0.86293374006394274</v>
-      </c>
-      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.8507263350639428</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
         <v>-2.3802996932732537E-3</v>
       </c>
-      <c r="G22" s="3">
-        <f t="shared" si="7"/>
+      <c r="H22" s="3">
+        <f t="shared" si="8"/>
         <v>5.8805476407800754E-2</v>
       </c>
-      <c r="I22" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J22" s="9">
         <f t="shared" si="9"/>
-        <v>2.3453433038749149E-2</v>
-      </c>
-      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="10"/>
+        <v>2.3789975524791823E-2</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="2"/>
         <v>0.55880547640780076</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="3"/>
-        <v>2.3453433038749149E-2</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="4"/>
+      <c r="N22" s="4">
+        <f t="shared" si="3"/>
+        <v>2.3789975524791823E-2</v>
+      </c>
+      <c r="P22" s="6">
+        <f>M22*D22</f>
         <v>2.2619058382740299E-2</v>
       </c>
-      <c r="P22" s="7">
+      <c r="Q22" s="7">
         <f t="shared" si="4"/>
         <v>2.0238758689467045E-2</v>
       </c>
-      <c r="R22" s="3">
-        <f>R21+P21-O21</f>
+      <c r="S22" s="3">
+        <f t="shared" si="6"/>
         <v>4.0477517378934139E-2</v>
       </c>
-      <c r="S22" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <f t="shared" si="5"/>
         <v>38</v>
@@ -4915,50 +5137,53 @@
         <v>3.8097217685660836E-2</v>
       </c>
       <c r="E23" s="2">
-        <v>0.86821866555809613</v>
-      </c>
-      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.85867029925809613</v>
+      </c>
+      <c r="G23" s="3">
         <f t="shared" si="0"/>
         <v>-4.4960272094703574E-3</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="7"/>
+      <c r="H23" s="3">
+        <f t="shared" si="8"/>
         <v>0.11801458170953485</v>
       </c>
-      <c r="I23" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J23" s="9">
         <f t="shared" si="9"/>
-        <v>2.1939874824720405E-2</v>
-      </c>
-      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="10"/>
+        <v>2.2183845020945406E-2</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="2"/>
         <v>0.61801458170953483</v>
       </c>
-      <c r="M23" s="4">
-        <f t="shared" si="3"/>
-        <v>2.1939874824720405E-2</v>
-      </c>
-      <c r="O23" s="6">
-        <f t="shared" si="4"/>
+      <c r="N23" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2183845020945406E-2</v>
+      </c>
+      <c r="P23" s="6">
+        <f>M23*D23</f>
         <v>2.3544636052300776E-2</v>
       </c>
-      <c r="P23" s="7">
+      <c r="Q23" s="7">
         <f t="shared" si="4"/>
         <v>1.9048608842830418E-2</v>
       </c>
-      <c r="R23" s="3">
-        <f>R22+P22-O22</f>
+      <c r="S23" s="3">
+        <f t="shared" si="6"/>
         <v>3.8097217685660892E-2</v>
       </c>
-      <c r="S23" s="3">
-        <f t="shared" si="6"/>
+      <c r="T23" s="3">
+        <f t="shared" si="7"/>
         <v>-5.5511151231257827E-17</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <f t="shared" si="5"/>
         <v>39</v>
@@ -4967,50 +5192,53 @@
         <v>3.3601190476190479E-2</v>
       </c>
       <c r="E24" s="2">
-        <v>0.87755952380952384</v>
-      </c>
-      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.8706701962195238</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="0"/>
         <v>-2.8425368024892761E-3</v>
       </c>
-      <c r="G24" s="3">
-        <f t="shared" si="7"/>
+      <c r="H24" s="3">
+        <f t="shared" si="8"/>
         <v>8.4596312279574551E-2</v>
       </c>
-      <c r="I24" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J24" s="9">
         <f t="shared" si="9"/>
-        <v>1.9144678830631486E-2</v>
-      </c>
-      <c r="L24">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="10"/>
+        <v>1.9296164392721755E-2</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="2"/>
         <v>0.58459631227957454</v>
       </c>
-      <c r="M24" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9144678830631486E-2</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" si="4"/>
+      <c r="N24" s="4">
+        <f t="shared" si="3"/>
+        <v>1.9296164392721755E-2</v>
+      </c>
+      <c r="P24" s="6">
+        <f>M24*D24</f>
         <v>1.9643132040584516E-2</v>
       </c>
-      <c r="P24" s="7">
+      <c r="Q24" s="7">
         <f t="shared" si="4"/>
         <v>1.6800595238095239E-2</v>
       </c>
-      <c r="R24" s="3">
-        <f>R23+P23-O23</f>
+      <c r="S24" s="3">
+        <f t="shared" si="6"/>
         <v>3.3601190476190534E-2</v>
       </c>
-      <c r="S24" s="3">
-        <f t="shared" si="6"/>
+      <c r="T24" s="3">
+        <f t="shared" si="7"/>
         <v>-5.5511151231257827E-17</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -5019,50 +5247,53 @@
         <v>3.0758653673701203E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>0.88261493393914037</v>
-      </c>
-      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.87657166412914034</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="0"/>
         <v>-1.3096818870517966E-3</v>
       </c>
-      <c r="G25" s="3">
-        <f t="shared" si="7"/>
+      <c r="H25" s="3">
+        <f t="shared" si="8"/>
         <v>4.2579298201584841E-2</v>
       </c>
-      <c r="I25" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J25" s="9">
         <f t="shared" si="9"/>
-        <v>1.7424729908219597E-2</v>
-      </c>
-      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="10"/>
+        <v>1.7544859668866562E-2</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="2"/>
         <v>0.54257929820158479</v>
       </c>
-      <c r="M25" s="4">
-        <f t="shared" si="3"/>
-        <v>1.7424729908219597E-2</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" si="4"/>
+      <c r="N25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7544859668866562E-2</v>
+      </c>
+      <c r="P25" s="6">
+        <f>M25*D25</f>
         <v>1.6689008723902398E-2</v>
       </c>
-      <c r="P25" s="7">
-        <f t="shared" si="4"/>
-        <v>1.5379326836850603E-2</v>
-      </c>
-      <c r="R25" s="3">
-        <f>R24+P24-O24</f>
+      <c r="Q25" s="7">
+        <f t="shared" si="4"/>
+        <v>1.5379326836850601E-2</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="6"/>
         <v>3.0758653673701258E-2</v>
       </c>
-      <c r="S25" s="3">
-        <f t="shared" si="6"/>
+      <c r="T25" s="3">
+        <f t="shared" si="7"/>
         <v>-5.5511151231257827E-17</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <f t="shared" si="5"/>
         <v>41</v>
@@ -5071,50 +5302,53 @@
         <v>2.9448971786649406E-2</v>
       </c>
       <c r="E26" s="2">
-        <v>0.89120649583713341</v>
-      </c>
-      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.88721793775713342</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="0"/>
         <v>-2.4076300182221573E-3</v>
       </c>
-      <c r="G26" s="3">
-        <f t="shared" si="7"/>
+      <c r="H26" s="3">
+        <f t="shared" si="8"/>
         <v>8.1755995953435912E-2</v>
       </c>
-      <c r="I26" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J26" s="9">
         <f t="shared" si="9"/>
-        <v>1.6521968771663419E-2</v>
-      </c>
-      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6596244582867504E-2</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="2"/>
         <v>0.58175599595343597</v>
       </c>
-      <c r="M26" s="4">
-        <f t="shared" si="3"/>
-        <v>1.6521968771663419E-2</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="4"/>
+      <c r="N26" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6596244582867504E-2</v>
+      </c>
+      <c r="P26" s="6">
+        <f>M26*D26</f>
         <v>1.7132115911546862E-2</v>
       </c>
-      <c r="P26" s="7">
+      <c r="Q26" s="7">
         <f t="shared" si="4"/>
         <v>1.4724485893324703E-2</v>
       </c>
-      <c r="R26" s="3">
-        <f>R25+P25-O25</f>
+      <c r="S26" s="3">
+        <f t="shared" si="6"/>
         <v>2.9448971786649462E-2</v>
       </c>
-      <c r="S26" s="3">
-        <f t="shared" si="6"/>
+      <c r="T26" s="3">
+        <f t="shared" si="7"/>
         <v>-5.5511151231257827E-17</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <f t="shared" si="5"/>
         <v>42</v>
@@ -5123,50 +5357,53 @@
         <v>2.7041341768427249E-2</v>
       </c>
       <c r="E27" s="2">
-        <v>0.89660144181256429</v>
-      </c>
-      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.89426471082256431</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="0"/>
         <v>-3.0437535863349977E-3</v>
       </c>
-      <c r="G27" s="3">
-        <f t="shared" si="7"/>
+      <c r="H27" s="3">
+        <f t="shared" si="8"/>
         <v>0.11255926619324798</v>
       </c>
-      <c r="I27" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J27" s="9">
         <f t="shared" si="9"/>
-        <v>1.5079912047520596E-2</v>
-      </c>
-      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5119316149439704E-2</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="2"/>
         <v>0.61255926619324796</v>
       </c>
-      <c r="M27" s="4">
-        <f t="shared" si="3"/>
-        <v>1.5079912047520596E-2</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="4"/>
+      <c r="N27" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5119316149439704E-2</v>
+      </c>
+      <c r="P27" s="6">
+        <f>M27*D27</f>
         <v>1.6564424470548622E-2</v>
       </c>
-      <c r="P27" s="7">
+      <c r="Q27" s="7">
         <f t="shared" si="4"/>
         <v>1.3520670884213624E-2</v>
       </c>
-      <c r="R27" s="3">
-        <f>R26+P26-O26</f>
+      <c r="S27" s="3">
+        <f t="shared" si="6"/>
         <v>2.7041341768427304E-2</v>
       </c>
-      <c r="S27" s="3">
-        <f t="shared" si="6"/>
+      <c r="T27" s="3">
+        <f t="shared" si="7"/>
         <v>-5.5511151231257827E-17</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <f t="shared" si="5"/>
         <v>43</v>
@@ -5175,50 +5412,53 @@
         <v>2.3997588182092251E-2</v>
       </c>
       <c r="E28" s="2">
-        <v>0.89837202291227003</v>
-      </c>
-      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.89663961890227006</v>
+      </c>
+      <c r="G28" s="3">
         <f t="shared" si="0"/>
         <v>-1.432267517009117E-3</v>
       </c>
-      <c r="G28" s="3">
-        <f t="shared" si="7"/>
+      <c r="H28" s="3">
+        <f t="shared" si="8"/>
         <v>5.9683810978884942E-2</v>
       </c>
-      <c r="I28" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J28" s="9">
         <f t="shared" si="9"/>
-        <v>1.3356152891036612E-2</v>
-      </c>
-      <c r="L28">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="10"/>
+        <v>1.3381958412384121E-2</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="2"/>
         <v>0.55968381097888498</v>
       </c>
-      <c r="M28" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3356152891036612E-2</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" si="4"/>
+      <c r="N28" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3381958412384121E-2</v>
+      </c>
+      <c r="P28" s="6">
+        <f>M28*D28</f>
         <v>1.3431061608055243E-2</v>
       </c>
-      <c r="P28" s="7">
+      <c r="Q28" s="7">
         <f t="shared" si="4"/>
         <v>1.1998794091046126E-2</v>
       </c>
-      <c r="R28" s="3">
-        <f>R27+P27-O27</f>
+      <c r="S28" s="3">
+        <f t="shared" si="6"/>
         <v>2.3997588182092307E-2</v>
       </c>
-      <c r="S28" s="3">
-        <f t="shared" si="6"/>
+      <c r="T28" s="3">
+        <f t="shared" si="7"/>
         <v>-5.5511151231257827E-17</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <f t="shared" si="5"/>
         <v>44</v>
@@ -5227,50 +5467,53 @@
         <v>2.2565320665083134E-2</v>
       </c>
       <c r="E29" s="2">
-        <v>0.90039379922490315</v>
-      </c>
-      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.89918514526490312</v>
+      </c>
+      <c r="G29" s="3">
         <f t="shared" si="0"/>
         <v>-1.7384740987451304E-3</v>
       </c>
-      <c r="G29" s="3">
-        <f t="shared" si="7"/>
+      <c r="H29" s="3">
+        <f t="shared" si="8"/>
         <v>7.7041852165442098E-2</v>
       </c>
-      <c r="I29" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J29" s="9">
         <f t="shared" si="9"/>
-        <v>1.2530806345239334E-2</v>
-      </c>
-      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="10"/>
+        <v>1.2547649827130603E-2</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="2"/>
         <v>0.57704185216544213</v>
       </c>
-      <c r="M29" s="4">
-        <f t="shared" si="3"/>
-        <v>1.2530806345239334E-2</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="4"/>
+      <c r="N29" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2547649827130603E-2</v>
+      </c>
+      <c r="P29" s="6">
+        <f>M29*D29</f>
         <v>1.3021134431286698E-2</v>
       </c>
-      <c r="P29" s="7">
+      <c r="Q29" s="7">
         <f t="shared" si="4"/>
         <v>1.1282660332541567E-2</v>
       </c>
-      <c r="R29" s="3">
-        <f>R28+P28-O28</f>
+      <c r="S29" s="3">
+        <f t="shared" si="6"/>
         <v>2.2565320665083193E-2</v>
       </c>
-      <c r="S29" s="3">
-        <f t="shared" si="6"/>
+      <c r="T29" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -5279,50 +5522,53 @@
         <v>2.0826846566338004E-2</v>
       </c>
       <c r="E30" s="2">
-        <v>0.89967133713890335</v>
-      </c>
-      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.8991475870889033</v>
+      </c>
+      <c r="G30" s="3">
         <f t="shared" si="0"/>
         <v>-2.1345621487468824E-4</v>
       </c>
-      <c r="G30" s="3">
-        <f t="shared" si="7"/>
+      <c r="H30" s="3">
+        <f t="shared" si="8"/>
         <v>1.0249089519855255E-2</v>
       </c>
-      <c r="I30" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J30" s="9">
         <f t="shared" si="9"/>
-        <v>1.1574697173620457E-2</v>
-      </c>
-      <c r="L30">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="10"/>
+        <v>1.1581439390705248E-2</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="2"/>
         <v>0.51024908951985526</v>
       </c>
-      <c r="M30" s="4">
-        <f t="shared" si="3"/>
-        <v>1.1574697173620457E-2</v>
-      </c>
-      <c r="O30" s="6">
-        <f t="shared" si="4"/>
+      <c r="N30" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1581439390705248E-2</v>
+      </c>
+      <c r="P30" s="6">
+        <f>M30*D30</f>
         <v>1.062687949804369E-2</v>
       </c>
-      <c r="P30" s="7">
+      <c r="Q30" s="7">
         <f t="shared" si="4"/>
         <v>1.0413423283169002E-2</v>
       </c>
-      <c r="R30" s="3">
-        <f>R29+P29-O29</f>
+      <c r="S30" s="3">
+        <f t="shared" si="6"/>
         <v>2.0826846566338063E-2</v>
       </c>
-      <c r="S30" s="3">
-        <f t="shared" si="6"/>
+      <c r="T30" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <f t="shared" si="5"/>
         <v>46</v>
@@ -5331,50 +5577,53 @@
         <v>2.0613390351463316E-2</v>
       </c>
       <c r="E31" s="2">
-        <v>0.8994721368435119</v>
-      </c>
-      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.89931098298151191</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="0"/>
         <v>-2.1085080079384227E-3</v>
       </c>
-      <c r="G31" s="3">
-        <f t="shared" si="7"/>
+      <c r="H31" s="3">
+        <f t="shared" si="8"/>
         <v>0.10228826854718456</v>
       </c>
-      <c r="I31" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J31" s="9">
         <f t="shared" si="9"/>
-        <v>1.1458604167440479E-2</v>
-      </c>
-      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="10"/>
+        <v>1.1460657515336431E-2</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="2"/>
         <v>0.60228826854718454</v>
       </c>
-      <c r="M31" s="4">
-        <f t="shared" si="3"/>
-        <v>1.1458604167440479E-2</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" si="4"/>
+      <c r="N31" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1460657515336431E-2</v>
+      </c>
+      <c r="P31" s="6">
+        <f>M31*D31</f>
         <v>1.2415203183670081E-2</v>
       </c>
-      <c r="P31" s="7">
+      <c r="Q31" s="7">
         <f t="shared" si="4"/>
         <v>1.0306695175731658E-2</v>
       </c>
-      <c r="R31" s="3">
-        <f>R30+P30-O30</f>
+      <c r="S31" s="3">
+        <f t="shared" si="6"/>
         <v>2.0613390351463375E-2</v>
       </c>
-      <c r="S31" s="3">
-        <f t="shared" si="6"/>
+      <c r="T31" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <f t="shared" si="5"/>
         <v>47</v>
@@ -5383,50 +5632,53 @@
         <v>1.8504882343524893E-2</v>
       </c>
       <c r="E32" s="2">
-        <v>0.90212902193052669</v>
-      </c>
-      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.90208873346512664</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="0"/>
         <v>-1.7482262273454119E-3</v>
       </c>
-      <c r="G32" s="3">
-        <f t="shared" si="7"/>
+      <c r="H32" s="3">
+        <f t="shared" si="8"/>
         <v>9.4473782372204038E-2</v>
       </c>
-      <c r="I32" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J32" s="9">
         <f t="shared" si="9"/>
-        <v>1.0256228263184045E-2</v>
-      </c>
-      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="10"/>
+        <v>1.0256686319783343E-2</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="2"/>
         <v>0.59447378237220405</v>
       </c>
-      <c r="M32" s="4">
-        <f t="shared" si="3"/>
-        <v>1.0256228263184045E-2</v>
-      </c>
-      <c r="O32" s="6">
-        <f t="shared" si="4"/>
+      <c r="N32" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0256686319783343E-2</v>
+      </c>
+      <c r="P32" s="6">
+        <f>M32*D32</f>
         <v>1.1000667399107858E-2</v>
       </c>
-      <c r="P32" s="7">
+      <c r="Q32" s="7">
         <f t="shared" si="4"/>
         <v>9.2524411717624464E-3</v>
       </c>
-      <c r="R32" s="3">
-        <f>R31+P31-O31</f>
+      <c r="S32" s="3">
+        <f t="shared" si="6"/>
         <v>1.8504882343524952E-2</v>
       </c>
-      <c r="S32" s="3">
-        <f t="shared" si="6"/>
+      <c r="T32" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
         <f t="shared" si="5"/>
         <v>48</v>
@@ -5435,50 +5687,53 @@
         <v>1.6756656116179481E-2</v>
       </c>
       <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
         <v>0.9007012970893068</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <f t="shared" si="0"/>
         <v>-4.9102490573523297E-4</v>
       </c>
-      <c r="G33" s="3">
-        <f t="shared" si="7"/>
+      <c r="H33" s="3">
+        <f t="shared" si="8"/>
         <v>2.9303275207821517E-2</v>
       </c>
-      <c r="I33" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J33" s="9">
         <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="10"/>
         <v>9.3020050988768671E-3</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <f t="shared" si="2"/>
         <v>0.5293032752078215</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <f t="shared" si="3"/>
         <v>9.3020050988768671E-3</v>
       </c>
-      <c r="O33" s="6">
-        <f t="shared" si="4"/>
+      <c r="P33" s="6">
+        <f>M33*D33</f>
         <v>8.8693529638249734E-3</v>
       </c>
-      <c r="P33" s="7">
+      <c r="Q33" s="7">
         <f t="shared" si="4"/>
         <v>8.3783280580897405E-3</v>
       </c>
-      <c r="R33" s="3">
-        <f>R32+P32-O32</f>
+      <c r="S33" s="3">
+        <f t="shared" si="6"/>
         <v>1.675665611617954E-2</v>
       </c>
-      <c r="S33" s="3">
-        <f t="shared" si="6"/>
+      <c r="T33" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
         <f t="shared" si="5"/>
         <v>49</v>
@@ -5487,50 +5742,53 @@
         <v>1.6265631210444248E-2</v>
       </c>
       <c r="E34" s="2">
-        <v>0.89815635796618465</v>
-      </c>
-      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.89807578103538466</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="0"/>
         <v>-1.1884029264708877E-3</v>
       </c>
-      <c r="G34" s="3">
-        <f t="shared" si="7"/>
+      <c r="H34" s="3">
+        <f t="shared" si="8"/>
         <v>7.306220773699873E-2</v>
       </c>
-      <c r="I34" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J34" s="9">
         <f t="shared" si="9"/>
-        <v>9.0550108932461876E-3</v>
-      </c>
-      <c r="L34">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="10"/>
+        <v>9.055823324670734E-3</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="2"/>
         <v>0.57306220773699867</v>
       </c>
-      <c r="M34" s="4">
-        <f t="shared" si="3"/>
-        <v>9.0550108932461876E-3</v>
-      </c>
-      <c r="O34" s="6">
-        <f t="shared" si="4"/>
+      <c r="N34" s="4">
+        <f t="shared" si="3"/>
+        <v>9.055823324670734E-3</v>
+      </c>
+      <c r="P34" s="6">
+        <f>M34*D34</f>
         <v>9.32121853169301E-3</v>
       </c>
-      <c r="P34" s="7">
+      <c r="Q34" s="7">
         <f t="shared" si="4"/>
         <v>8.132815605222124E-3</v>
       </c>
-      <c r="R34" s="3">
-        <f>R33+P33-O33</f>
+      <c r="S34" s="3">
+        <f t="shared" si="6"/>
         <v>1.6265631210444303E-2</v>
       </c>
-      <c r="S34" s="3">
-        <f t="shared" si="6"/>
+      <c r="T34" s="3">
+        <f t="shared" si="7"/>
         <v>-5.5511151231257827E-17</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
         <f t="shared" si="5"/>
         <v>50</v>
@@ -5539,50 +5797,53 @@
         <v>1.507722828397336E-2</v>
       </c>
       <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
         <v>0.89783193991781207</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <f t="shared" si="0"/>
         <v>-3.1556335627446041E-3</v>
       </c>
-      <c r="G35" s="3">
-        <f t="shared" si="7"/>
+      <c r="H35" s="3">
+        <f t="shared" si="8"/>
         <v>0.20929798921323939</v>
       </c>
-      <c r="I35" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J35" s="9">
         <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="9">
+        <f t="shared" si="10"/>
         <v>8.3964646464646468E-3</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <f t="shared" si="2"/>
         <v>0.70929798921323939</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <f t="shared" si="3"/>
         <v>8.3964646464646468E-3</v>
       </c>
-      <c r="O35" s="6">
-        <f t="shared" si="4"/>
+      <c r="P35" s="6">
+        <f>M35*D35</f>
         <v>1.0694247704731284E-2</v>
       </c>
-      <c r="P35" s="7">
+      <c r="Q35" s="7">
         <f t="shared" si="4"/>
         <v>7.5386141419866801E-3</v>
       </c>
-      <c r="R35" s="3">
-        <f>R34+P34-O34</f>
+      <c r="S35" s="3">
+        <f t="shared" si="6"/>
         <v>1.5077228283973418E-2</v>
       </c>
-      <c r="S35" s="3">
-        <f t="shared" si="6"/>
+      <c r="T35" s="3">
+        <f t="shared" si="7"/>
         <v>-5.7245874707234634E-17</v>
       </c>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>51</v>
@@ -5591,50 +5852,53 @@
         <v>1.1921594721228756E-2</v>
       </c>
       <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
         <v>0.89741883611965945</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <f t="shared" si="0"/>
         <v>-7.1163520928890951E-4</v>
       </c>
-      <c r="G36" s="3">
-        <f t="shared" si="7"/>
+      <c r="H36" s="3">
+        <f t="shared" si="8"/>
         <v>5.9692954334515526E-2</v>
       </c>
-      <c r="I36" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J36" s="9">
         <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="10"/>
         <v>6.6421576199450095E-3</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f t="shared" si="2"/>
         <v>0.55969295433451549</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <f t="shared" si="3"/>
         <v>6.6421576199450095E-3</v>
       </c>
-      <c r="O36" s="6">
-        <f t="shared" si="4"/>
+      <c r="P36" s="6">
+        <f>M36*D36</f>
         <v>6.6724325699032876E-3</v>
       </c>
-      <c r="P36" s="7">
+      <c r="Q36" s="7">
         <f t="shared" si="4"/>
         <v>5.9607973606143781E-3</v>
       </c>
-      <c r="R36" s="3">
-        <f>R35+P35-O35</f>
+      <c r="S36" s="3">
+        <f t="shared" si="6"/>
         <v>1.1921594721228813E-2</v>
       </c>
-      <c r="S36" s="3">
-        <f t="shared" si="6"/>
+      <c r="T36" s="3">
+        <f t="shared" si="7"/>
         <v>-5.7245874707234634E-17</v>
       </c>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
         <f t="shared" si="5"/>
         <v>52</v>
@@ -5643,50 +5907,53 @@
         <v>1.1209959511939847E-2</v>
       </c>
       <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
         <v>0.89360178477979457</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" ref="F37:F54" si="10">D38-D37</f>
+      <c r="G37" s="3">
+        <f t="shared" ref="G37:G54" si="11">D38-D37</f>
         <v>4.1225235942621979E-6</v>
       </c>
-      <c r="G37" s="3">
-        <f t="shared" si="7"/>
+      <c r="H37" s="3">
+        <f t="shared" si="8"/>
         <v>-3.6775544013974842E-4</v>
       </c>
-      <c r="I37" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
       <c r="J37" s="9">
         <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="10"/>
         <v>6.2723461965232402E-3</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <f t="shared" si="2"/>
         <v>0.49963224455986027</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <f t="shared" si="3"/>
         <v>6.2723461965232402E-3</v>
       </c>
-      <c r="O37" s="6">
-        <f t="shared" si="4"/>
+      <c r="P37" s="6">
+        <f>M37*D37</f>
         <v>5.6008572323756611E-3</v>
       </c>
-      <c r="P37" s="7">
+      <c r="Q37" s="7">
         <f t="shared" si="4"/>
         <v>5.6049797559699233E-3</v>
       </c>
-      <c r="R37" s="3">
-        <f>R36+P36-O36</f>
+      <c r="S37" s="3">
+        <f t="shared" si="6"/>
         <v>1.1209959511939906E-2</v>
       </c>
-      <c r="S37" s="3">
-        <f t="shared" si="6"/>
+      <c r="T37" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
         <f t="shared" si="5"/>
         <v>53</v>
@@ -5695,50 +5962,53 @@
         <v>1.1214082035534109E-2</v>
       </c>
       <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
         <v>0.89142355779776261</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
+        <f t="shared" si="11"/>
+        <v>-6.7897399005261913E-4</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="8"/>
+        <v>6.0546551015156783E-2</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="9">
         <f t="shared" si="10"/>
-        <v>-6.7897399005261913E-4</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="7"/>
-        <v>6.0546551015156783E-2</v>
-      </c>
-      <c r="I38" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J38" s="9">
-        <f t="shared" si="9"/>
         <v>6.2899852362204734E-3</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <f t="shared" si="2"/>
         <v>0.56054655101515682</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <f t="shared" si="3"/>
         <v>6.2899852362204734E-3</v>
       </c>
-      <c r="O38" s="6">
-        <f t="shared" si="4"/>
+      <c r="P38" s="6">
+        <f>M38*D38</f>
         <v>6.2860150078196744E-3</v>
       </c>
-      <c r="P38" s="7">
+      <c r="Q38" s="7">
         <f t="shared" si="4"/>
         <v>5.6070410177670544E-3</v>
       </c>
-      <c r="R38" s="3">
-        <f>R37+P37-O37</f>
+      <c r="S38" s="3">
+        <f t="shared" si="6"/>
         <v>1.1214082035534166E-2</v>
       </c>
-      <c r="S38" s="3">
-        <f t="shared" si="6"/>
+      <c r="T38" s="3">
+        <f t="shared" si="7"/>
         <v>-5.7245874707234634E-17</v>
       </c>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
@@ -5747,50 +6017,53 @@
         <v>1.053510804548149E-2</v>
       </c>
       <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
         <v>0.88613461227569112</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
+        <f t="shared" si="11"/>
+        <v>-1.6310532348925953E-3</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="8"/>
+        <v>0.15482074107366697</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="9">
         <f t="shared" si="10"/>
-        <v>-1.6310532348925953E-3</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="7"/>
-        <v>0.15482074107366697</v>
-      </c>
-      <c r="I39" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J39" s="9">
-        <f t="shared" si="9"/>
         <v>5.9444174166869371E-3</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <f t="shared" si="2"/>
         <v>0.65482074107366695</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <f t="shared" si="3"/>
         <v>5.9444174166869371E-3</v>
       </c>
-      <c r="O39" s="6">
-        <f t="shared" si="4"/>
+      <c r="P39" s="6">
+        <f>M39*D39</f>
         <v>6.8986072576333402E-3</v>
       </c>
-      <c r="P39" s="7">
+      <c r="Q39" s="7">
         <f t="shared" si="4"/>
         <v>5.2675540227407449E-3</v>
       </c>
-      <c r="R39" s="3">
-        <f>R38+P38-O38</f>
+      <c r="S39" s="3">
+        <f t="shared" ref="S39:S55" si="12">S38+Q38-P38</f>
         <v>1.0535108045481547E-2</v>
       </c>
-      <c r="S39" s="3">
-        <f t="shared" si="6"/>
+      <c r="T39" s="3">
+        <f t="shared" si="7"/>
         <v>-5.7245874707234634E-17</v>
       </c>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
         <f t="shared" si="5"/>
         <v>55</v>
@@ -5799,50 +6072,53 @@
         <v>8.9040548105888944E-3</v>
       </c>
       <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
         <v>0.88374076937431689</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
+        <f t="shared" si="11"/>
+        <v>-4.2306950376089052E-4</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="8"/>
+        <v>4.7514251962798695E-2</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="9">
         <f t="shared" si="10"/>
-        <v>-4.2306950376089052E-4</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="7"/>
-        <v>4.7514251962798695E-2</v>
-      </c>
-      <c r="I40" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J40" s="9">
-        <f t="shared" si="9"/>
         <v>5.0377073906485671E-3</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <f t="shared" si="2"/>
         <v>0.54751425196279868</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <f t="shared" si="3"/>
         <v>5.0377073906485671E-3</v>
       </c>
-      <c r="O40" s="6">
-        <f t="shared" si="4"/>
+      <c r="P40" s="6">
+        <f>M40*D40</f>
         <v>4.8750969090553377E-3</v>
       </c>
-      <c r="P40" s="7">
+      <c r="Q40" s="7">
         <f t="shared" si="4"/>
         <v>4.4520274052944472E-3</v>
       </c>
-      <c r="R40" s="3">
-        <f>R39+P39-O39</f>
+      <c r="S40" s="3">
+        <f t="shared" si="12"/>
         <v>8.9040548105889517E-3</v>
       </c>
-      <c r="S40" s="3">
-        <f t="shared" si="6"/>
+      <c r="T40" s="3">
+        <f t="shared" si="7"/>
         <v>-5.7245874707234634E-17</v>
       </c>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
         <f t="shared" si="5"/>
         <v>56</v>
@@ -5851,50 +6127,53 @@
         <v>8.4809853068280039E-3</v>
       </c>
       <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
         <v>0.87216400172860853</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <f t="shared" si="11"/>
+        <v>-1.9363764959455633E-3</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="8"/>
+        <v>0.22831975600601442</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="9">
         <f t="shared" si="10"/>
-        <v>-1.9363764959455633E-3</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="7"/>
-        <v>0.22831975600601442</v>
-      </c>
-      <c r="I41" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" si="9"/>
         <v>4.8620358613855252E-3</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <f t="shared" si="2"/>
         <v>0.7283197560060144</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <f t="shared" si="3"/>
         <v>4.8620358613855252E-3</v>
       </c>
-      <c r="O41" s="6">
-        <f t="shared" si="4"/>
+      <c r="P41" s="6">
+        <f>M41*D41</f>
         <v>6.1768691493595653E-3</v>
       </c>
-      <c r="P41" s="7">
+      <c r="Q41" s="7">
         <f t="shared" si="4"/>
         <v>4.2404926534140019E-3</v>
       </c>
-      <c r="R41" s="3">
-        <f>R40+P40-O40</f>
+      <c r="S41" s="3">
+        <f t="shared" si="12"/>
         <v>8.4809853068280629E-3</v>
       </c>
-      <c r="S41" s="3">
-        <f t="shared" si="6"/>
+      <c r="T41" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
         <f t="shared" si="5"/>
         <v>57</v>
@@ -5903,50 +6182,53 @@
         <v>6.5446088108824406E-3</v>
       </c>
       <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
         <v>0.86683614138518539</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
+        <f t="shared" si="11"/>
+        <v>-1.1024687773090397E-3</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="8"/>
+        <v>0.16845449577915853</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="9">
         <f t="shared" si="10"/>
-        <v>-1.1024687773090397E-3</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="7"/>
-        <v>0.16845449577915853</v>
-      </c>
-      <c r="I42" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J42" s="9">
-        <f t="shared" si="9"/>
         <v>3.7749976601254174E-3</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <f t="shared" si="2"/>
         <v>0.6684544957791585</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N42" s="4">
         <f t="shared" si="3"/>
         <v>3.7749976601254174E-3</v>
       </c>
-      <c r="O42" s="6">
-        <f t="shared" si="4"/>
+      <c r="P42" s="6">
+        <f>M42*D42</f>
         <v>4.3747731827502596E-3</v>
       </c>
-      <c r="P42" s="7">
+      <c r="Q42" s="7">
         <f t="shared" si="4"/>
         <v>3.2723044054412203E-3</v>
       </c>
-      <c r="R42" s="3">
-        <f>R41+P41-O41</f>
+      <c r="S42" s="3">
+        <f t="shared" si="12"/>
         <v>6.5446088108824995E-3</v>
       </c>
-      <c r="S42" s="3">
-        <f t="shared" si="6"/>
+      <c r="T42" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
         <f t="shared" si="5"/>
         <v>58</v>
@@ -5955,50 +6237,53 @@
         <v>5.4421400335734008E-3</v>
       </c>
       <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
         <v>0.85541777224237836</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <f t="shared" si="11"/>
+        <v>-7.4666352460558711E-4</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="8"/>
+        <v>0.13720035133225253</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="9">
         <f t="shared" si="10"/>
-        <v>-7.4666352460558711E-4</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="7"/>
-        <v>0.13720035133225253</v>
-      </c>
-      <c r="I43" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J43" s="9">
-        <f t="shared" si="9"/>
         <v>3.180983731088181E-3</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <f t="shared" si="2"/>
         <v>0.6372003513322525</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <f t="shared" si="3"/>
         <v>3.180983731088181E-3</v>
       </c>
-      <c r="O43" s="6">
-        <f t="shared" si="4"/>
+      <c r="P43" s="6">
+        <f>M43*D43</f>
         <v>3.4677335413922875E-3</v>
       </c>
-      <c r="P43" s="7">
+      <c r="Q43" s="7">
         <f t="shared" si="4"/>
         <v>2.7210700167867004E-3</v>
       </c>
-      <c r="R43" s="3">
-        <f>R42+P42-O42</f>
+      <c r="S43" s="3">
+        <f t="shared" si="12"/>
         <v>5.4421400335734598E-3</v>
       </c>
-      <c r="S43" s="3">
-        <f t="shared" si="6"/>
+      <c r="T43" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -6007,50 +6292,53 @@
         <v>4.6954765089678137E-3</v>
       </c>
       <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
         <v>0.84103628074581638</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <f t="shared" si="11"/>
+        <v>-1.5631571817109917E-3</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="8"/>
+        <v>0.33290703908869385</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="9">
         <f t="shared" si="10"/>
-        <v>-1.5631571817109917E-3</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="7"/>
-        <v>0.33290703908869385</v>
-      </c>
-      <c r="I44" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J44" s="9">
-        <f t="shared" si="9"/>
         <v>2.7914827317579846E-3</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <f t="shared" si="2"/>
         <v>0.8329070390886939</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <f t="shared" si="3"/>
         <v>2.7914827317579846E-3</v>
       </c>
-      <c r="O44" s="6">
-        <f t="shared" si="4"/>
+      <c r="P44" s="6">
+        <f>M44*D44</f>
         <v>3.9108954361948989E-3</v>
       </c>
-      <c r="P44" s="7">
+      <c r="Q44" s="7">
         <f t="shared" si="4"/>
         <v>2.3477382544839069E-3</v>
       </c>
-      <c r="R44" s="3">
-        <f>R43+P43-O43</f>
+      <c r="S44" s="3">
+        <f t="shared" si="12"/>
         <v>4.6954765089678736E-3</v>
       </c>
-      <c r="S44" s="3">
-        <f t="shared" si="6"/>
+      <c r="T44" s="3">
+        <f t="shared" si="7"/>
         <v>-5.9847959921199845E-17</v>
       </c>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -6059,50 +6347,53 @@
         <v>3.1323193272568221E-3</v>
       </c>
       <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
         <v>0.81132714394559358</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <f t="shared" si="11"/>
+        <v>-8.2673438679516272E-4</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="8"/>
+        <v>0.26393681499874039</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="9">
         <f t="shared" si="10"/>
-        <v>-8.2673438679516272E-4</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="7"/>
-        <v>0.26393681499874039</v>
-      </c>
-      <c r="I45" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J45" s="9">
-        <f t="shared" si="9"/>
         <v>1.9303676393864562E-3</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <f t="shared" si="2"/>
         <v>0.76393681499874044</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <f t="shared" si="3"/>
         <v>1.9303676393864562E-3</v>
       </c>
-      <c r="O45" s="6">
-        <f t="shared" si="4"/>
+      <c r="P45" s="6">
+        <f>M45*D45</f>
         <v>2.3928940504235742E-3</v>
       </c>
-      <c r="P45" s="7">
+      <c r="Q45" s="7">
         <f t="shared" si="4"/>
         <v>1.566159663628411E-3</v>
       </c>
-      <c r="R45" s="3">
-        <f>R44+P44-O44</f>
+      <c r="S45" s="3">
+        <f t="shared" si="12"/>
         <v>3.132319327256881E-3</v>
       </c>
-      <c r="S45" s="3">
-        <f t="shared" si="6"/>
+      <c r="T45" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
         <f t="shared" si="5"/>
         <v>61</v>
@@ -6111,50 +6402,53 @@
         <v>2.3055849404616593E-3</v>
       </c>
       <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
         <v>0.78002007215124636</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <f t="shared" si="11"/>
+        <v>-7.4473837961509847E-4</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="8"/>
+        <v>0.32301493930905689</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="9">
         <f t="shared" si="10"/>
-        <v>-7.4473837961509847E-4</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="7"/>
-        <v>0.32301493930905689</v>
-      </c>
-      <c r="I46" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J46" s="9">
-        <f t="shared" si="9"/>
         <v>1.4779010327920158E-3</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <f t="shared" si="2"/>
         <v>0.82301493930905689</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <f t="shared" si="3"/>
         <v>1.4779010327920158E-3</v>
       </c>
-      <c r="O46" s="6">
-        <f t="shared" si="4"/>
+      <c r="P46" s="6">
+        <f>M46*D46</f>
         <v>1.8975308498459281E-3</v>
       </c>
-      <c r="P46" s="7">
+      <c r="Q46" s="7">
         <f t="shared" si="4"/>
         <v>1.1527924702308297E-3</v>
       </c>
-      <c r="R46" s="3">
-        <f>R45+P45-O45</f>
+      <c r="S46" s="3">
+        <f t="shared" si="12"/>
         <v>2.3055849404617179E-3</v>
       </c>
-      <c r="S46" s="3">
-        <f t="shared" si="6"/>
+      <c r="T46" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8546917314217239E-17</v>
       </c>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
         <f t="shared" si="5"/>
         <v>62</v>
@@ -6163,50 +6457,53 @@
         <v>1.5608465608465609E-3</v>
       </c>
       <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
         <v>0.70140211640211636</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
+        <f t="shared" si="11"/>
+        <v>9.3766339796603083E-5</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="8"/>
+        <v>-6.0074027869688074E-2</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K47" s="9">
         <f t="shared" si="10"/>
-        <v>9.3766339796603083E-5</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="7"/>
-        <v>-6.0074027869688074E-2</v>
-      </c>
-      <c r="I47" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J47" s="9">
-        <f t="shared" si="9"/>
         <v>1.1126617131218648E-3</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <f t="shared" si="2"/>
         <v>0.43992597213031193</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <f t="shared" si="3"/>
         <v>1.1126617131218648E-3</v>
       </c>
-      <c r="O47" s="6">
-        <f t="shared" si="4"/>
+      <c r="P47" s="6">
+        <f>M47*D47</f>
         <v>6.8665694062667736E-4</v>
       </c>
-      <c r="P47" s="7">
+      <c r="Q47" s="7">
         <f t="shared" si="4"/>
         <v>7.8042328042328044E-4</v>
       </c>
-      <c r="R47" s="3">
-        <f>R46+P46-O46</f>
+      <c r="S47" s="3">
+        <f t="shared" si="12"/>
         <v>1.5608465608466194E-3</v>
       </c>
-      <c r="S47" s="3">
-        <f t="shared" si="6"/>
+      <c r="T47" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8546917314217239E-17</v>
       </c>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -6215,50 +6512,53 @@
         <v>1.654612900643164E-3</v>
       </c>
       <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
         <v>0.45760721624723122</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <f t="shared" si="11"/>
+        <v>1.6447966216825679E-4</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="8"/>
+        <v>-9.9406732598495973E-2</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="9">
         <f t="shared" si="10"/>
-        <v>1.6447966216825679E-4</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="7"/>
-        <v>-9.9406732598495973E-2</v>
-      </c>
-      <c r="I48" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J48" s="9">
-        <f t="shared" si="9"/>
         <v>1.8078964250306175E-3</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <f t="shared" si="2"/>
         <v>0.40059326740150403</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
         <f t="shared" si="3"/>
         <v>1.8078964250306175E-3</v>
       </c>
-      <c r="O48" s="6">
-        <f t="shared" si="4"/>
+      <c r="P48" s="6">
+        <f>M48*D48</f>
         <v>6.628267881533252E-4</v>
       </c>
-      <c r="P48" s="7">
+      <c r="Q48" s="7">
         <f t="shared" si="4"/>
         <v>8.2730645032158198E-4</v>
       </c>
-      <c r="R48" s="3">
-        <f>R47+P47-O47</f>
+      <c r="S48" s="3">
+        <f t="shared" si="12"/>
         <v>1.6546129006432227E-3</v>
       </c>
-      <c r="S48" s="3">
-        <f t="shared" si="6"/>
+      <c r="T48" s="3">
+        <f t="shared" si="7"/>
         <v>-5.876375774871434E-17</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
         <f t="shared" si="5"/>
         <v>64</v>
@@ -6267,50 +6567,53 @@
         <v>1.8190925628114207E-3</v>
       </c>
       <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
         <v>0.25098204634731486</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
+        <f t="shared" si="11"/>
+        <v>-1.4060428515697281E-4</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="8"/>
+        <v>7.7293639714335297E-2</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="9">
         <f t="shared" si="10"/>
-        <v>-1.4060428515697281E-4</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="7"/>
-        <v>7.7293639714335297E-2</v>
-      </c>
-      <c r="I49" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J49" s="9">
-        <f t="shared" si="9"/>
         <v>3.6239495798319329E-3</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <f t="shared" si="2"/>
         <v>0.57729363971433534</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <f t="shared" si="3"/>
         <v>3.6239495798319329E-3</v>
       </c>
-      <c r="O49" s="6">
-        <f t="shared" si="4"/>
+      <c r="P49" s="6">
+        <f>M49*D49</f>
         <v>1.0501505665626832E-3</v>
       </c>
-      <c r="P49" s="7">
+      <c r="Q49" s="7">
         <f t="shared" si="4"/>
         <v>9.0954628140571037E-4</v>
       </c>
-      <c r="R49" s="3">
-        <f>R48+P48-O48</f>
+      <c r="S49" s="3">
+        <f t="shared" si="12"/>
         <v>1.8190925628114797E-3</v>
       </c>
-      <c r="S49" s="3">
-        <f t="shared" si="6"/>
+      <c r="T49" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -6319,50 +6622,53 @@
         <v>1.6784882776544479E-3</v>
       </c>
       <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
         <v>0.13579511614055986</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1272948701114755E-4</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="8"/>
+        <v>-6.716131921318981E-2</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="9">
         <f t="shared" si="10"/>
-        <v>1.1272948701114755E-4</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="7"/>
-        <v>-6.716131921318981E-2</v>
-      </c>
-      <c r="I50" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J50" s="9">
-        <f t="shared" si="9"/>
         <v>6.180223285486443E-3</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <f t="shared" si="2"/>
         <v>0.4328386807868102</v>
       </c>
-      <c r="M50" s="4">
+      <c r="N50" s="4">
         <f t="shared" si="3"/>
         <v>6.180223285486443E-3</v>
       </c>
-      <c r="O50" s="6">
-        <f t="shared" si="4"/>
+      <c r="P50" s="6">
+        <f>M50*D50</f>
         <v>7.2651465181607642E-4</v>
       </c>
-      <c r="P50" s="7">
+      <c r="Q50" s="7">
         <f t="shared" si="4"/>
         <v>8.3924413882722397E-4</v>
       </c>
-      <c r="R50" s="3">
-        <f>R49+P49-O49</f>
+      <c r="S50" s="3">
+        <f t="shared" si="12"/>
         <v>1.6784882776545071E-3</v>
       </c>
-      <c r="S50" s="3">
-        <f t="shared" si="6"/>
+      <c r="T50" s="3">
+        <f t="shared" si="7"/>
         <v>-5.9197438617708542E-17</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
         <f t="shared" si="5"/>
         <v>66</v>
@@ -6371,50 +6677,53 @@
         <v>1.7912177646655955E-3</v>
       </c>
       <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
         <v>9.7568685298843605E-2</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
+        <f t="shared" si="11"/>
+        <v>-3.9537245716908509E-4</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="8"/>
+        <v>0.22072830281632319</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="9">
         <f t="shared" si="10"/>
-        <v>-3.9537245716908509E-4</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="7"/>
-        <v>0.22072830281632319</v>
-      </c>
-      <c r="I51" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J51" s="9">
-        <f t="shared" si="9"/>
         <v>9.1792656587473005E-3</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <f t="shared" si="2"/>
         <v>0.72072830281632316</v>
       </c>
-      <c r="M51" s="4">
+      <c r="N51" s="4">
         <f t="shared" si="3"/>
         <v>9.1792656587473005E-3</v>
       </c>
-      <c r="O51" s="6">
-        <f t="shared" si="4"/>
+      <c r="P51" s="6">
+        <f>M51*D51</f>
         <v>1.2909813395018828E-3</v>
       </c>
-      <c r="P51" s="7">
+      <c r="Q51" s="7">
         <f t="shared" si="4"/>
         <v>8.9560888233279764E-4</v>
       </c>
-      <c r="R51" s="3">
-        <f>R50+P50-O50</f>
+      <c r="S51" s="3">
+        <f t="shared" si="12"/>
         <v>1.7912177646656545E-3</v>
       </c>
-      <c r="S51" s="3">
-        <f t="shared" si="6"/>
+      <c r="T51" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -6423,50 +6732,53 @@
         <v>1.3958453074965104E-3</v>
       </c>
       <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
         <v>7.9125270273968859E-2</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <f t="shared" si="11"/>
+        <v>6.1842005323186873E-5</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="8"/>
+        <v>-4.4304340166534881E-2</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="9">
         <f t="shared" si="10"/>
-        <v>6.1842005323186873E-5</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="7"/>
-        <v>-4.4304340166534881E-2</v>
-      </c>
-      <c r="I52" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J52" s="9">
-        <f t="shared" si="9"/>
         <v>8.8204773434797639E-3</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <f t="shared" si="2"/>
         <v>0.45569565983346511</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N52" s="4">
         <f t="shared" si="3"/>
         <v>8.8204773434797639E-3</v>
       </c>
-      <c r="O52" s="6">
-        <f t="shared" si="4"/>
+      <c r="P52" s="6">
+        <f>M52*D52</f>
         <v>6.3608064842506833E-4</v>
       </c>
-      <c r="P52" s="7">
+      <c r="Q52" s="7">
         <f t="shared" si="4"/>
         <v>6.979226537482552E-4</v>
       </c>
-      <c r="R52" s="3">
-        <f>R51+P51-O51</f>
+      <c r="S52" s="3">
+        <f t="shared" si="12"/>
         <v>1.3958453074965692E-3</v>
       </c>
-      <c r="S52" s="3">
-        <f t="shared" si="6"/>
+      <c r="T52" s="3">
+        <f t="shared" si="7"/>
         <v>-5.876375774871434E-17</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -6475,50 +6787,53 @@
         <v>1.4576873128196973E-3</v>
       </c>
       <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
         <v>1.136996103999364E-2</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
+        <f t="shared" si="11"/>
+        <v>-3.7412393726179104E-4</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="8"/>
+        <v>0.25665582321499342</v>
+      </c>
+      <c r="J53" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="9">
         <f t="shared" si="10"/>
-        <v>-3.7412393726179104E-4</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="7"/>
-        <v>0.25665582321499342</v>
-      </c>
-      <c r="I53" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J53" s="9">
-        <f t="shared" si="9"/>
         <v>6.4102564102564097E-2</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <f t="shared" si="2"/>
         <v>0.75665582321499336</v>
       </c>
-      <c r="M53" s="4">
+      <c r="N53" s="4">
         <f t="shared" si="3"/>
         <v>6.4102564102564097E-2</v>
       </c>
-      <c r="O53" s="6">
-        <f t="shared" si="4"/>
+      <c r="P53" s="6">
+        <f>M53*D53</f>
         <v>1.1029675936716397E-3</v>
       </c>
-      <c r="P53" s="7">
+      <c r="Q53" s="7">
         <f t="shared" si="4"/>
         <v>7.2884365640984864E-4</v>
       </c>
-      <c r="R53" s="3">
-        <f>R52+P52-O52</f>
+      <c r="S53" s="3">
+        <f t="shared" si="12"/>
         <v>1.4576873128197563E-3</v>
       </c>
-      <c r="S53" s="3">
-        <f t="shared" si="6"/>
+      <c r="T53" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
         <f t="shared" si="5"/>
         <v>69</v>
@@ -6527,50 +6842,53 @@
         <v>1.0835633755579062E-3</v>
       </c>
       <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
         <v>3.5860787905368798E-3</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <f t="shared" si="11"/>
+        <v>3.1372334767770164E-4</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.28952930188893794</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="9">
         <f t="shared" si="10"/>
-        <v>3.1372334767770164E-4</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="7"/>
-        <v>-0.28952930188893794</v>
-      </c>
-      <c r="I54" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J54" s="9">
-        <f t="shared" si="9"/>
         <v>0.15107913669064749</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <f t="shared" si="2"/>
         <v>0.21047069811106206</v>
       </c>
-      <c r="M54" s="4">
+      <c r="N54" s="4">
         <f t="shared" si="3"/>
         <v>0.15107913669064749</v>
       </c>
-      <c r="O54" s="6">
-        <f t="shared" si="4"/>
+      <c r="P54" s="6">
+        <f>M54*D54</f>
         <v>2.2805834010125145E-4</v>
       </c>
-      <c r="P54" s="7">
+      <c r="Q54" s="7">
         <f t="shared" si="4"/>
         <v>5.4178168777895312E-4</v>
       </c>
-      <c r="R54" s="3">
-        <f>R53+P53-O53</f>
+      <c r="S54" s="3">
+        <f t="shared" si="12"/>
         <v>1.0835633755579652E-3</v>
       </c>
-      <c r="S54" s="3">
-        <f t="shared" si="6"/>
+      <c r="T54" s="3">
+        <f t="shared" si="7"/>
         <v>-5.8980598183211441E-17</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
         <f t="shared" si="5"/>
         <v>70</v>
@@ -6579,44 +6897,47 @@
         <v>1.3972867232356079E-3</v>
       </c>
       <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
         <v>2.2356587571769728E-3</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="R55" s="3">
-        <f>R54+P54-O54</f>
+      <c r="G55" s="3"/>
+      <c r="S55" s="3">
+        <f t="shared" si="12"/>
         <v>1.3972867232356671E-3</v>
       </c>
-      <c r="S55" s="3">
-        <f t="shared" si="6"/>
+      <c r="T55" s="3">
+        <f t="shared" si="7"/>
         <v>-5.9197438617708542E-17</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
